--- a/Source/Narrative/Media Posts.xlsx
+++ b/Source/Narrative/Media Posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grayn\OneDrive\Documents\short\Under Choices\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CF2874-3AFC-455B-9982-476BB5E7BCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D29D06-433C-4050-86D7-83C7CD7077DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,45 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Post Number</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Hashtag 1</t>
-  </si>
-  <si>
-    <t>Hashtag 2</t>
-  </si>
-  <si>
-    <t>Hashtag 3</t>
-  </si>
-  <si>
-    <t>Base Engagement</t>
-  </si>
-  <si>
-    <t>Boosted Engagement</t>
-  </si>
-  <si>
-    <t>Boost Cost</t>
-  </si>
-  <si>
-    <t>Image File</t>
-  </si>
-  <si>
-    <t>Headline</t>
-  </si>
-  <si>
-    <t>Publisher</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Post Number (Integer)</t>
+  </si>
+  <si>
+    <t>Publisher (String)</t>
+  </si>
+  <si>
+    <t>Subject (Government, Violence, Health, Radicalism)</t>
+  </si>
+  <si>
+    <t>Day (Integer, 1-8)</t>
+  </si>
+  <si>
+    <t>Reaction (Happy, Sad, Angry)</t>
+  </si>
+  <si>
+    <t>Hashtag 1 (String)</t>
+  </si>
+  <si>
+    <t>Hashtag 2 (String)</t>
+  </si>
+  <si>
+    <t>Hashtag 3 (String)</t>
+  </si>
+  <si>
+    <t>Base Engagement (Integer)</t>
+  </si>
+  <si>
+    <t>Boosted Engagement (Integer)</t>
+  </si>
+  <si>
+    <t>Boost Cost (Float)</t>
+  </si>
+  <si>
+    <t>Headline (String)</t>
+  </si>
+  <si>
+    <t>Image File Path (String)</t>
+  </si>
+  <si>
+    <t>Warning: do not use commas in string text</t>
   </si>
 </sst>
 </file>
@@ -122,19 +125,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A44B44BB-C124-416A-A5ED-96BB8790C489}" name="Table1" displayName="Table1" ref="A1:M4" totalsRowShown="0">
   <autoFilter ref="A1:M4" xr:uid="{A44B44BB-C124-416A-A5ED-96BB8790C489}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{A937A89C-83D8-47F8-A939-870491748BB5}" name="Post Number"/>
-    <tableColumn id="2" xr3:uid="{A8EF90EC-7501-4CAC-9D7B-BE5B573D1E94}" name="Publisher"/>
-    <tableColumn id="3" xr3:uid="{872F46ED-9A97-4884-87EA-B74DD8C9F9BF}" name="Subject"/>
-    <tableColumn id="4" xr3:uid="{36B97FA6-B33F-4DE1-B9DC-F0FEA9FE8AE1}" name="Day"/>
-    <tableColumn id="5" xr3:uid="{09621E9C-3C9D-433E-A258-75193CBBC6B5}" name="Reaction"/>
-    <tableColumn id="6" xr3:uid="{672F08D8-8913-457E-AE3B-06C0C51FB77F}" name="Hashtag 1"/>
-    <tableColumn id="7" xr3:uid="{138FDF3D-648F-448D-976E-7FA90153CDBA}" name="Hashtag 2"/>
-    <tableColumn id="8" xr3:uid="{D221DCB3-339D-4547-A686-C0A14B78F5A8}" name="Hashtag 3"/>
-    <tableColumn id="9" xr3:uid="{FA9BCD0A-EFD9-4FA2-9B00-B6D8748094C7}" name="Base Engagement"/>
-    <tableColumn id="10" xr3:uid="{394B2133-9A3B-4549-9628-338B588047E1}" name="Boosted Engagement"/>
-    <tableColumn id="11" xr3:uid="{FB8F38F8-7B80-42B3-BABD-6B09E43B42E7}" name="Boost Cost"/>
-    <tableColumn id="12" xr3:uid="{90123981-6599-4E19-882F-16B99DF735F8}" name="Headline"/>
-    <tableColumn id="13" xr3:uid="{72271049-51D5-47E0-973A-28F53D2C997B}" name="Image File"/>
+    <tableColumn id="1" xr3:uid="{A937A89C-83D8-47F8-A939-870491748BB5}" name="Post Number (Integer)"/>
+    <tableColumn id="2" xr3:uid="{A8EF90EC-7501-4CAC-9D7B-BE5B573D1E94}" name="Publisher (String)"/>
+    <tableColumn id="3" xr3:uid="{872F46ED-9A97-4884-87EA-B74DD8C9F9BF}" name="Subject (Government, Violence, Health, Radicalism)"/>
+    <tableColumn id="4" xr3:uid="{36B97FA6-B33F-4DE1-B9DC-F0FEA9FE8AE1}" name="Day (Integer, 1-8)"/>
+    <tableColumn id="5" xr3:uid="{09621E9C-3C9D-433E-A258-75193CBBC6B5}" name="Reaction (Happy, Sad, Angry)"/>
+    <tableColumn id="6" xr3:uid="{672F08D8-8913-457E-AE3B-06C0C51FB77F}" name="Hashtag 1 (String)"/>
+    <tableColumn id="7" xr3:uid="{138FDF3D-648F-448D-976E-7FA90153CDBA}" name="Hashtag 2 (String)"/>
+    <tableColumn id="8" xr3:uid="{D221DCB3-339D-4547-A686-C0A14B78F5A8}" name="Hashtag 3 (String)"/>
+    <tableColumn id="9" xr3:uid="{FA9BCD0A-EFD9-4FA2-9B00-B6D8748094C7}" name="Base Engagement (Integer)"/>
+    <tableColumn id="10" xr3:uid="{394B2133-9A3B-4549-9628-338B588047E1}" name="Boosted Engagement (Integer)"/>
+    <tableColumn id="11" xr3:uid="{FB8F38F8-7B80-42B3-BABD-6B09E43B42E7}" name="Boost Cost (Float)"/>
+    <tableColumn id="12" xr3:uid="{90123981-6599-4E19-882F-16B99DF735F8}" name="Headline (String)"/>
+    <tableColumn id="13" xr3:uid="{72271049-51D5-47E0-973A-28F53D2C997B}" name="Image File Path (String)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -403,24 +406,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -429,40 +433,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Narrative/Media Posts.xlsx
+++ b/Source/Narrative/Media Posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grayn\OneDrive\Documents\short\Under Choices\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D29D06-433C-4050-86D7-83C7CD7077DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D055FEB-51F1-4588-89F8-99FA8110D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -67,12 +67,87 @@
   </si>
   <si>
     <t>Warning: do not use commas in string text</t>
+  </si>
+  <si>
+    <t>Pox</t>
+  </si>
+  <si>
+    <t>CYPost</t>
+  </si>
+  <si>
+    <t>Forbees</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Violence</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>KeepThemIn</t>
+  </si>
+  <si>
+    <t>GetsThingsDone</t>
+  </si>
+  <si>
+    <t>InGoodHands</t>
+  </si>
+  <si>
+    <t>Government Popularity All Time High</t>
+  </si>
+  <si>
+    <t>post_001.jpg</t>
+  </si>
+  <si>
+    <t>post_002.jpg</t>
+  </si>
+  <si>
+    <t>post_003.jpg</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>TooSoon</t>
+  </si>
+  <si>
+    <t>SoTragic</t>
+  </si>
+  <si>
+    <t>PrayForThem</t>
+  </si>
+  <si>
+    <t>Child Dies From Riot Injuries</t>
+  </si>
+  <si>
+    <t>Angry</t>
+  </si>
+  <si>
+    <t>CrappyHealthCare</t>
+  </si>
+  <si>
+    <t>OverpaidIdiots</t>
+  </si>
+  <si>
+    <t>MoneyForWhat</t>
+  </si>
+  <si>
+    <t>Surgeons Walk Out</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,13 +177,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -125,7 +209,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A44B44BB-C124-416A-A5ED-96BB8790C489}" name="Table1" displayName="Table1" ref="A1:M4" totalsRowShown="0">
   <autoFilter ref="A1:M4" xr:uid="{A44B44BB-C124-416A-A5ED-96BB8790C489}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{A937A89C-83D8-47F8-A939-870491748BB5}" name="Post Number (Integer)"/>
+    <tableColumn id="1" xr3:uid="{A937A89C-83D8-47F8-A939-870491748BB5}" name="Post Number (Integer)" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{A8EF90EC-7501-4CAC-9D7B-BE5B573D1E94}" name="Publisher (String)"/>
     <tableColumn id="3" xr3:uid="{872F46ED-9A97-4884-87EA-B74DD8C9F9BF}" name="Subject (Government, Violence, Health, Radicalism)"/>
     <tableColumn id="4" xr3:uid="{36B97FA6-B33F-4DE1-B9DC-F0FEA9FE8AE1}" name="Day (Integer, 1-8)"/>
@@ -135,7 +219,7 @@
     <tableColumn id="8" xr3:uid="{D221DCB3-339D-4547-A686-C0A14B78F5A8}" name="Hashtag 3 (String)"/>
     <tableColumn id="9" xr3:uid="{FA9BCD0A-EFD9-4FA2-9B00-B6D8748094C7}" name="Base Engagement (Integer)"/>
     <tableColumn id="10" xr3:uid="{394B2133-9A3B-4549-9628-338B588047E1}" name="Boosted Engagement (Integer)"/>
-    <tableColumn id="11" xr3:uid="{FB8F38F8-7B80-42B3-BABD-6B09E43B42E7}" name="Boost Cost (Float)"/>
+    <tableColumn id="11" xr3:uid="{FB8F38F8-7B80-42B3-BABD-6B09E43B42E7}" name="Boost Cost (Float)" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{90123981-6599-4E19-882F-16B99DF735F8}" name="Headline (String)"/>
     <tableColumn id="13" xr3:uid="{72271049-51D5-47E0-973A-28F53D2C997B}" name="Image File Path (String)"/>
   </tableColumns>
@@ -408,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +507,7 @@
     <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -469,6 +553,129 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>75</v>
+      </c>
+      <c r="J2">
+        <v>16000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <v>117</v>
+      </c>
+      <c r="J3">
+        <v>28000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>156</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>15000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>80</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
@@ -476,8 +683,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Source/Narrative/Media Posts.xlsx
+++ b/Source/Narrative/Media Posts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grayn\OneDrive\Documents\short\Under Choices\UnderChoices\Source\Narrative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D055FEB-51F1-4588-89F8-99FA8110D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EE1EB7-6BBD-4AD6-BA81-560962D8EC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="43">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Image File Path (String)</t>
   </si>
   <si>
-    <t>Warning: do not use commas in string text</t>
-  </si>
-  <si>
     <t>Pox</t>
   </si>
   <si>
@@ -139,16 +136,31 @@
   </si>
   <si>
     <t>Surgeons Walk Out</t>
+  </si>
+  <si>
+    <t>SeeEnEn</t>
+  </si>
+  <si>
+    <t>PickMe</t>
+  </si>
+  <si>
+    <t>3Wasps</t>
+  </si>
+  <si>
+    <t>UnderChoicesVictim</t>
+  </si>
+  <si>
+    <t>GloomIce</t>
+  </si>
+  <si>
+    <t>Radicalism</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="000"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +168,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,20 +208,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -206,20 +263,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A44B44BB-C124-416A-A5ED-96BB8790C489}" name="Table1" displayName="Table1" ref="A1:M4" totalsRowShown="0">
-  <autoFilter ref="A1:M4" xr:uid="{A44B44BB-C124-416A-A5ED-96BB8790C489}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A44B44BB-C124-416A-A5ED-96BB8790C489}" name="Table1" displayName="Table1" ref="A1:M193" totalsRowShown="0">
+  <autoFilter ref="A1:M193" xr:uid="{A44B44BB-C124-416A-A5ED-96BB8790C489}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{A937A89C-83D8-47F8-A939-870491748BB5}" name="Post Number (Integer)" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A937A89C-83D8-47F8-A939-870491748BB5}" name="Post Number (Integer)"/>
     <tableColumn id="2" xr3:uid="{A8EF90EC-7501-4CAC-9D7B-BE5B573D1E94}" name="Publisher (String)"/>
-    <tableColumn id="3" xr3:uid="{872F46ED-9A97-4884-87EA-B74DD8C9F9BF}" name="Subject (Government, Violence, Health, Radicalism)"/>
-    <tableColumn id="4" xr3:uid="{36B97FA6-B33F-4DE1-B9DC-F0FEA9FE8AE1}" name="Day (Integer, 1-8)"/>
-    <tableColumn id="5" xr3:uid="{09621E9C-3C9D-433E-A258-75193CBBC6B5}" name="Reaction (Happy, Sad, Angry)"/>
+    <tableColumn id="3" xr3:uid="{872F46ED-9A97-4884-87EA-B74DD8C9F9BF}" name="Subject (Government, Violence, Health, Radicalism)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{36B97FA6-B33F-4DE1-B9DC-F0FEA9FE8AE1}" name="Day (Integer, 1-8)" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{09621E9C-3C9D-433E-A258-75193CBBC6B5}" name="Reaction (Happy, Sad, Angry)" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{672F08D8-8913-457E-AE3B-06C0C51FB77F}" name="Hashtag 1 (String)"/>
     <tableColumn id="7" xr3:uid="{138FDF3D-648F-448D-976E-7FA90153CDBA}" name="Hashtag 2 (String)"/>
     <tableColumn id="8" xr3:uid="{D221DCB3-339D-4547-A686-C0A14B78F5A8}" name="Hashtag 3 (String)"/>
     <tableColumn id="9" xr3:uid="{FA9BCD0A-EFD9-4FA2-9B00-B6D8748094C7}" name="Base Engagement (Integer)"/>
     <tableColumn id="10" xr3:uid="{394B2133-9A3B-4549-9628-338B588047E1}" name="Boosted Engagement (Integer)"/>
-    <tableColumn id="11" xr3:uid="{FB8F38F8-7B80-42B3-BABD-6B09E43B42E7}" name="Boost Cost (Float)" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{FB8F38F8-7B80-42B3-BABD-6B09E43B42E7}" name="Boost Cost (Float)" dataDxfId="3"/>
     <tableColumn id="12" xr3:uid="{90123981-6599-4E19-882F-16B99DF735F8}" name="Headline (String)"/>
     <tableColumn id="13" xr3:uid="{72271049-51D5-47E0-973A-28F53D2C997B}" name="Image File Path (String)"/>
   </tableColumns>
@@ -490,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,29 +611,29 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
       </c>
       <c r="I2">
         <v>75</v>
@@ -584,40 +641,40 @@
       <c r="J2">
         <v>16000</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>100</v>
       </c>
       <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
       </c>
       <c r="I3">
         <v>117</v>
@@ -625,40 +682,40 @@
       <c r="J3">
         <v>28000</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>156</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -666,20 +723,3417 @@
       <c r="J4">
         <v>15000</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>80</v>
       </c>
       <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="C24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="7">
+        <v>2</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="7">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="7">
+        <v>2</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="7">
+        <v>2</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="7">
+        <v>3</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="7">
+        <v>3</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="7">
+        <v>3</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="7">
+        <v>3</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="7">
+        <v>3</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="7">
+        <v>3</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="7">
+        <v>3</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="7">
+        <v>3</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="7">
+        <v>3</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="7">
+        <v>3</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="7">
+        <v>3</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="7">
+        <v>3</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="7">
+        <v>3</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="7">
+        <v>3</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="7">
+        <v>3</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="7">
+        <v>3</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="7">
+        <v>3</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="7">
+        <v>3</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="7">
+        <v>3</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="7">
+        <v>3</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="7">
+        <v>3</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="7">
+        <v>3</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="7">
+        <v>3</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" s="7">
+        <v>3</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="7">
+        <v>4</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="7">
+        <v>4</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="7">
+        <v>4</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="7">
+        <v>4</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>76</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="7">
+        <v>4</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="7">
+        <v>4</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>78</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="7">
+        <v>4</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="7">
+        <v>4</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="7">
+        <v>4</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="7">
+        <v>4</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>82</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="7">
+        <v>4</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>83</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="7">
+        <v>4</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>84</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="7">
+        <v>4</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>85</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="7">
+        <v>4</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>86</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="7">
+        <v>4</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="7">
+        <v>4</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>88</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="7">
+        <v>4</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>89</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="7">
+        <v>4</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>90</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" s="7">
+        <v>4</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>91</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" s="7">
+        <v>4</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>92</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="7">
+        <v>4</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>93</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" s="7">
+        <v>4</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>94</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" s="7">
+        <v>4</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>95</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" s="7">
+        <v>4</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>96</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="7">
+        <v>5</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>97</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="7">
+        <v>5</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>98</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="7">
+        <v>5</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="7">
+        <v>5</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>100</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="7">
+        <v>5</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>101</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="7">
+        <v>5</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>102</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="7">
+        <v>5</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>103</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="7">
+        <v>5</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>104</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="7">
+        <v>5</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>105</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="7">
+        <v>5</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>106</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="7">
+        <v>5</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>107</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="7">
+        <v>5</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>108</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" s="7">
+        <v>5</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>109</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="7">
+        <v>5</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>110</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="7">
+        <v>5</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>111</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="7">
+        <v>5</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>112</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="7">
+        <v>5</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>113</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="7">
+        <v>5</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>114</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D116" s="7">
+        <v>5</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>115</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D117" s="7">
+        <v>5</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>116</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D118" s="7">
+        <v>5</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>117</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D119" s="7">
+        <v>5</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>118</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D120" s="7">
+        <v>5</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>119</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D121" s="7">
+        <v>5</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>120</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="7">
+        <v>6</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>121</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="7">
+        <v>6</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>122</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="7">
+        <v>6</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>123</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="7">
+        <v>6</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>124</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="7">
+        <v>6</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>125</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="7">
+        <v>6</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K127" s="1"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>126</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="7">
+        <v>6</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K128" s="1"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>127</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="7">
+        <v>6</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K129" s="1"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>128</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="7">
+        <v>6</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>129</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="7">
+        <v>6</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>130</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="7">
+        <v>6</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K132" s="1"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>131</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="7">
+        <v>6</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K133" s="1"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>132</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" s="7">
+        <v>6</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K134" s="1"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>133</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="7">
+        <v>6</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K135" s="1"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>134</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="7">
+        <v>6</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K136" s="1"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>135</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" s="7">
+        <v>6</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K137" s="1"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>136</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="7">
+        <v>6</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K138" s="1"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>137</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="7">
+        <v>6</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K139" s="1"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>138</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" s="7">
+        <v>6</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K140" s="1"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>139</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" s="7">
+        <v>6</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K141" s="1"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>140</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D142" s="7">
+        <v>6</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K142" s="1"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>141</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D143" s="7">
+        <v>6</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>142</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D144" s="7">
+        <v>6</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>143</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" s="7">
+        <v>6</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K145" s="1"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>144</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="7">
+        <v>7</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>145</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="7">
+        <v>7</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K147" s="1"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>146</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" s="7">
+        <v>7</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K148" s="1"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>147</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="7">
+        <v>7</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K149" s="1"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>148</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="7">
+        <v>7</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>149</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="7">
+        <v>7</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K151" s="1"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>150</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="7">
+        <v>7</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K152" s="1"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>151</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="7">
+        <v>7</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K153" s="1"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>152</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="7">
+        <v>7</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K154" s="1"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>153</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="7">
+        <v>7</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K155" s="1"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>154</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="7">
+        <v>7</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K156" s="1"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>155</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="7">
+        <v>7</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K157" s="1"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>156</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" s="7">
+        <v>7</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K158" s="1"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>157</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159" s="7">
+        <v>7</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K159" s="1"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>158</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" s="7">
+        <v>7</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K160" s="1"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>159</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" s="7">
+        <v>7</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K161" s="1"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>160</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" s="7">
+        <v>7</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K162" s="1"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>161</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" s="7">
+        <v>7</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K163" s="1"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>162</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D164" s="7">
+        <v>7</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K164" s="1"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>163</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D165" s="7">
+        <v>7</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K165" s="1"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>164</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D166" s="7">
+        <v>7</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K166" s="1"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>165</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D167" s="7">
+        <v>7</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K167" s="1"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>166</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D168" s="7">
+        <v>7</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K168" s="1"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>167</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D169" s="7">
+        <v>7</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K169" s="1"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>168</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" s="7">
+        <v>8</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K170" s="1"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>169</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" s="7">
+        <v>8</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K171" s="1"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>170</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="7">
+        <v>8</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K172" s="1"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>171</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="7">
+        <v>8</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K173" s="1"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>172</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="7">
+        <v>8</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K174" s="1"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>173</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="7">
+        <v>8</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K175" s="1"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>174</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="7">
+        <v>8</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K176" s="1"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>175</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="7">
+        <v>8</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K177" s="1"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>176</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="7">
+        <v>8</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K178" s="1"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>177</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="7">
+        <v>8</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K179" s="1"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>178</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" s="7">
+        <v>8</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K180" s="1"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>179</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" s="7">
+        <v>8</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K181" s="1"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>180</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" s="7">
+        <v>8</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K182" s="1"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>181</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" s="7">
+        <v>8</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K183" s="1"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>182</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" s="7">
+        <v>8</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K184" s="1"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>183</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185" s="7">
+        <v>8</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K185" s="1"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>184</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" s="7">
+        <v>8</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K186" s="1"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>185</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" s="7">
+        <v>8</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K187" s="1"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>186</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D188" s="7">
+        <v>8</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K188" s="1"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>187</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D189" s="7">
+        <v>8</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K189" s="1"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>188</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D190" s="7">
+        <v>8</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K190" s="1"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>189</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D191" s="7">
+        <v>8</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K191" s="1"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>190</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D192" s="7">
+        <v>8</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K192" s="1"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>191</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D193" s="7">
+        <v>8</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K193" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source/Narrative/Media Posts.xlsx
+++ b/Source/Narrative/Media Posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EE1EB7-6BBD-4AD6-BA81-560962D8EC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2BAD6C-C758-414C-A807-C1FE2B9AE65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="116">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -111,30 +111,15 @@
     <t>Sad</t>
   </si>
   <si>
-    <t>TooSoon</t>
-  </si>
-  <si>
-    <t>SoTragic</t>
-  </si>
-  <si>
     <t>PrayForThem</t>
   </si>
   <si>
-    <t>Child Dies From Riot Injuries</t>
-  </si>
-  <si>
     <t>Angry</t>
   </si>
   <si>
     <t>CrappyHealthCare</t>
   </si>
   <si>
-    <t>OverpaidIdiots</t>
-  </si>
-  <si>
-    <t>MoneyForWhat</t>
-  </si>
-  <si>
     <t>Surgeons Walk Out</t>
   </si>
   <si>
@@ -154,6 +139,240 @@
   </si>
   <si>
     <t>Radicalism</t>
+  </si>
+  <si>
+    <t>90% Want to Re-elect The Prime Minister</t>
+  </si>
+  <si>
+    <t>Government Cutbacks Harming Citizens</t>
+  </si>
+  <si>
+    <t>The Federal Squeeze on Happiness</t>
+  </si>
+  <si>
+    <t>Population Enraged At Government Actions</t>
+  </si>
+  <si>
+    <t>Riots Outside Politician Homes</t>
+  </si>
+  <si>
+    <t>Neighbors Form Militias</t>
+  </si>
+  <si>
+    <t>Community Defenses Fortified</t>
+  </si>
+  <si>
+    <t>Child Dies From Injuries From Riots</t>
+  </si>
+  <si>
+    <t>Homeless Dogs Trampled By Crowd</t>
+  </si>
+  <si>
+    <t>Grieving Father Takes Revenge on Murderer</t>
+  </si>
+  <si>
+    <t>Gangs Unite And Attack Middle Income Homes</t>
+  </si>
+  <si>
+    <t>How I Survived Alone for 10 Weeks</t>
+  </si>
+  <si>
+    <t>Heart-Warming Stories Of Single Parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Father Dies After Defending  Family of 5 </t>
+  </si>
+  <si>
+    <t>Doner Gives Life But Organs Rejected</t>
+  </si>
+  <si>
+    <t>Wait Times All Time High</t>
+  </si>
+  <si>
+    <t>Yoga Radicals Form New Country</t>
+  </si>
+  <si>
+    <t>The Next Generation Dig Holes In Economic Downturn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zealots Lead to Hunting Of Chihuahas </t>
+  </si>
+  <si>
+    <t>Political Radicals Voted For Wrong Party</t>
+  </si>
+  <si>
+    <t>Extremists Ban Cofee For Impact On Cocoa Plants</t>
+  </si>
+  <si>
+    <t>CAUTION! Thousands of Fanatics Punch Paul</t>
+  </si>
+  <si>
+    <t>How Government Can Make You Happier!</t>
+  </si>
+  <si>
+    <t>Government Bans Sadness</t>
+  </si>
+  <si>
+    <t>Why Government's Netflix Increases Depression</t>
+  </si>
+  <si>
+    <t>The Government Cuts Toilet Paper Funding</t>
+  </si>
+  <si>
+    <t>Government "Misplaces" Billions In Tax Revenue</t>
+  </si>
+  <si>
+    <t>Anger At Governments Internet Ban</t>
+  </si>
+  <si>
+    <t>Tike Myson Beats Rogan Jaul In 1 Round!</t>
+  </si>
+  <si>
+    <t>Teen Risks Life To Save Snail</t>
+  </si>
+  <si>
+    <t>Driver Run Over By Cyclist</t>
+  </si>
+  <si>
+    <t>Man Trips On Shoe Laces and Dies in Street Fight</t>
+  </si>
+  <si>
+    <t>Cyclist Attacks Geese For Blocking Bike Lane</t>
+  </si>
+  <si>
+    <t>Why Did New Talipa Kids Deface Memorial With Eggs?</t>
+  </si>
+  <si>
+    <t>Healthcare Workers Get Free Pizzas For Life</t>
+  </si>
+  <si>
+    <t>Boy Wakes Up From 20 Year Coma</t>
+  </si>
+  <si>
+    <t>Nurse Trips On Slippery Air Here's How</t>
+  </si>
+  <si>
+    <t>Man Loses Pinkie From Infection And Why You Should be Worried</t>
+  </si>
+  <si>
+    <t>Surgeon Operates On The Wrong Patient</t>
+  </si>
+  <si>
+    <t>How Did This Anestheologist Work for 10 Years With No Training?</t>
+  </si>
+  <si>
+    <t>Anime Weebs Create Sword Art Online IRL</t>
+  </si>
+  <si>
+    <t>Why Did Die A Hard Adrenaline Junkie Jump Without Her Parachute?</t>
+  </si>
+  <si>
+    <t>Revolutionary Speed Walker Tried To Outrun A Lion</t>
+  </si>
+  <si>
+    <t>Crazed Public Agitator Steals Washroom Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car Brake Enthusiast Steals Brakes From School Bus </t>
+  </si>
+  <si>
+    <t>After 99 Years Man Finally Wins The Lottery</t>
+  </si>
+  <si>
+    <t>VoteAgain</t>
+  </si>
+  <si>
+    <t>WhatAJoke</t>
+  </si>
+  <si>
+    <t>I'maSitDown</t>
+  </si>
+  <si>
+    <t>ItsDoomed</t>
+  </si>
+  <si>
+    <t>GetEmOUT</t>
+  </si>
+  <si>
+    <t>LeRevolution!</t>
+  </si>
+  <si>
+    <t>RiotTIME</t>
+  </si>
+  <si>
+    <t>ComeTogether!!</t>
+  </si>
+  <si>
+    <t>Justified!</t>
+  </si>
+  <si>
+    <t>BeSafe</t>
+  </si>
+  <si>
+    <t>GodLeftChat</t>
+  </si>
+  <si>
+    <t>FreeThem</t>
+  </si>
+  <si>
+    <t>SickEM!!!</t>
+  </si>
+  <si>
+    <t>BetterDead</t>
+  </si>
+  <si>
+    <t>Dispicable!</t>
+  </si>
+  <si>
+    <t>Hugs&amp;Kisses</t>
+  </si>
+  <si>
+    <t>BestWishes</t>
+  </si>
+  <si>
+    <t>100Sober</t>
+  </si>
+  <si>
+    <t>WeLostThem</t>
+  </si>
+  <si>
+    <t>God'sPlan</t>
+  </si>
+  <si>
+    <t>Depressi</t>
+  </si>
+  <si>
+    <t>$$$ForWhat??</t>
+  </si>
+  <si>
+    <t>TaxedForThis?</t>
+  </si>
+  <si>
+    <t>ALWAYsSupport</t>
+  </si>
+  <si>
+    <t>WEStrong</t>
+  </si>
+  <si>
+    <t>OurWayOrHiWay</t>
+  </si>
+  <si>
+    <t>WeNeedChange</t>
+  </si>
+  <si>
+    <t>AlwaysThem</t>
+  </si>
+  <si>
+    <t>ItsTheOnlyWay</t>
+  </si>
+  <si>
+    <t>Divide&amp;CONQUER</t>
+  </si>
+  <si>
+    <t>AgainstUS!!</t>
+  </si>
+  <si>
+    <t>Messiah</t>
   </si>
 </sst>
 </file>
@@ -208,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -217,11 +436,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -246,9 +469,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -268,15 +488,15 @@
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{A937A89C-83D8-47F8-A939-870491748BB5}" name="Post Number (Integer)"/>
     <tableColumn id="2" xr3:uid="{A8EF90EC-7501-4CAC-9D7B-BE5B573D1E94}" name="Publisher (String)"/>
-    <tableColumn id="3" xr3:uid="{872F46ED-9A97-4884-87EA-B74DD8C9F9BF}" name="Subject (Government, Violence, Health, Radicalism)" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{36B97FA6-B33F-4DE1-B9DC-F0FEA9FE8AE1}" name="Day (Integer, 1-8)" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{09621E9C-3C9D-433E-A258-75193CBBC6B5}" name="Reaction (Happy, Sad, Angry)" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{872F46ED-9A97-4884-87EA-B74DD8C9F9BF}" name="Subject (Government, Violence, Health, Radicalism)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{36B97FA6-B33F-4DE1-B9DC-F0FEA9FE8AE1}" name="Day (Integer, 1-8)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{09621E9C-3C9D-433E-A258-75193CBBC6B5}" name="Reaction (Happy, Sad, Angry)" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{672F08D8-8913-457E-AE3B-06C0C51FB77F}" name="Hashtag 1 (String)"/>
     <tableColumn id="7" xr3:uid="{138FDF3D-648F-448D-976E-7FA90153CDBA}" name="Hashtag 2 (String)"/>
     <tableColumn id="8" xr3:uid="{D221DCB3-339D-4547-A686-C0A14B78F5A8}" name="Hashtag 3 (String)"/>
     <tableColumn id="9" xr3:uid="{FA9BCD0A-EFD9-4FA2-9B00-B6D8748094C7}" name="Base Engagement (Integer)"/>
     <tableColumn id="10" xr3:uid="{394B2133-9A3B-4549-9628-338B588047E1}" name="Boosted Engagement (Integer)"/>
-    <tableColumn id="11" xr3:uid="{FB8F38F8-7B80-42B3-BABD-6B09E43B42E7}" name="Boost Cost (Float)" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{FB8F38F8-7B80-42B3-BABD-6B09E43B42E7}" name="Boost Cost (Float)" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{90123981-6599-4E19-882F-16B99DF735F8}" name="Headline (String)"/>
     <tableColumn id="13" xr3:uid="{72271049-51D5-47E0-973A-28F53D2C997B}" name="Image File Path (String)"/>
   </tableColumns>
@@ -549,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +784,7 @@
     <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="63.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -615,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>16</v>
@@ -626,13 +846,13 @@
       <c r="E2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I2">
@@ -644,7 +864,7 @@
       <c r="K2" s="1">
         <v>100</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="M2" t="s">
@@ -656,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>16</v>
@@ -667,14 +887,14 @@
       <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
+      <c r="F3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="I3">
         <v>117</v>
@@ -685,8 +905,8 @@
       <c r="K3" s="1">
         <v>156</v>
       </c>
-      <c r="L3" t="s">
-        <v>31</v>
+      <c r="L3" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="M3" t="s">
         <v>25</v>
@@ -708,14 +928,14 @@
       <c r="E4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
+      <c r="F4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -726,8 +946,8 @@
       <c r="K4" s="1">
         <v>80</v>
       </c>
-      <c r="L4" t="s">
-        <v>36</v>
+      <c r="L4" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -749,14 +969,28 @@
       <c r="E5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="F5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="1">
+        <v>75</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>16</v>
@@ -765,16 +999,30 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="1">
+        <v>121</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>16</v>
@@ -783,16 +1031,30 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="1">
+        <v>131</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
@@ -803,14 +1065,28 @@
       <c r="E8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="F8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="1">
+        <v>98</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>17</v>
@@ -821,14 +1097,28 @@
       <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="F9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="1">
+        <v>132</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>17</v>
@@ -839,14 +1129,28 @@
       <c r="E10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="F10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="1">
+        <v>149</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>17</v>
@@ -857,14 +1161,28 @@
       <c r="E11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="F11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="1">
+        <v>89</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>17</v>
@@ -873,16 +1191,30 @@
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="1">
+        <v>69</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>17</v>
@@ -891,16 +1223,30 @@
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="1">
+        <v>50</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>18</v>
@@ -911,14 +1257,28 @@
       <c r="E14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="F14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="1">
+        <v>134</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>18</v>
@@ -929,7 +1289,21 @@
       <c r="E15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="F15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="1">
+        <v>78</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -947,14 +1321,28 @@
       <c r="E16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="1">
+        <v>145</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>18</v>
@@ -965,14 +1353,28 @@
       <c r="E17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="1">
+        <v>82</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>18</v>
@@ -981,11 +1383,25 @@
         <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="1">
+        <v>175</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -999,11 +1415,25 @@
         <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="1">
+        <v>91</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1011,7 +1441,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -1019,17 +1449,31 @@
       <c r="E20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="1">
+        <v>150</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
@@ -1037,9 +1481,23 @@
       <c r="E21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="1">
+        <v>110</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1047,7 +1505,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -1055,17 +1513,31 @@
       <c r="E22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="1">
+        <v>60</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -1073,9 +1545,23 @@
       <c r="E23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="1">
+        <v>70</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1083,40 +1569,68 @@
         <v>13</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="1">
+        <v>147</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="1">
+        <v>90</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>16</v>
@@ -1127,9 +1641,23 @@
       <c r="E26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="1">
+        <v>100</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1145,9 +1673,23 @@
       <c r="E27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="1">
+        <v>156</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1163,9 +1705,23 @@
       <c r="E28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="1">
+        <v>80</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1181,9 +1737,23 @@
       <c r="E29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="1">
+        <v>75</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1197,16 +1767,30 @@
         <v>2</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30" s="1">
+        <v>121</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>16</v>
@@ -1215,16 +1799,30 @@
         <v>2</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" s="1">
+        <v>131</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>17</v>
@@ -1235,14 +1833,28 @@
       <c r="E32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K32" s="1">
+        <v>98</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>17</v>
@@ -1253,14 +1865,28 @@
       <c r="E33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K33" s="1">
+        <v>132</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>17</v>
@@ -1271,14 +1897,28 @@
       <c r="E34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" s="1">
+        <v>149</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>17</v>
@@ -1289,14 +1929,28 @@
       <c r="E35" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K35" s="1">
+        <v>89</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>17</v>
@@ -1305,11 +1959,25 @@
         <v>2</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="1">
+        <v>69</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -1323,16 +1991,30 @@
         <v>2</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" s="1">
+        <v>50</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>18</v>
@@ -1343,9 +2025,23 @@
       <c r="E38" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" s="1">
+        <v>134</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -1361,14 +2057,28 @@
       <c r="E39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K39" s="1">
+        <v>78</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>18</v>
@@ -1379,9 +2089,23 @@
       <c r="E40" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F40" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K40" s="1">
+        <v>145</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -1397,14 +2121,28 @@
       <c r="E41" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F41" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K41" s="1">
+        <v>82</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>18</v>
@@ -1413,16 +2151,30 @@
         <v>2</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K42" s="1">
+        <v>175</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>18</v>
@@ -1431,11 +2183,25 @@
         <v>2</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K43" s="1">
+        <v>91</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -1443,7 +2209,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D44" s="7">
         <v>2</v>
@@ -1451,9 +2217,23 @@
       <c r="E44" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F44" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K44" s="1">
+        <v>150</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -1461,7 +2241,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D45" s="7">
         <v>2</v>
@@ -1469,17 +2249,31 @@
       <c r="E45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F45" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45" s="1">
+        <v>110</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
@@ -1487,9 +2281,23 @@
       <c r="E46" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F46" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K46" s="1">
+        <v>60</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -1497,7 +2305,7 @@
         <v>15</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D47" s="7">
         <v>2</v>
@@ -1505,50 +2313,92 @@
       <c r="E47" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F47" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K47" s="1">
+        <v>70</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D48" s="7">
         <v>2</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K48" s="1">
+        <v>147</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D49" s="7">
         <v>2</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K49" s="1">
+        <v>90</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>16</v>
@@ -1559,14 +2409,28 @@
       <c r="E50" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="1">
+        <v>100</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>16</v>
@@ -1577,9 +2441,23 @@
       <c r="E51" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F51" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="1">
+        <v>156</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -1595,14 +2473,28 @@
       <c r="E52" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F52" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K52" s="1">
+        <v>80</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>16</v>
@@ -1613,9 +2505,23 @@
       <c r="E53" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F53" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K53" s="1">
+        <v>75</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -1629,16 +2535,30 @@
         <v>3</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K54" s="1">
+        <v>121</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>16</v>
@@ -1647,16 +2567,30 @@
         <v>3</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K55" s="1">
+        <v>131</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>17</v>
@@ -1667,14 +2601,28 @@
       <c r="E56" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F56" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K56" s="1">
+        <v>98</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>17</v>
@@ -1685,14 +2633,28 @@
       <c r="E57" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F57" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K57" s="1">
+        <v>132</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>17</v>
@@ -1703,9 +2665,23 @@
       <c r="E58" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F58" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K58" s="1">
+        <v>149</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -1721,14 +2697,28 @@
       <c r="E59" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F59" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K59" s="1">
+        <v>89</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>17</v>
@@ -1737,16 +2727,30 @@
         <v>3</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K60" s="1">
+        <v>69</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>17</v>
@@ -1755,16 +2759,30 @@
         <v>3</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K61" s="1">
+        <v>50</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>18</v>
@@ -1775,14 +2793,28 @@
       <c r="E62" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F62" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K62" s="1">
+        <v>134</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>18</v>
@@ -1793,14 +2825,28 @@
       <c r="E63" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F63" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K63" s="1">
+        <v>78</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>18</v>
@@ -1811,9 +2857,23 @@
       <c r="E64" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F64" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K64" s="1">
+        <v>145</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -1829,14 +2889,28 @@
       <c r="E65" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F65" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K65" s="1">
+        <v>82</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>18</v>
@@ -1845,16 +2919,30 @@
         <v>3</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K66" s="1">
+        <v>175</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>18</v>
@@ -1863,19 +2951,33 @@
         <v>3</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K67" s="1">
+        <v>91</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D68" s="7">
         <v>3</v>
@@ -1883,17 +2985,31 @@
       <c r="E68" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F68" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K68" s="1">
+        <v>150</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D69" s="7">
         <v>3</v>
@@ -1901,17 +3017,31 @@
       <c r="E69" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F69" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K69" s="1">
+        <v>110</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D70" s="7">
         <v>3</v>
@@ -1919,9 +3049,23 @@
       <c r="E70" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F70" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K70" s="1">
+        <v>60</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -1929,7 +3073,7 @@
         <v>14</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D71" s="7">
         <v>3</v>
@@ -1937,45 +3081,87 @@
       <c r="E71" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F71" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K71" s="1">
+        <v>70</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D72" s="7">
         <v>3</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K72" s="1">
+        <v>147</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D73" s="7">
         <v>3</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K73" s="1">
+        <v>90</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -1991,14 +3177,28 @@
       <c r="E74" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" s="1">
+        <v>100</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>16</v>
@@ -2009,14 +3209,28 @@
       <c r="E75" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F75" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" s="1">
+        <v>156</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>74</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>16</v>
@@ -2027,14 +3241,28 @@
       <c r="E76" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F76" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K76" s="1">
+        <v>80</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>16</v>
@@ -2045,9 +3273,23 @@
       <c r="E77" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F77" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K77" s="1">
+        <v>75</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -2061,16 +3303,30 @@
         <v>4</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K78" s="1">
+        <v>121</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>16</v>
@@ -2079,16 +3335,30 @@
         <v>4</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K79" s="1">
+        <v>131</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>78</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>17</v>
@@ -2099,14 +3369,28 @@
       <c r="E80" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F80" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K80" s="1">
+        <v>98</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>17</v>
@@ -2117,14 +3401,28 @@
       <c r="E81" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F81" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K81" s="1">
+        <v>132</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>17</v>
@@ -2135,9 +3433,23 @@
       <c r="E82" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F82" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K82" s="1">
+        <v>149</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -2153,14 +3465,28 @@
       <c r="E83" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F83" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K83" s="1">
+        <v>89</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>17</v>
@@ -2169,16 +3495,30 @@
         <v>4</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K84" s="1">
+        <v>69</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>17</v>
@@ -2187,16 +3527,30 @@
         <v>4</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K85" s="1">
+        <v>50</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>18</v>
@@ -2207,9 +3561,23 @@
       <c r="E86" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F86" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K86" s="1">
+        <v>134</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -2225,9 +3593,23 @@
       <c r="E87" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F87" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K87" s="1">
+        <v>78</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -2243,9 +3625,23 @@
       <c r="E88" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F88" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K88" s="1">
+        <v>145</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -2261,14 +3657,28 @@
       <c r="E89" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F89" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K89" s="1">
+        <v>82</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>88</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>18</v>
@@ -2277,16 +3687,30 @@
         <v>4</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K90" s="1">
+        <v>175</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>18</v>
@@ -2295,19 +3719,33 @@
         <v>4</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K91" s="1">
+        <v>91</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>90</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D92" s="7">
         <v>4</v>
@@ -2315,17 +3753,31 @@
       <c r="E92" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F92" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K92" s="1">
+        <v>150</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D93" s="7">
         <v>4</v>
@@ -2333,17 +3785,31 @@
       <c r="E93" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F93" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K93" s="1">
+        <v>110</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D94" s="7">
         <v>4</v>
@@ -2351,17 +3817,31 @@
       <c r="E94" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F94" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K94" s="1">
+        <v>60</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D95" s="7">
         <v>4</v>
@@ -2369,9 +3849,23 @@
       <c r="E95" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F95" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K95" s="1">
+        <v>70</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -2379,35 +3873,63 @@
         <v>14</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D96" s="7">
         <v>4</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K96" s="1">
+        <v>147</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D97" s="7">
         <v>4</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K97" s="1">
+        <v>90</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -2423,14 +3945,28 @@
       <c r="E98" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" t="s">
+        <v>21</v>
+      </c>
+      <c r="H98" t="s">
+        <v>22</v>
+      </c>
+      <c r="K98" s="1">
+        <v>100</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>16</v>
@@ -2441,14 +3977,28 @@
       <c r="E99" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F99" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G99" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K99" s="1">
+        <v>156</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>98</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>16</v>
@@ -2459,14 +4009,28 @@
       <c r="E100" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F100" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K100" s="1">
+        <v>80</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>16</v>
@@ -2477,14 +4041,28 @@
       <c r="E101" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K101" s="1"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F101" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K101" s="1">
+        <v>75</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>16</v>
@@ -2493,11 +4071,25 @@
         <v>5</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K102" s="1"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K102" s="1">
+        <v>121</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -2511,16 +4103,30 @@
         <v>5</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K103" s="1"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K103" s="1">
+        <v>131</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>102</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>17</v>
@@ -2531,14 +4137,28 @@
       <c r="E104" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K104" s="1"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F104" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K104" s="1">
+        <v>98</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>17</v>
@@ -2549,9 +4169,23 @@
       <c r="E105" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K105" s="1"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F105" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K105" s="1">
+        <v>132</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -2567,9 +4201,23 @@
       <c r="E106" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K106" s="1"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F106" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K106" s="1">
+        <v>149</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -2585,14 +4233,28 @@
       <c r="E107" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K107" s="1"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F107" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K107" s="1">
+        <v>89</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>106</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>17</v>
@@ -2601,11 +4263,25 @@
         <v>5</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K108" s="1"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K108" s="1">
+        <v>69</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -2619,16 +4295,30 @@
         <v>5</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K109" s="1"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K109" s="1">
+        <v>50</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>108</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>18</v>
@@ -2639,9 +4329,23 @@
       <c r="E110" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K110" s="1"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F110" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K110" s="1">
+        <v>134</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -2657,14 +4361,28 @@
       <c r="E111" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K111" s="1"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F111" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K111" s="1">
+        <v>78</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>110</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>18</v>
@@ -2675,14 +4393,28 @@
       <c r="E112" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K112" s="1"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F112" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K112" s="1">
+        <v>145</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>18</v>
@@ -2693,9 +4425,23 @@
       <c r="E113" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K113" s="1"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F113" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K113" s="1">
+        <v>82</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -2709,11 +4455,25 @@
         <v>5</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K114" s="1"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K114" s="1">
+        <v>175</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>113</v>
       </c>
@@ -2727,19 +4487,33 @@
         <v>5</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K115" s="1"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K115" s="1">
+        <v>91</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>114</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D116" s="7">
         <v>5</v>
@@ -2747,9 +4521,23 @@
       <c r="E116" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K116" s="1"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F116" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K116" s="1">
+        <v>150</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>115</v>
       </c>
@@ -2757,7 +4545,7 @@
         <v>15</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D117" s="7">
         <v>5</v>
@@ -2765,17 +4553,31 @@
       <c r="E117" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K117" s="1"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F117" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K117" s="1">
+        <v>110</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>116</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D118" s="7">
         <v>5</v>
@@ -2783,17 +4585,31 @@
       <c r="E118" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K118" s="1"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F118" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K118" s="1">
+        <v>60</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D119" s="7">
         <v>5</v>
@@ -2801,50 +4617,92 @@
       <c r="E119" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K119" s="1"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F119" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K119" s="1">
+        <v>70</v>
+      </c>
+      <c r="L119" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>118</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D120" s="7">
         <v>5</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K120" s="1"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K120" s="1">
+        <v>147</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D121" s="7">
         <v>5</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K121" s="1"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K121" s="1">
+        <v>90</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>120</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>16</v>
@@ -2855,14 +4713,28 @@
       <c r="E122" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K122" s="1"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" t="s">
+        <v>21</v>
+      </c>
+      <c r="H122" t="s">
+        <v>22</v>
+      </c>
+      <c r="K122" s="1">
+        <v>100</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>16</v>
@@ -2873,14 +4745,28 @@
       <c r="E123" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K123" s="1"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F123" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G123" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" t="s">
+        <v>21</v>
+      </c>
+      <c r="K123" s="1">
+        <v>156</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>122</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>16</v>
@@ -2891,14 +4777,28 @@
       <c r="E124" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K124" s="1"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F124" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K124" s="1">
+        <v>80</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>16</v>
@@ -2909,9 +4809,23 @@
       <c r="E125" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K125" s="1"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F125" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K125" s="1">
+        <v>75</v>
+      </c>
+      <c r="L125" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -2925,16 +4839,30 @@
         <v>6</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K126" s="1"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K126" s="1">
+        <v>121</v>
+      </c>
+      <c r="L126" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>16</v>
@@ -2943,16 +4871,30 @@
         <v>6</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K127" s="1"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K127" s="1">
+        <v>131</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>126</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>17</v>
@@ -2963,9 +4905,23 @@
       <c r="E128" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K128" s="1"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F128" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K128" s="1">
+        <v>98</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>127</v>
       </c>
@@ -2981,14 +4937,28 @@
       <c r="E129" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K129" s="1"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F129" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K129" s="1">
+        <v>132</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>128</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>17</v>
@@ -2999,9 +4969,23 @@
       <c r="E130" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K130" s="1"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F130" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K130" s="1">
+        <v>149</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>129</v>
       </c>
@@ -3017,14 +5001,28 @@
       <c r="E131" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K131" s="1"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F131" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K131" s="1">
+        <v>89</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>130</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>17</v>
@@ -3033,16 +5031,30 @@
         <v>6</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K132" s="1"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K132" s="1">
+        <v>69</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>17</v>
@@ -3051,16 +5063,30 @@
         <v>6</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K133" s="1"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K133" s="1">
+        <v>50</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>132</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>18</v>
@@ -3071,14 +5097,28 @@
       <c r="E134" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K134" s="1"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F134" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K134" s="1">
+        <v>134</v>
+      </c>
+      <c r="L134" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>133</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>18</v>
@@ -3089,9 +5129,23 @@
       <c r="E135" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K135" s="1"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F135" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K135" s="1">
+        <v>78</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -3107,14 +5161,28 @@
       <c r="E136" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K136" s="1"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F136" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K136" s="1">
+        <v>145</v>
+      </c>
+      <c r="L136" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>135</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>18</v>
@@ -3125,9 +5193,23 @@
       <c r="E137" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K137" s="1"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F137" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K137" s="1">
+        <v>82</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -3141,11 +5223,25 @@
         <v>6</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K138" s="1"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K138" s="1">
+        <v>175</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>137</v>
       </c>
@@ -3159,11 +5255,25 @@
         <v>6</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K139" s="1"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K139" s="1">
+        <v>91</v>
+      </c>
+      <c r="L139" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -3171,7 +5281,7 @@
         <v>13</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D140" s="7">
         <v>6</v>
@@ -3179,9 +5289,23 @@
       <c r="E140" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K140" s="1"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F140" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K140" s="1">
+        <v>150</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>139</v>
       </c>
@@ -3189,7 +5313,7 @@
         <v>14</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D141" s="7">
         <v>6</v>
@@ -3197,17 +5321,31 @@
       <c r="E141" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K141" s="1"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F141" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K141" s="1">
+        <v>110</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>140</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D142" s="7">
         <v>6</v>
@@ -3215,9 +5353,23 @@
       <c r="E142" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K142" s="1"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F142" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K142" s="1">
+        <v>60</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>141</v>
       </c>
@@ -3225,7 +5377,7 @@
         <v>14</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D143" s="7">
         <v>6</v>
@@ -3233,9 +5385,23 @@
       <c r="E143" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K143" s="1"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F143" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K143" s="1">
+        <v>70</v>
+      </c>
+      <c r="L143" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>142</v>
       </c>
@@ -3243,35 +5409,63 @@
         <v>13</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D144" s="7">
         <v>6</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K144" s="1"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K144" s="1">
+        <v>147</v>
+      </c>
+      <c r="L144" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>143</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D145" s="7">
         <v>6</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K145" s="1"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K145" s="1">
+        <v>90</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -3287,14 +5481,28 @@
       <c r="E146" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K146" s="1"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>20</v>
+      </c>
+      <c r="G146" t="s">
+        <v>21</v>
+      </c>
+      <c r="H146" t="s">
+        <v>22</v>
+      </c>
+      <c r="K146" s="1">
+        <v>100</v>
+      </c>
+      <c r="L146" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>145</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>16</v>
@@ -3305,14 +5513,28 @@
       <c r="E147" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K147" s="1"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F147" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G147" t="s">
+        <v>20</v>
+      </c>
+      <c r="H147" t="s">
+        <v>21</v>
+      </c>
+      <c r="K147" s="1">
+        <v>156</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>146</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>16</v>
@@ -3323,14 +5545,28 @@
       <c r="E148" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K148" s="1"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F148" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K148" s="1">
+        <v>80</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>147</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>16</v>
@@ -3341,14 +5577,28 @@
       <c r="E149" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K149" s="1"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F149" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K149" s="1">
+        <v>75</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>148</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>16</v>
@@ -3357,16 +5607,30 @@
         <v>7</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K150" s="1"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K150" s="1">
+        <v>121</v>
+      </c>
+      <c r="L150" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>149</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>16</v>
@@ -3375,11 +5639,25 @@
         <v>7</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K151" s="1"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K151" s="1">
+        <v>131</v>
+      </c>
+      <c r="L151" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -3395,9 +5673,23 @@
       <c r="E152" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K152" s="1"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F152" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K152" s="1">
+        <v>98</v>
+      </c>
+      <c r="L152" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>151</v>
       </c>
@@ -3413,14 +5705,28 @@
       <c r="E153" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K153" s="1"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F153" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K153" s="1">
+        <v>132</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>152</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>17</v>
@@ -3431,9 +5737,23 @@
       <c r="E154" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K154" s="1"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F154" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K154" s="1">
+        <v>149</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>153</v>
       </c>
@@ -3449,14 +5769,28 @@
       <c r="E155" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K155" s="1"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F155" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K155" s="1">
+        <v>89</v>
+      </c>
+      <c r="L155" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>154</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>17</v>
@@ -3465,16 +5799,30 @@
         <v>7</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K156" s="1"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K156" s="1">
+        <v>69</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>155</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>17</v>
@@ -3483,16 +5831,30 @@
         <v>7</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K157" s="1"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K157" s="1">
+        <v>50</v>
+      </c>
+      <c r="L157" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>156</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>18</v>
@@ -3503,9 +5865,23 @@
       <c r="E158" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K158" s="1"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F158" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K158" s="1">
+        <v>134</v>
+      </c>
+      <c r="L158" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -3521,14 +5897,28 @@
       <c r="E159" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K159" s="1"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F159" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K159" s="1">
+        <v>78</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>158</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>18</v>
@@ -3539,14 +5929,28 @@
       <c r="E160" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K160" s="1"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F160" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K160" s="1">
+        <v>145</v>
+      </c>
+      <c r="L160" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>159</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>18</v>
@@ -3557,9 +5961,23 @@
       <c r="E161" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K161" s="1"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F161" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K161" s="1">
+        <v>82</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -3573,16 +5991,30 @@
         <v>7</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K162" s="1"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K162" s="1">
+        <v>175</v>
+      </c>
+      <c r="L162" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>161</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>18</v>
@@ -3591,19 +6023,33 @@
         <v>7</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K163" s="1"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K163" s="1">
+        <v>91</v>
+      </c>
+      <c r="L163" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>162</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D164" s="7">
         <v>7</v>
@@ -3611,17 +6057,31 @@
       <c r="E164" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K164" s="1"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F164" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K164" s="1">
+        <v>150</v>
+      </c>
+      <c r="L164" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>163</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D165" s="7">
         <v>7</v>
@@ -3629,17 +6089,31 @@
       <c r="E165" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K165" s="1"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F165" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K165" s="1">
+        <v>110</v>
+      </c>
+      <c r="L165" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>164</v>
       </c>
       <c r="B166" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C166" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D166" s="7">
         <v>7</v>
@@ -3647,17 +6121,31 @@
       <c r="E166" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K166" s="1"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F166" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K166" s="1">
+        <v>60</v>
+      </c>
+      <c r="L166" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>165</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D167" s="7">
         <v>7</v>
@@ -3665,9 +6153,23 @@
       <c r="E167" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K167" s="1"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F167" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K167" s="1">
+        <v>70</v>
+      </c>
+      <c r="L167" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>166</v>
       </c>
@@ -3675,40 +6177,68 @@
         <v>13</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D168" s="7">
         <v>7</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K168" s="1"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K168" s="1">
+        <v>147</v>
+      </c>
+      <c r="L168" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>167</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D169" s="7">
         <v>7</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K169" s="1"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K169" s="1">
+        <v>90</v>
+      </c>
+      <c r="L169" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>168</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>16</v>
@@ -3719,9 +6249,23 @@
       <c r="E170" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K170" s="1"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F170" t="s">
+        <v>20</v>
+      </c>
+      <c r="G170" t="s">
+        <v>21</v>
+      </c>
+      <c r="H170" t="s">
+        <v>22</v>
+      </c>
+      <c r="K170" s="1">
+        <v>100</v>
+      </c>
+      <c r="L170" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>169</v>
       </c>
@@ -3737,14 +6281,28 @@
       <c r="E171" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K171" s="1"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F171" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G171" t="s">
+        <v>20</v>
+      </c>
+      <c r="H171" t="s">
+        <v>21</v>
+      </c>
+      <c r="K171" s="1">
+        <v>156</v>
+      </c>
+      <c r="L171" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>170</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>16</v>
@@ -3755,14 +6313,28 @@
       <c r="E172" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K172" s="1"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F172" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K172" s="1">
+        <v>80</v>
+      </c>
+      <c r="L172" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>171</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>16</v>
@@ -3773,9 +6345,23 @@
       <c r="E173" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K173" s="1"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F173" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K173" s="1">
+        <v>75</v>
+      </c>
+      <c r="L173" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>172</v>
       </c>
@@ -3789,11 +6375,25 @@
         <v>8</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K174" s="1"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K174" s="1">
+        <v>121</v>
+      </c>
+      <c r="L174" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>173</v>
       </c>
@@ -3807,11 +6407,25 @@
         <v>8</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K175" s="1"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H175" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K175" s="1">
+        <v>131</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -3827,14 +6441,28 @@
       <c r="E176" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K176" s="1"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F176" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K176" s="1">
+        <v>98</v>
+      </c>
+      <c r="L176" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>175</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>17</v>
@@ -3845,14 +6473,28 @@
       <c r="E177" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K177" s="1"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F177" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K177" s="1">
+        <v>132</v>
+      </c>
+      <c r="L177" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>176</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>17</v>
@@ -3863,14 +6505,28 @@
       <c r="E178" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K178" s="1"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F178" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K178" s="1">
+        <v>149</v>
+      </c>
+      <c r="L178" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>177</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>17</v>
@@ -3881,9 +6537,23 @@
       <c r="E179" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K179" s="1"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F179" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K179" s="1">
+        <v>89</v>
+      </c>
+      <c r="L179" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>178</v>
       </c>
@@ -3897,16 +6567,30 @@
         <v>8</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K180" s="1"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K180" s="1">
+        <v>69</v>
+      </c>
+      <c r="L180" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>179</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>17</v>
@@ -3915,16 +6599,30 @@
         <v>8</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K181" s="1"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H181" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K181" s="1">
+        <v>50</v>
+      </c>
+      <c r="L181" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>180</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>18</v>
@@ -3935,14 +6633,28 @@
       <c r="E182" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K182" s="1"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F182" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K182" s="1">
+        <v>134</v>
+      </c>
+      <c r="L182" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>181</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>18</v>
@@ -3953,9 +6665,23 @@
       <c r="E183" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K183" s="1"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F183" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K183" s="1">
+        <v>78</v>
+      </c>
+      <c r="L183" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>182</v>
       </c>
@@ -3971,14 +6697,28 @@
       <c r="E184" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K184" s="1"/>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F184" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H184" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K184" s="1">
+        <v>145</v>
+      </c>
+      <c r="L184" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>183</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>18</v>
@@ -3989,14 +6729,28 @@
       <c r="E185" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K185" s="1"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F185" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H185" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K185" s="1">
+        <v>82</v>
+      </c>
+      <c r="L185" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>184</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>18</v>
@@ -4005,16 +6759,30 @@
         <v>8</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K186" s="1"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H186" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K186" s="1">
+        <v>175</v>
+      </c>
+      <c r="L186" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>185</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>18</v>
@@ -4023,19 +6791,33 @@
         <v>8</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K187" s="1"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H187" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K187" s="1">
+        <v>91</v>
+      </c>
+      <c r="L187" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>186</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D188" s="7">
         <v>8</v>
@@ -4043,17 +6825,31 @@
       <c r="E188" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K188" s="1"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F188" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H188" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K188" s="1">
+        <v>150</v>
+      </c>
+      <c r="L188" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>187</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D189" s="7">
         <v>8</v>
@@ -4061,17 +6857,31 @@
       <c r="E189" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K189" s="1"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F189" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H189" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K189" s="1">
+        <v>110</v>
+      </c>
+      <c r="L189" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>188</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D190" s="7">
         <v>8</v>
@@ -4079,9 +6889,23 @@
       <c r="E190" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K190" s="1"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F190" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K190" s="1">
+        <v>60</v>
+      </c>
+      <c r="L190" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>189</v>
       </c>
@@ -4089,7 +6913,7 @@
         <v>13</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D191" s="7">
         <v>8</v>
@@ -4097,27 +6921,55 @@
       <c r="E191" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K191" s="1"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F191" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G191" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K191" s="1">
+        <v>70</v>
+      </c>
+      <c r="L191" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>190</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D192" s="7">
         <v>8</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K192" s="1"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K192" s="1">
+        <v>147</v>
+      </c>
+      <c r="L192" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>191</v>
       </c>
@@ -4125,15 +6977,29 @@
         <v>13</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D193" s="7">
         <v>8</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K193" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H193" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K193" s="1">
+        <v>90</v>
+      </c>
+      <c r="L193" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source/Narrative/Media Posts.xlsx
+++ b/Source/Narrative/Media Posts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Desktop\Computer Science\BGDS Yr-03 Semester 06_Design_Practice_04\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2BAD6C-C758-414C-A807-C1FE2B9AE65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F8BC05-C584-4F61-91E9-4C8B3BE79F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="162">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -99,15 +99,6 @@
     <t>Government Popularity All Time High</t>
   </si>
   <si>
-    <t>post_001.jpg</t>
-  </si>
-  <si>
-    <t>post_002.jpg</t>
-  </si>
-  <si>
-    <t>post_003.jpg</t>
-  </si>
-  <si>
     <t>Sad</t>
   </si>
   <si>
@@ -373,6 +364,153 @@
   </si>
   <si>
     <t>Messiah</t>
+  </si>
+  <si>
+    <t>media_post_0.jpg</t>
+  </si>
+  <si>
+    <t>media_post_3.jpg</t>
+  </si>
+  <si>
+    <t>media_post_4.jpg</t>
+  </si>
+  <si>
+    <t>media_post_5.jpg</t>
+  </si>
+  <si>
+    <t>media_post_6.jpg</t>
+  </si>
+  <si>
+    <t>media_post_7.jpg</t>
+  </si>
+  <si>
+    <t>media_post_8.jpg</t>
+  </si>
+  <si>
+    <t>media_post_9.jpg</t>
+  </si>
+  <si>
+    <t>media_post_10.jpg</t>
+  </si>
+  <si>
+    <t>media_post_11.jpg</t>
+  </si>
+  <si>
+    <t>media_post_12.jpg</t>
+  </si>
+  <si>
+    <t>media_post_13.jpg</t>
+  </si>
+  <si>
+    <t>media_post_14.jpg</t>
+  </si>
+  <si>
+    <t>media_post_15.jpg</t>
+  </si>
+  <si>
+    <t>media_post_16.jpg</t>
+  </si>
+  <si>
+    <t>media_post_17.jpg</t>
+  </si>
+  <si>
+    <t>media_post_18.jpg</t>
+  </si>
+  <si>
+    <t>media_post_19.jpg</t>
+  </si>
+  <si>
+    <t>media_post_20.jpg</t>
+  </si>
+  <si>
+    <t>media_post_21.jpg</t>
+  </si>
+  <si>
+    <t>media_post_22.jpg</t>
+  </si>
+  <si>
+    <t>media_post_23.jpg</t>
+  </si>
+  <si>
+    <t>media_post_24.jpg</t>
+  </si>
+  <si>
+    <t>media_post_25.jpg</t>
+  </si>
+  <si>
+    <t>media_post_26.jpg</t>
+  </si>
+  <si>
+    <t>media_post_27.jpg</t>
+  </si>
+  <si>
+    <t>media_post_28.jpg</t>
+  </si>
+  <si>
+    <t>media_post_29.jpg</t>
+  </si>
+  <si>
+    <t>media_post_30.jpg</t>
+  </si>
+  <si>
+    <t>media_post_31.jpg</t>
+  </si>
+  <si>
+    <t>media_post_32.jpg</t>
+  </si>
+  <si>
+    <t>media_post_33.jpg</t>
+  </si>
+  <si>
+    <t>media_post_34.jpg</t>
+  </si>
+  <si>
+    <t>media_post_35.jpg</t>
+  </si>
+  <si>
+    <t>media_post_36.jpg</t>
+  </si>
+  <si>
+    <t>media_post_37.jpg</t>
+  </si>
+  <si>
+    <t>media_post_38.jpg</t>
+  </si>
+  <si>
+    <t>media_post_39.jpg</t>
+  </si>
+  <si>
+    <t>media_post_40.jpg</t>
+  </si>
+  <si>
+    <t>media_post_41.jpg</t>
+  </si>
+  <si>
+    <t>media_post_42.jpg</t>
+  </si>
+  <si>
+    <t>media_post_43.jpg</t>
+  </si>
+  <si>
+    <t>media_post_44.jpg</t>
+  </si>
+  <si>
+    <t>media_post_45.jpg</t>
+  </si>
+  <si>
+    <t>media_post_46.jpg</t>
+  </si>
+  <si>
+    <t>media_post_47.jpg</t>
+  </si>
+  <si>
+    <t>media_post_48.jpg</t>
+  </si>
+  <si>
+    <t>media_post_1.jpg</t>
+  </si>
+  <si>
+    <t>media_post_2.jpg</t>
   </si>
 </sst>
 </file>
@@ -769,13 +907,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -835,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>16</v>
@@ -868,7 +1006,7 @@
         <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -876,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>16</v>
@@ -888,7 +1026,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>20</v>
@@ -906,10 +1044,10 @@
         <v>156</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -926,16 +1064,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -947,10 +1085,10 @@
         <v>80</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -967,22 +1105,25 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K5" s="1">
         <v>75</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -990,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>16</v>
@@ -999,22 +1140,25 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K6" s="1">
         <v>121</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1022,7 +1166,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>16</v>
@@ -1031,22 +1175,25 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K7" s="1">
         <v>131</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1054,7 +1201,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
@@ -1066,19 +1213,22 @@
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K8" s="1">
         <v>98</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1086,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>17</v>
@@ -1098,19 +1248,22 @@
         <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K9" s="1">
         <v>132</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1118,7 +1271,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>17</v>
@@ -1127,22 +1280,25 @@
         <v>1</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K10" s="1">
         <v>149</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1150,7 +1306,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>17</v>
@@ -1159,22 +1315,25 @@
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K11" s="1">
         <v>89</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="M11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1182,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>17</v>
@@ -1191,22 +1350,25 @@
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K12" s="1">
         <v>69</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="M12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1214,7 +1376,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>17</v>
@@ -1223,22 +1385,25 @@
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K13" s="1">
         <v>50</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="M13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1246,7 +1411,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>18</v>
@@ -1258,19 +1423,22 @@
         <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K14" s="1">
         <v>134</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="M14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1278,7 +1446,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>18</v>
@@ -1290,19 +1458,22 @@
         <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K15" s="1">
         <v>78</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="M15" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1319,30 +1490,33 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K16" s="1">
         <v>145</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="M16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>18</v>
@@ -1351,30 +1525,33 @@
         <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K17" s="1">
         <v>82</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="M17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>18</v>
@@ -1383,25 +1560,28 @@
         <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K18" s="1">
         <v>175</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1415,25 +1595,28 @@
         <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K19" s="1">
         <v>91</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="M19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1441,7 +1624,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -1450,30 +1633,33 @@
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K20" s="1">
         <v>150</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="M20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
@@ -1482,22 +1668,25 @@
         <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K21" s="1">
         <v>110</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="M21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1505,63 +1694,69 @@
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K22" s="1">
         <v>60</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="M22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K23" s="1">
         <v>70</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="M23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1569,68 +1764,74 @@
         <v>13</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K24" s="1">
         <v>147</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="M24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K25" s="1">
         <v>90</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="M25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>16</v>
@@ -1654,10 +1855,13 @@
         <v>100</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="M26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1674,7 +1878,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s">
         <v>20</v>
@@ -1686,10 +1890,13 @@
         <v>156</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="M27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1703,25 +1910,28 @@
         <v>2</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K28" s="1">
         <v>80</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="M28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1735,25 +1945,28 @@
         <v>2</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K29" s="1">
         <v>75</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="M29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1767,30 +1980,33 @@
         <v>2</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K30" s="1">
         <v>121</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="M30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>16</v>
@@ -1799,30 +2015,33 @@
         <v>2</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K31" s="1">
         <v>131</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="M31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>17</v>
@@ -1834,27 +2053,30 @@
         <v>19</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K32" s="1">
         <v>98</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="M32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>17</v>
@@ -1866,27 +2088,30 @@
         <v>19</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K33" s="1">
         <v>132</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="M33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>17</v>
@@ -1895,30 +2120,33 @@
         <v>2</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K34" s="1">
         <v>149</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="M34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>17</v>
@@ -1927,30 +2155,33 @@
         <v>2</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K35" s="1">
         <v>89</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="M35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>17</v>
@@ -1959,25 +2190,28 @@
         <v>2</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K36" s="1">
         <v>69</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="M36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -1991,30 +2225,33 @@
         <v>2</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K37" s="1">
         <v>50</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="M37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>18</v>
@@ -2026,22 +2263,25 @@
         <v>19</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K38" s="1">
         <v>134</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="M38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2058,27 +2298,30 @@
         <v>19</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K39" s="1">
         <v>78</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="M39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>18</v>
@@ -2087,25 +2330,28 @@
         <v>2</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K40" s="1">
         <v>145</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="M40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2119,30 +2365,33 @@
         <v>2</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K41" s="1">
         <v>82</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="M41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>18</v>
@@ -2151,30 +2400,33 @@
         <v>2</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K42" s="1">
         <v>175</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="M42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>18</v>
@@ -2183,25 +2435,28 @@
         <v>2</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K43" s="1">
         <v>91</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -2209,7 +2464,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D44" s="7">
         <v>2</v>
@@ -2218,22 +2473,25 @@
         <v>19</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K44" s="1">
         <v>150</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="M44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -2241,7 +2499,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D45" s="7">
         <v>2</v>
@@ -2250,54 +2508,60 @@
         <v>19</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K45" s="1">
         <v>110</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="M45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K46" s="1">
         <v>60</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="M46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -2305,100 +2569,109 @@
         <v>15</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D47" s="7">
         <v>2</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K47" s="1">
         <v>70</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="M47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D48" s="7">
         <v>2</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K48" s="1">
         <v>147</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="M48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D49" s="7">
         <v>2</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K49" s="1">
         <v>90</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="M49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>16</v>
@@ -2424,13 +2697,16 @@
       <c r="L50" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>16</v>
@@ -2442,7 +2718,7 @@
         <v>19</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
@@ -2454,10 +2730,10 @@
         <v>156</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -2471,30 +2747,30 @@
         <v>3</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K52" s="1">
         <v>80</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>16</v>
@@ -2503,25 +2779,25 @@
         <v>3</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K53" s="1">
         <v>75</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -2535,30 +2811,30 @@
         <v>3</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K54" s="1">
         <v>121</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>16</v>
@@ -2567,30 +2843,30 @@
         <v>3</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K55" s="1">
         <v>131</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>17</v>
@@ -2602,27 +2878,27 @@
         <v>19</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K56" s="1">
         <v>98</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>17</v>
@@ -2634,27 +2910,27 @@
         <v>19</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K57" s="1">
         <v>132</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>17</v>
@@ -2663,25 +2939,25 @@
         <v>3</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K58" s="1">
         <v>149</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -2695,30 +2971,30 @@
         <v>3</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K59" s="1">
         <v>89</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>17</v>
@@ -2727,30 +3003,30 @@
         <v>3</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K60" s="1">
         <v>69</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>17</v>
@@ -2759,30 +3035,30 @@
         <v>3</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K61" s="1">
         <v>50</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>18</v>
@@ -2794,27 +3070,27 @@
         <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K62" s="1">
         <v>134</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>18</v>
@@ -2826,27 +3102,27 @@
         <v>19</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K63" s="1">
         <v>78</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>18</v>
@@ -2855,22 +3131,22 @@
         <v>3</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K64" s="1">
         <v>145</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2887,22 +3163,22 @@
         <v>3</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K65" s="1">
         <v>82</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2910,7 +3186,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>18</v>
@@ -2919,22 +3195,22 @@
         <v>3</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K66" s="1">
         <v>175</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -2942,7 +3218,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>18</v>
@@ -2951,22 +3227,22 @@
         <v>3</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K67" s="1">
         <v>91</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -2974,10 +3250,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D68" s="7">
         <v>3</v>
@@ -2986,19 +3262,19 @@
         <v>19</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K68" s="1">
         <v>150</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3006,10 +3282,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D69" s="7">
         <v>3</v>
@@ -3018,19 +3294,19 @@
         <v>19</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K69" s="1">
         <v>110</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3038,31 +3314,31 @@
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D70" s="7">
         <v>3</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K70" s="1">
         <v>60</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3073,28 +3349,28 @@
         <v>14</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D71" s="7">
         <v>3</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K71" s="1">
         <v>70</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3102,31 +3378,31 @@
         <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D72" s="7">
         <v>3</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K72" s="1">
         <v>147</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3134,31 +3410,31 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D73" s="7">
         <v>3</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K73" s="1">
         <v>90</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3198,7 +3474,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>16</v>
@@ -3210,7 +3486,7 @@
         <v>19</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G75" t="s">
         <v>20</v>
@@ -3222,7 +3498,7 @@
         <v>156</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3230,7 +3506,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>16</v>
@@ -3239,22 +3515,22 @@
         <v>4</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K76" s="1">
         <v>80</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3262,7 +3538,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>16</v>
@@ -3271,22 +3547,22 @@
         <v>4</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K77" s="1">
         <v>75</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3303,22 +3579,22 @@
         <v>4</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K78" s="1">
         <v>121</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3326,7 +3602,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>16</v>
@@ -3335,22 +3611,22 @@
         <v>4</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K79" s="1">
         <v>131</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3358,7 +3634,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>17</v>
@@ -3370,19 +3646,19 @@
         <v>19</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K80" s="1">
         <v>98</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3390,7 +3666,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>17</v>
@@ -3402,19 +3678,19 @@
         <v>19</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K81" s="1">
         <v>132</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3422,7 +3698,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>17</v>
@@ -3431,22 +3707,22 @@
         <v>4</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K82" s="1">
         <v>149</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3463,22 +3739,22 @@
         <v>4</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K83" s="1">
         <v>89</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3486,7 +3762,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>17</v>
@@ -3495,22 +3771,22 @@
         <v>4</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K84" s="1">
         <v>69</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3518,7 +3794,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>17</v>
@@ -3527,22 +3803,22 @@
         <v>4</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K85" s="1">
         <v>50</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3550,7 +3826,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>18</v>
@@ -3562,19 +3838,19 @@
         <v>19</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K86" s="1">
         <v>134</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3594,19 +3870,19 @@
         <v>19</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K87" s="1">
         <v>78</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3623,22 +3899,22 @@
         <v>4</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K88" s="1">
         <v>145</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3655,22 +3931,22 @@
         <v>4</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K89" s="1">
         <v>82</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3678,7 +3954,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>18</v>
@@ -3687,22 +3963,22 @@
         <v>4</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K90" s="1">
         <v>175</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3710,7 +3986,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>18</v>
@@ -3719,22 +3995,22 @@
         <v>4</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K91" s="1">
         <v>91</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -3742,10 +4018,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D92" s="7">
         <v>4</v>
@@ -3754,19 +4030,19 @@
         <v>19</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K92" s="1">
         <v>150</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -3774,10 +4050,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D93" s="7">
         <v>4</v>
@@ -3786,19 +4062,19 @@
         <v>19</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K93" s="1">
         <v>110</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -3806,31 +4082,31 @@
         <v>92</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D94" s="7">
         <v>4</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K94" s="1">
         <v>60</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -3838,31 +4114,31 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D95" s="7">
         <v>4</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K95" s="1">
         <v>70</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -3873,28 +4149,28 @@
         <v>14</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D96" s="7">
         <v>4</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K96" s="1">
         <v>147</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -3902,31 +4178,31 @@
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D97" s="7">
         <v>4</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K97" s="1">
         <v>90</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -3958,7 +4234,7 @@
         <v>100</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -3966,7 +4242,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>16</v>
@@ -3978,7 +4254,7 @@
         <v>19</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G99" t="s">
         <v>20</v>
@@ -3990,7 +4266,7 @@
         <v>156</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -3998,7 +4274,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>16</v>
@@ -4007,22 +4283,22 @@
         <v>5</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K100" s="1">
         <v>80</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4030,7 +4306,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>16</v>
@@ -4039,22 +4315,22 @@
         <v>5</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K101" s="1">
         <v>75</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4062,7 +4338,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>16</v>
@@ -4071,22 +4347,22 @@
         <v>5</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K102" s="1">
         <v>121</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4103,22 +4379,22 @@
         <v>5</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K103" s="1">
         <v>131</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4126,7 +4402,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>17</v>
@@ -4138,19 +4414,19 @@
         <v>19</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K104" s="1">
         <v>98</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4158,7 +4434,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>17</v>
@@ -4170,19 +4446,19 @@
         <v>19</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K105" s="1">
         <v>132</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4199,22 +4475,22 @@
         <v>5</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K106" s="1">
         <v>149</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4231,22 +4507,22 @@
         <v>5</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K107" s="1">
         <v>89</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4254,7 +4530,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>17</v>
@@ -4263,22 +4539,22 @@
         <v>5</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K108" s="1">
         <v>69</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4295,22 +4571,22 @@
         <v>5</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K109" s="1">
         <v>50</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -4318,7 +4594,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>18</v>
@@ -4330,19 +4606,19 @@
         <v>19</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K110" s="1">
         <v>134</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4362,19 +4638,19 @@
         <v>19</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K111" s="1">
         <v>78</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -4382,7 +4658,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>18</v>
@@ -4391,22 +4667,22 @@
         <v>5</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K112" s="1">
         <v>145</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -4414,7 +4690,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>18</v>
@@ -4423,22 +4699,22 @@
         <v>5</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K113" s="1">
         <v>82</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -4455,22 +4731,22 @@
         <v>5</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K114" s="1">
         <v>175</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4487,22 +4763,22 @@
         <v>5</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K115" s="1">
         <v>91</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -4510,10 +4786,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D116" s="7">
         <v>5</v>
@@ -4522,19 +4798,19 @@
         <v>19</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K116" s="1">
         <v>150</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -4545,7 +4821,7 @@
         <v>15</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D117" s="7">
         <v>5</v>
@@ -4554,19 +4830,19 @@
         <v>19</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K117" s="1">
         <v>110</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -4574,31 +4850,31 @@
         <v>116</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D118" s="7">
         <v>5</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K118" s="1">
         <v>60</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -4606,31 +4882,31 @@
         <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D119" s="7">
         <v>5</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K119" s="1">
         <v>70</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -4638,31 +4914,31 @@
         <v>118</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D120" s="7">
         <v>5</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K120" s="1">
         <v>147</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -4670,31 +4946,31 @@
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D121" s="7">
         <v>5</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K121" s="1">
         <v>90</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -4702,7 +4978,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>16</v>
@@ -4734,7 +5010,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>16</v>
@@ -4746,7 +5022,7 @@
         <v>19</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G123" t="s">
         <v>20</v>
@@ -4758,7 +5034,7 @@
         <v>156</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -4766,7 +5042,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>16</v>
@@ -4775,22 +5051,22 @@
         <v>6</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K124" s="1">
         <v>80</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -4798,7 +5074,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>16</v>
@@ -4807,22 +5083,22 @@
         <v>6</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K125" s="1">
         <v>75</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -4839,22 +5115,22 @@
         <v>6</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K126" s="1">
         <v>121</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -4862,7 +5138,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>16</v>
@@ -4871,22 +5147,22 @@
         <v>6</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K127" s="1">
         <v>131</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -4894,7 +5170,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>17</v>
@@ -4906,19 +5182,19 @@
         <v>19</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K128" s="1">
         <v>98</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -4938,19 +5214,19 @@
         <v>19</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K129" s="1">
         <v>132</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -4958,7 +5234,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>17</v>
@@ -4967,22 +5243,22 @@
         <v>6</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K130" s="1">
         <v>149</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -4999,22 +5275,22 @@
         <v>6</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K131" s="1">
         <v>89</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -5022,7 +5298,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>17</v>
@@ -5031,22 +5307,22 @@
         <v>6</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K132" s="1">
         <v>69</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -5054,7 +5330,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>17</v>
@@ -5063,22 +5339,22 @@
         <v>6</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K133" s="1">
         <v>50</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -5086,7 +5362,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>18</v>
@@ -5098,19 +5374,19 @@
         <v>19</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K134" s="1">
         <v>134</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -5118,7 +5394,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>18</v>
@@ -5130,19 +5406,19 @@
         <v>19</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K135" s="1">
         <v>78</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -5159,22 +5435,22 @@
         <v>6</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K136" s="1">
         <v>145</v>
       </c>
       <c r="L136" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -5182,7 +5458,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>18</v>
@@ -5191,22 +5467,22 @@
         <v>6</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K137" s="1">
         <v>82</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -5223,22 +5499,22 @@
         <v>6</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K138" s="1">
         <v>175</v>
       </c>
       <c r="L138" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -5255,22 +5531,22 @@
         <v>6</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K139" s="1">
         <v>91</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -5281,7 +5557,7 @@
         <v>13</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D140" s="7">
         <v>6</v>
@@ -5290,19 +5566,19 @@
         <v>19</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K140" s="1">
         <v>150</v>
       </c>
       <c r="L140" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -5313,7 +5589,7 @@
         <v>14</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D141" s="7">
         <v>6</v>
@@ -5322,19 +5598,19 @@
         <v>19</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K141" s="1">
         <v>110</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -5342,31 +5618,31 @@
         <v>140</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D142" s="7">
         <v>6</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K142" s="1">
         <v>60</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -5377,28 +5653,28 @@
         <v>14</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D143" s="7">
         <v>6</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K143" s="1">
         <v>70</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -5409,28 +5685,28 @@
         <v>13</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D144" s="7">
         <v>6</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K144" s="1">
         <v>147</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -5438,31 +5714,31 @@
         <v>143</v>
       </c>
       <c r="B145" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C145" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D145" s="7">
         <v>6</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K145" s="1">
         <v>90</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -5494,7 +5770,7 @@
         <v>100</v>
       </c>
       <c r="L146" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -5502,7 +5778,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>16</v>
@@ -5514,7 +5790,7 @@
         <v>19</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G147" t="s">
         <v>20</v>
@@ -5526,7 +5802,7 @@
         <v>156</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -5534,7 +5810,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>16</v>
@@ -5543,22 +5819,22 @@
         <v>7</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K148" s="1">
         <v>80</v>
       </c>
       <c r="L148" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -5566,7 +5842,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>16</v>
@@ -5575,22 +5851,22 @@
         <v>7</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K149" s="1">
         <v>75</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -5598,7 +5874,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>16</v>
@@ -5607,22 +5883,22 @@
         <v>7</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K150" s="1">
         <v>121</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -5630,7 +5906,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>16</v>
@@ -5639,22 +5915,22 @@
         <v>7</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K151" s="1">
         <v>131</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -5674,19 +5950,19 @@
         <v>19</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K152" s="1">
         <v>98</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -5706,19 +5982,19 @@
         <v>19</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K153" s="1">
         <v>132</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -5726,7 +6002,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>17</v>
@@ -5735,22 +6011,22 @@
         <v>7</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K154" s="1">
         <v>149</v>
       </c>
       <c r="L154" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -5767,22 +6043,22 @@
         <v>7</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K155" s="1">
         <v>89</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -5790,7 +6066,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>17</v>
@@ -5799,22 +6075,22 @@
         <v>7</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K156" s="1">
         <v>69</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -5822,7 +6098,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>17</v>
@@ -5831,22 +6107,22 @@
         <v>7</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K157" s="1">
         <v>50</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -5854,7 +6130,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>18</v>
@@ -5866,19 +6142,19 @@
         <v>19</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K158" s="1">
         <v>134</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -5898,19 +6174,19 @@
         <v>19</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K159" s="1">
         <v>78</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -5918,7 +6194,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>18</v>
@@ -5927,22 +6203,22 @@
         <v>7</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K160" s="1">
         <v>145</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -5950,7 +6226,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>18</v>
@@ -5959,22 +6235,22 @@
         <v>7</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K161" s="1">
         <v>82</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -5991,22 +6267,22 @@
         <v>7</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K162" s="1">
         <v>175</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -6014,7 +6290,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>18</v>
@@ -6023,22 +6299,22 @@
         <v>7</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K163" s="1">
         <v>91</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -6046,10 +6322,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D164" s="7">
         <v>7</v>
@@ -6058,19 +6334,19 @@
         <v>19</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K164" s="1">
         <v>150</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -6078,10 +6354,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D165" s="7">
         <v>7</v>
@@ -6090,19 +6366,19 @@
         <v>19</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K165" s="1">
         <v>110</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -6110,31 +6386,31 @@
         <v>164</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D166" s="7">
         <v>7</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K166" s="1">
         <v>60</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -6142,31 +6418,31 @@
         <v>165</v>
       </c>
       <c r="B167" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C167" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D167" s="7">
         <v>7</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K167" s="1">
         <v>70</v>
       </c>
       <c r="L167" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -6177,28 +6453,28 @@
         <v>13</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D168" s="7">
         <v>7</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K168" s="1">
         <v>147</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -6206,31 +6482,31 @@
         <v>167</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D169" s="7">
         <v>7</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K169" s="1">
         <v>90</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -6238,7 +6514,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>16</v>
@@ -6282,7 +6558,7 @@
         <v>19</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G171" t="s">
         <v>20</v>
@@ -6294,7 +6570,7 @@
         <v>156</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -6302,7 +6578,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>16</v>
@@ -6311,22 +6587,22 @@
         <v>8</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K172" s="1">
         <v>80</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -6334,7 +6610,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>16</v>
@@ -6343,22 +6619,22 @@
         <v>8</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K173" s="1">
         <v>75</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -6375,22 +6651,22 @@
         <v>8</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K174" s="1">
         <v>121</v>
       </c>
       <c r="L174" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -6407,22 +6683,22 @@
         <v>8</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K175" s="1">
         <v>131</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -6442,19 +6718,19 @@
         <v>19</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K176" s="1">
         <v>98</v>
       </c>
       <c r="L176" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -6462,7 +6738,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>17</v>
@@ -6474,19 +6750,19 @@
         <v>19</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K177" s="1">
         <v>132</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -6494,7 +6770,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>17</v>
@@ -6503,22 +6779,22 @@
         <v>8</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K178" s="1">
         <v>149</v>
       </c>
       <c r="L178" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -6526,7 +6802,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>17</v>
@@ -6535,22 +6811,22 @@
         <v>8</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K179" s="1">
         <v>89</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -6567,22 +6843,22 @@
         <v>8</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K180" s="1">
         <v>69</v>
       </c>
       <c r="L180" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -6590,7 +6866,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>17</v>
@@ -6599,22 +6875,22 @@
         <v>8</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K181" s="1">
         <v>50</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -6622,7 +6898,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>18</v>
@@ -6634,19 +6910,19 @@
         <v>19</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K182" s="1">
         <v>134</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -6654,7 +6930,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>18</v>
@@ -6666,19 +6942,19 @@
         <v>19</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K183" s="1">
         <v>78</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -6695,22 +6971,22 @@
         <v>8</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K184" s="1">
         <v>145</v>
       </c>
       <c r="L184" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -6718,7 +6994,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>18</v>
@@ -6727,22 +7003,22 @@
         <v>8</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K185" s="1">
         <v>82</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -6750,7 +7026,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>18</v>
@@ -6759,22 +7035,22 @@
         <v>8</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K186" s="1">
         <v>175</v>
       </c>
       <c r="L186" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -6782,7 +7058,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>18</v>
@@ -6791,22 +7067,22 @@
         <v>8</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K187" s="1">
         <v>91</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -6814,10 +7090,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D188" s="7">
         <v>8</v>
@@ -6826,19 +7102,19 @@
         <v>19</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K188" s="1">
         <v>150</v>
       </c>
       <c r="L188" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -6846,10 +7122,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D189" s="7">
         <v>8</v>
@@ -6858,19 +7134,19 @@
         <v>19</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K189" s="1">
         <v>110</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -6878,31 +7154,31 @@
         <v>188</v>
       </c>
       <c r="B190" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C190" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D190" s="7">
         <v>8</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K190" s="1">
         <v>60</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -6913,28 +7189,28 @@
         <v>13</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D191" s="7">
         <v>8</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K191" s="1">
         <v>70</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -6942,31 +7218,31 @@
         <v>190</v>
       </c>
       <c r="B192" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C192" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D192" s="7">
         <v>8</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K192" s="1">
         <v>147</v>
       </c>
       <c r="L192" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
@@ -6977,28 +7253,28 @@
         <v>13</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D193" s="7">
         <v>8</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K193" s="1">
         <v>90</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Narrative/Media Posts.xlsx
+++ b/Source/Narrative/Media Posts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Desktop\Computer Science\BGDS Yr-03 Semester 06_Design_Practice_04\Source\Narrative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F8BC05-C584-4F61-91E9-4C8B3BE79F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FBED8F-5261-4E22-A47F-95D720D9524B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="171">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -511,6 +511,33 @@
   </si>
   <si>
     <t>media_post_2.jpg</t>
+  </si>
+  <si>
+    <t>Government Officials Unveil Construction of New Schools</t>
+  </si>
+  <si>
+    <t>U.S.A.R. Chairmen Donates 10 Million to Charity!!!</t>
+  </si>
+  <si>
+    <t>Chairmen Retires After the Death of Their Spouse</t>
+  </si>
+  <si>
+    <t>U.S.A.R Debate Team Loses National Championship</t>
+  </si>
+  <si>
+    <t>Vote for Financial Support From New Donza Fails</t>
+  </si>
+  <si>
+    <t>Policeman Slaps Homeless Man for Fun</t>
+  </si>
+  <si>
+    <t>Countries Soccer Team Eliminated Immediately</t>
+  </si>
+  <si>
+    <t>Passersby Defend Young Boy From Drunken Police</t>
+  </si>
+  <si>
+    <t>Stray Cat Caught in Street Fight Saved by Homeless Woman</t>
   </si>
 </sst>
 </file>
@@ -907,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2730,7 +2757,7 @@
         <v>156</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2761,8 +2788,8 @@
       <c r="K52" s="1">
         <v>80</v>
       </c>
-      <c r="L52" s="5" t="s">
-        <v>59</v>
+      <c r="L52" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2794,7 +2821,7 @@
         <v>75</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2826,7 +2853,7 @@
         <v>121</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>61</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2858,7 +2885,7 @@
         <v>131</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2890,7 +2917,7 @@
         <v>98</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2922,7 +2949,7 @@
         <v>132</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -2953,9 +2980,7 @@
       <c r="K58" s="1">
         <v>149</v>
       </c>
-      <c r="L58" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -2985,9 +3010,7 @@
       <c r="K59" s="1">
         <v>89</v>
       </c>
-      <c r="L59" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -3017,9 +3040,7 @@
       <c r="K60" s="1">
         <v>69</v>
       </c>
-      <c r="L60" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
@@ -3049,9 +3070,7 @@
       <c r="K61" s="1">
         <v>50</v>
       </c>
-      <c r="L61" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -3081,9 +3100,7 @@
       <c r="K62" s="1">
         <v>134</v>
       </c>
-      <c r="L62" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
@@ -3113,9 +3130,7 @@
       <c r="K63" s="1">
         <v>78</v>
       </c>
-      <c r="L63" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="L63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -3145,9 +3160,7 @@
       <c r="K64" s="1">
         <v>145</v>
       </c>
-      <c r="L64" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
@@ -3177,9 +3190,7 @@
       <c r="K65" s="1">
         <v>82</v>
       </c>
-      <c r="L65" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -3209,9 +3220,7 @@
       <c r="K66" s="1">
         <v>175</v>
       </c>
-      <c r="L66" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
@@ -3241,9 +3250,7 @@
       <c r="K67" s="1">
         <v>91</v>
       </c>
-      <c r="L67" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="L67" s="4"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -3273,9 +3280,7 @@
       <c r="K68" s="1">
         <v>150</v>
       </c>
-      <c r="L68" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="L68" s="5"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
@@ -3305,9 +3310,7 @@
       <c r="K69" s="1">
         <v>110</v>
       </c>
-      <c r="L69" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="L69" s="4"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -3337,9 +3340,7 @@
       <c r="K70" s="1">
         <v>60</v>
       </c>
-      <c r="L70" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="L70" s="5"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
@@ -3369,9 +3370,7 @@
       <c r="K71" s="1">
         <v>70</v>
       </c>
-      <c r="L71" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="L71" s="4"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -3401,9 +3400,7 @@
       <c r="K72" s="1">
         <v>147</v>
       </c>
-      <c r="L72" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="L72" s="5"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
@@ -3433,9 +3430,7 @@
       <c r="K73" s="1">
         <v>90</v>
       </c>
-      <c r="L73" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="L73" s="4"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -3466,7 +3461,7 @@
         <v>100</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3497,9 +3492,7 @@
       <c r="K75" s="1">
         <v>156</v>
       </c>
-      <c r="L75" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="L75" s="4"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -3529,9 +3522,7 @@
       <c r="K76" s="1">
         <v>80</v>
       </c>
-      <c r="L76" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="L76" s="5"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
@@ -3561,9 +3552,7 @@
       <c r="K77" s="1">
         <v>75</v>
       </c>
-      <c r="L77" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="L77" s="4"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
@@ -3593,9 +3582,7 @@
       <c r="K78" s="1">
         <v>121</v>
       </c>
-      <c r="L78" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="L78" s="5"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
@@ -3625,9 +3612,7 @@
       <c r="K79" s="1">
         <v>131</v>
       </c>
-      <c r="L79" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="L79" s="4"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
@@ -3657,9 +3642,7 @@
       <c r="K80" s="1">
         <v>98</v>
       </c>
-      <c r="L80" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="L80" s="5"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
@@ -3689,9 +3672,7 @@
       <c r="K81" s="1">
         <v>132</v>
       </c>
-      <c r="L81" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="L81" s="4"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
@@ -3721,9 +3702,7 @@
       <c r="K82" s="1">
         <v>149</v>
       </c>
-      <c r="L82" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="L82" s="5"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
@@ -3753,9 +3732,7 @@
       <c r="K83" s="1">
         <v>89</v>
       </c>
-      <c r="L83" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="L83" s="4"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
@@ -3785,9 +3762,7 @@
       <c r="K84" s="1">
         <v>69</v>
       </c>
-      <c r="L84" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="L84" s="5"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
@@ -3817,9 +3792,7 @@
       <c r="K85" s="1">
         <v>50</v>
       </c>
-      <c r="L85" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="L85" s="4"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -3849,9 +3822,7 @@
       <c r="K86" s="1">
         <v>134</v>
       </c>
-      <c r="L86" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="L86" s="5"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
@@ -3881,9 +3852,7 @@
       <c r="K87" s="1">
         <v>78</v>
       </c>
-      <c r="L87" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="L87" s="4"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
@@ -3913,9 +3882,7 @@
       <c r="K88" s="1">
         <v>145</v>
       </c>
-      <c r="L88" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="L88" s="5"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
@@ -3945,9 +3912,7 @@
       <c r="K89" s="1">
         <v>82</v>
       </c>
-      <c r="L89" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="L89" s="4"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
@@ -3977,9 +3942,7 @@
       <c r="K90" s="1">
         <v>175</v>
       </c>
-      <c r="L90" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="L90" s="5"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
@@ -4009,9 +3972,7 @@
       <c r="K91" s="1">
         <v>91</v>
       </c>
-      <c r="L91" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="L91" s="4"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
@@ -4041,9 +4002,7 @@
       <c r="K92" s="1">
         <v>150</v>
       </c>
-      <c r="L92" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="L92" s="5"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
@@ -4073,9 +4032,7 @@
       <c r="K93" s="1">
         <v>110</v>
       </c>
-      <c r="L93" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="L93" s="4"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
@@ -4105,9 +4062,7 @@
       <c r="K94" s="1">
         <v>60</v>
       </c>
-      <c r="L94" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="L94" s="5"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
@@ -4137,9 +4092,7 @@
       <c r="K95" s="1">
         <v>70</v>
       </c>
-      <c r="L95" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="L95" s="4"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
@@ -4169,9 +4122,7 @@
       <c r="K96" s="1">
         <v>147</v>
       </c>
-      <c r="L96" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="L96" s="5"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
@@ -4201,9 +4152,7 @@
       <c r="K97" s="1">
         <v>90</v>
       </c>
-      <c r="L97" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="L97" s="4"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -4233,9 +4182,7 @@
       <c r="K98" s="1">
         <v>100</v>
       </c>
-      <c r="L98" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="L98" s="5"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
@@ -4265,9 +4212,7 @@
       <c r="K99" s="1">
         <v>156</v>
       </c>
-      <c r="L99" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="L99" s="4"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
@@ -4298,7 +4243,7 @@
         <v>80</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4329,9 +4274,7 @@
       <c r="K101" s="1">
         <v>75</v>
       </c>
-      <c r="L101" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="L101" s="4"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
@@ -4361,9 +4304,7 @@
       <c r="K102" s="1">
         <v>121</v>
       </c>
-      <c r="L102" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="L102" s="5"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
@@ -4393,9 +4334,7 @@
       <c r="K103" s="1">
         <v>131</v>
       </c>
-      <c r="L103" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="L103" s="4"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
@@ -4425,9 +4364,7 @@
       <c r="K104" s="1">
         <v>98</v>
       </c>
-      <c r="L104" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="L104" s="5"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
@@ -4457,9 +4394,7 @@
       <c r="K105" s="1">
         <v>132</v>
       </c>
-      <c r="L105" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="L105" s="4"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
@@ -4489,9 +4424,7 @@
       <c r="K106" s="1">
         <v>149</v>
       </c>
-      <c r="L106" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="L106" s="5"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
@@ -4521,9 +4454,7 @@
       <c r="K107" s="1">
         <v>89</v>
       </c>
-      <c r="L107" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="L107" s="4"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
@@ -4553,9 +4484,7 @@
       <c r="K108" s="1">
         <v>69</v>
       </c>
-      <c r="L108" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="L108" s="5"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
@@ -4585,9 +4514,7 @@
       <c r="K109" s="1">
         <v>50</v>
       </c>
-      <c r="L109" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="L109" s="4"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -4617,9 +4544,7 @@
       <c r="K110" s="1">
         <v>134</v>
       </c>
-      <c r="L110" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="L110" s="5"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
@@ -4649,9 +4574,7 @@
       <c r="K111" s="1">
         <v>78</v>
       </c>
-      <c r="L111" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="L111" s="4"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
@@ -4681,9 +4604,7 @@
       <c r="K112" s="1">
         <v>145</v>
       </c>
-      <c r="L112" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="L112" s="5"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
@@ -4713,9 +4634,7 @@
       <c r="K113" s="1">
         <v>82</v>
       </c>
-      <c r="L113" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="L113" s="4"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
@@ -4745,9 +4664,7 @@
       <c r="K114" s="1">
         <v>175</v>
       </c>
-      <c r="L114" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="L114" s="5"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
@@ -4777,9 +4694,7 @@
       <c r="K115" s="1">
         <v>91</v>
       </c>
-      <c r="L115" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="L115" s="4"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
@@ -4809,9 +4724,7 @@
       <c r="K116" s="1">
         <v>150</v>
       </c>
-      <c r="L116" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="L116" s="5"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
@@ -4841,9 +4754,7 @@
       <c r="K117" s="1">
         <v>110</v>
       </c>
-      <c r="L117" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="L117" s="4"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
@@ -4873,9 +4784,7 @@
       <c r="K118" s="1">
         <v>60</v>
       </c>
-      <c r="L118" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="L118" s="5"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
@@ -4905,9 +4814,7 @@
       <c r="K119" s="1">
         <v>70</v>
       </c>
-      <c r="L119" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="L119" s="4"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
@@ -4937,9 +4844,7 @@
       <c r="K120" s="1">
         <v>147</v>
       </c>
-      <c r="L120" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="L120" s="5"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
@@ -4969,9 +4874,7 @@
       <c r="K121" s="1">
         <v>90</v>
       </c>
-      <c r="L121" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="L121" s="4"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -5001,9 +4904,7 @@
       <c r="K122" s="1">
         <v>100</v>
       </c>
-      <c r="L122" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="L122" s="5"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
@@ -5033,9 +4934,7 @@
       <c r="K123" s="1">
         <v>156</v>
       </c>
-      <c r="L123" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="L123" s="4"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
@@ -5065,9 +4964,7 @@
       <c r="K124" s="1">
         <v>80</v>
       </c>
-      <c r="L124" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="L124" s="5"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
@@ -5097,9 +4994,7 @@
       <c r="K125" s="1">
         <v>75</v>
       </c>
-      <c r="L125" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="L125" s="4"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
@@ -5129,9 +5024,7 @@
       <c r="K126" s="1">
         <v>121</v>
       </c>
-      <c r="L126" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="L126" s="5"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
@@ -5161,9 +5054,7 @@
       <c r="K127" s="1">
         <v>131</v>
       </c>
-      <c r="L127" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="L127" s="4"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
@@ -5193,9 +5084,7 @@
       <c r="K128" s="1">
         <v>98</v>
       </c>
-      <c r="L128" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="L128" s="5"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
@@ -5225,9 +5114,7 @@
       <c r="K129" s="1">
         <v>132</v>
       </c>
-      <c r="L129" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="L129" s="4"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
@@ -5257,9 +5144,7 @@
       <c r="K130" s="1">
         <v>149</v>
       </c>
-      <c r="L130" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="L130" s="5"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
@@ -5289,9 +5174,7 @@
       <c r="K131" s="1">
         <v>89</v>
       </c>
-      <c r="L131" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="L131" s="4"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
@@ -5321,9 +5204,7 @@
       <c r="K132" s="1">
         <v>69</v>
       </c>
-      <c r="L132" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="L132" s="5"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
@@ -5353,9 +5234,7 @@
       <c r="K133" s="1">
         <v>50</v>
       </c>
-      <c r="L133" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="L133" s="4"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -5385,9 +5264,7 @@
       <c r="K134" s="1">
         <v>134</v>
       </c>
-      <c r="L134" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="L134" s="5"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
@@ -5417,9 +5294,7 @@
       <c r="K135" s="1">
         <v>78</v>
       </c>
-      <c r="L135" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="L135" s="4"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
@@ -5449,9 +5324,7 @@
       <c r="K136" s="1">
         <v>145</v>
       </c>
-      <c r="L136" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="L136" s="5"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
@@ -5481,9 +5354,7 @@
       <c r="K137" s="1">
         <v>82</v>
       </c>
-      <c r="L137" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="L137" s="4"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
@@ -5513,9 +5384,7 @@
       <c r="K138" s="1">
         <v>175</v>
       </c>
-      <c r="L138" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="L138" s="5"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
@@ -5545,9 +5414,7 @@
       <c r="K139" s="1">
         <v>91</v>
       </c>
-      <c r="L139" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="L139" s="4"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
@@ -5577,9 +5444,7 @@
       <c r="K140" s="1">
         <v>150</v>
       </c>
-      <c r="L140" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="L140" s="5"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
@@ -5609,9 +5474,7 @@
       <c r="K141" s="1">
         <v>110</v>
       </c>
-      <c r="L141" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="L141" s="4"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
@@ -5641,9 +5504,7 @@
       <c r="K142" s="1">
         <v>60</v>
       </c>
-      <c r="L142" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="L142" s="5"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
@@ -5673,9 +5534,7 @@
       <c r="K143" s="1">
         <v>70</v>
       </c>
-      <c r="L143" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="L143" s="4"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
@@ -5705,9 +5564,7 @@
       <c r="K144" s="1">
         <v>147</v>
       </c>
-      <c r="L144" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="L144" s="5"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
@@ -5737,9 +5594,7 @@
       <c r="K145" s="1">
         <v>90</v>
       </c>
-      <c r="L145" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="L145" s="4"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -5769,9 +5624,7 @@
       <c r="K146" s="1">
         <v>100</v>
       </c>
-      <c r="L146" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="L146" s="5"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
@@ -5801,9 +5654,7 @@
       <c r="K147" s="1">
         <v>156</v>
       </c>
-      <c r="L147" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="L147" s="4"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
@@ -5833,9 +5684,7 @@
       <c r="K148" s="1">
         <v>80</v>
       </c>
-      <c r="L148" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="L148" s="5"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
@@ -5865,9 +5714,7 @@
       <c r="K149" s="1">
         <v>75</v>
       </c>
-      <c r="L149" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="L149" s="4"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
@@ -5897,9 +5744,7 @@
       <c r="K150" s="1">
         <v>121</v>
       </c>
-      <c r="L150" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="L150" s="5"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
@@ -5929,9 +5774,7 @@
       <c r="K151" s="1">
         <v>131</v>
       </c>
-      <c r="L151" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="L151" s="4"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
@@ -5961,9 +5804,7 @@
       <c r="K152" s="1">
         <v>98</v>
       </c>
-      <c r="L152" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="L152" s="5"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
@@ -5993,9 +5834,7 @@
       <c r="K153" s="1">
         <v>132</v>
       </c>
-      <c r="L153" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="L153" s="4"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
@@ -6025,9 +5864,7 @@
       <c r="K154" s="1">
         <v>149</v>
       </c>
-      <c r="L154" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="L154" s="5"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
@@ -6057,9 +5894,7 @@
       <c r="K155" s="1">
         <v>89</v>
       </c>
-      <c r="L155" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="L155" s="4"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
@@ -6089,9 +5924,7 @@
       <c r="K156" s="1">
         <v>69</v>
       </c>
-      <c r="L156" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="L156" s="5"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
@@ -6121,9 +5954,7 @@
       <c r="K157" s="1">
         <v>50</v>
       </c>
-      <c r="L157" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="L157" s="4"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
@@ -6153,9 +5984,7 @@
       <c r="K158" s="1">
         <v>134</v>
       </c>
-      <c r="L158" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="L158" s="5"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
@@ -6185,9 +6014,7 @@
       <c r="K159" s="1">
         <v>78</v>
       </c>
-      <c r="L159" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="L159" s="4"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
@@ -6217,9 +6044,7 @@
       <c r="K160" s="1">
         <v>145</v>
       </c>
-      <c r="L160" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="L160" s="5"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
@@ -6249,9 +6074,7 @@
       <c r="K161" s="1">
         <v>82</v>
       </c>
-      <c r="L161" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="L161" s="4"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
@@ -6281,9 +6104,7 @@
       <c r="K162" s="1">
         <v>175</v>
       </c>
-      <c r="L162" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="L162" s="5"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
@@ -6313,9 +6134,7 @@
       <c r="K163" s="1">
         <v>91</v>
       </c>
-      <c r="L163" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="L163" s="4"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
@@ -6345,9 +6164,7 @@
       <c r="K164" s="1">
         <v>150</v>
       </c>
-      <c r="L164" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="L164" s="5"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
@@ -6377,9 +6194,7 @@
       <c r="K165" s="1">
         <v>110</v>
       </c>
-      <c r="L165" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="L165" s="4"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
@@ -6409,9 +6224,7 @@
       <c r="K166" s="1">
         <v>60</v>
       </c>
-      <c r="L166" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="L166" s="5"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
@@ -6441,9 +6254,7 @@
       <c r="K167" s="1">
         <v>70</v>
       </c>
-      <c r="L167" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="L167" s="4"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
@@ -6473,9 +6284,7 @@
       <c r="K168" s="1">
         <v>147</v>
       </c>
-      <c r="L168" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="L168" s="5"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
@@ -6505,9 +6314,7 @@
       <c r="K169" s="1">
         <v>90</v>
       </c>
-      <c r="L169" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="L169" s="4"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
@@ -6537,9 +6344,7 @@
       <c r="K170" s="1">
         <v>100</v>
       </c>
-      <c r="L170" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="L170" s="5"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
@@ -6569,9 +6374,7 @@
       <c r="K171" s="1">
         <v>156</v>
       </c>
-      <c r="L171" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="L171" s="4"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
@@ -6601,9 +6404,7 @@
       <c r="K172" s="1">
         <v>80</v>
       </c>
-      <c r="L172" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="L172" s="5"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
@@ -6633,9 +6434,7 @@
       <c r="K173" s="1">
         <v>75</v>
       </c>
-      <c r="L173" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="L173" s="4"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
@@ -6665,9 +6464,7 @@
       <c r="K174" s="1">
         <v>121</v>
       </c>
-      <c r="L174" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="L174" s="5"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
@@ -6697,9 +6494,7 @@
       <c r="K175" s="1">
         <v>131</v>
       </c>
-      <c r="L175" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="L175" s="4"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
@@ -6729,9 +6524,7 @@
       <c r="K176" s="1">
         <v>98</v>
       </c>
-      <c r="L176" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="L176" s="5"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
@@ -6761,9 +6554,7 @@
       <c r="K177" s="1">
         <v>132</v>
       </c>
-      <c r="L177" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="L177" s="4"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
@@ -6793,9 +6584,7 @@
       <c r="K178" s="1">
         <v>149</v>
       </c>
-      <c r="L178" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="L178" s="5"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
@@ -6825,9 +6614,7 @@
       <c r="K179" s="1">
         <v>89</v>
       </c>
-      <c r="L179" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="L179" s="4"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
@@ -6857,9 +6644,7 @@
       <c r="K180" s="1">
         <v>69</v>
       </c>
-      <c r="L180" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="L180" s="5"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
@@ -6889,9 +6674,7 @@
       <c r="K181" s="1">
         <v>50</v>
       </c>
-      <c r="L181" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="L181" s="4"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
@@ -6921,9 +6704,7 @@
       <c r="K182" s="1">
         <v>134</v>
       </c>
-      <c r="L182" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="L182" s="5"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
@@ -6953,9 +6734,7 @@
       <c r="K183" s="1">
         <v>78</v>
       </c>
-      <c r="L183" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="L183" s="4"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
@@ -6985,9 +6764,7 @@
       <c r="K184" s="1">
         <v>145</v>
       </c>
-      <c r="L184" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="L184" s="5"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
@@ -7017,9 +6794,7 @@
       <c r="K185" s="1">
         <v>82</v>
       </c>
-      <c r="L185" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="L185" s="4"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
@@ -7049,9 +6824,7 @@
       <c r="K186" s="1">
         <v>175</v>
       </c>
-      <c r="L186" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="L186" s="5"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
@@ -7081,9 +6854,7 @@
       <c r="K187" s="1">
         <v>91</v>
       </c>
-      <c r="L187" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="L187" s="4"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
@@ -7113,9 +6884,7 @@
       <c r="K188" s="1">
         <v>150</v>
       </c>
-      <c r="L188" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="L188" s="5"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
@@ -7145,9 +6914,7 @@
       <c r="K189" s="1">
         <v>110</v>
       </c>
-      <c r="L189" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="L189" s="4"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
@@ -7177,9 +6944,7 @@
       <c r="K190" s="1">
         <v>60</v>
       </c>
-      <c r="L190" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="L190" s="5"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
@@ -7209,9 +6974,7 @@
       <c r="K191" s="1">
         <v>70</v>
       </c>
-      <c r="L191" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="L191" s="4"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
@@ -7241,9 +7004,7 @@
       <c r="K192" s="1">
         <v>147</v>
       </c>
-      <c r="L192" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="L192" s="5"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
@@ -7273,9 +7034,7 @@
       <c r="K193" s="1">
         <v>90</v>
       </c>
-      <c r="L193" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="L193" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source/Narrative/Media Posts.xlsx
+++ b/Source/Narrative/Media Posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FBED8F-5261-4E22-A47F-95D720D9524B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8FC554-463F-43B9-A042-730D0094B6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="228">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -198,24 +198,12 @@
     <t>CAUTION! Thousands of Fanatics Punch Paul</t>
   </si>
   <si>
-    <t>How Government Can Make You Happier!</t>
-  </si>
-  <si>
-    <t>Government Bans Sadness</t>
-  </si>
-  <si>
-    <t>Why Government's Netflix Increases Depression</t>
-  </si>
-  <si>
     <t>The Government Cuts Toilet Paper Funding</t>
   </si>
   <si>
     <t>Government "Misplaces" Billions In Tax Revenue</t>
   </si>
   <si>
-    <t>Anger At Governments Internet Ban</t>
-  </si>
-  <si>
     <t>Tike Myson Beats Rogan Jaul In 1 Round!</t>
   </si>
   <si>
@@ -538,6 +526,189 @@
   </si>
   <si>
     <t>Stray Cat Caught in Street Fight Saved by Homeless Woman</t>
+  </si>
+  <si>
+    <t>Driver Run Over By Cyclist Imprisoned for Technicality</t>
+  </si>
+  <si>
+    <t>Clinics Expanding Wait Lists In Sight of Rising Illness</t>
+  </si>
+  <si>
+    <t>Man Diagnosed with Mental Illness After Staying Alone for 10 Weeks</t>
+  </si>
+  <si>
+    <t>Members of Separatist Group Living Happy Lives</t>
+  </si>
+  <si>
+    <t>Woman Speaking of Change Silenced by Authorities</t>
+  </si>
+  <si>
+    <t>Police Destroy Public Radios in Café During Hijacked Broadcast</t>
+  </si>
+  <si>
+    <t>Why Government's Streaming Increases Depression</t>
+  </si>
+  <si>
+    <t>Government Cuts Tissue Paper Funding!!!</t>
+  </si>
+  <si>
+    <t>Anger At Governments Website Ban List</t>
+  </si>
+  <si>
+    <t>Government Continues to Ban Streaming Sights and Services</t>
+  </si>
+  <si>
+    <t>Neighbourhoods Able to Settle Differences… For NOW</t>
+  </si>
+  <si>
+    <t>Governments Ban on Sadness! Programs Meant to Improve Mood</t>
+  </si>
+  <si>
+    <t>Brain Surgery Abandoned After Patient Wouldn't Stop Screaming</t>
+  </si>
+  <si>
+    <t>Government Unable to Contain Fight in Game Store</t>
+  </si>
+  <si>
+    <t>Teen Who Saved Snail Found Wounded in Their Attempt</t>
+  </si>
+  <si>
+    <t>Local Beloved Hero Dies in Shootout</t>
+  </si>
+  <si>
+    <t>U.S.A.R. Chairmen Crowd Surfs After Speech</t>
+  </si>
+  <si>
+    <t>How the Government Can Make You Happier!</t>
+  </si>
+  <si>
+    <t>Government Official Settles a Debate with a Slapboxing Match!?!</t>
+  </si>
+  <si>
+    <t>Public Boxing Arena Opened</t>
+  </si>
+  <si>
+    <t>Civilian Tackled for Listening to Music!?!</t>
+  </si>
+  <si>
+    <t>Bar Patrons Stop Fighting to Settle Conflict with a Thumb Wrestling Match</t>
+  </si>
+  <si>
+    <t>Bystander Heavily Insulted for Being "Involved" in Car Crash</t>
+  </si>
+  <si>
+    <t>Pidgeon Jumped by Highschoolers</t>
+  </si>
+  <si>
+    <t>Why?</t>
+  </si>
+  <si>
+    <t>RespectBirds</t>
+  </si>
+  <si>
+    <t>Hoodlems</t>
+  </si>
+  <si>
+    <t>Police Man Laughs at Deathly Injured Victim of Assault!!!</t>
+  </si>
+  <si>
+    <t>Elderly Woman Passes Away After Being in Hospital for 20 Years</t>
+  </si>
+  <si>
+    <t>Man With Cancer Turned Away By Hospital!!!</t>
+  </si>
+  <si>
+    <t>Doctor Late to Surgery to Take a Smoke Break!</t>
+  </si>
+  <si>
+    <t>Gang of Highschoolers Now Attacking Flocks of Pidgeons in Public!!!</t>
+  </si>
+  <si>
+    <t>LeaveEmAlone!!!</t>
+  </si>
+  <si>
+    <t>DamnKids</t>
+  </si>
+  <si>
+    <t>DoSomething!</t>
+  </si>
+  <si>
+    <t>Man Recieves Surprise Check to Cover His Treatments</t>
+  </si>
+  <si>
+    <t>Nurse Ashamed of Her Mistakes During Check Up</t>
+  </si>
+  <si>
+    <t>Medical Staff Lock Their Doors to Patients with "Minimal" Symptoms</t>
+  </si>
+  <si>
+    <t>Elderly Man Miss-Diagnosed With a Cold Instead of New Illness</t>
+  </si>
+  <si>
+    <t>Woman Defies Police's Demands and Continues to Play Music for Crowds</t>
+  </si>
+  <si>
+    <t>Government Officials Ban Specific Radio Stations</t>
+  </si>
+  <si>
+    <t>Police Dog Refuses to Attack Defenseless Radical Preacher</t>
+  </si>
+  <si>
+    <t>Independent Games Company Forced to Sell to the U.S.A.R. After 50 Years</t>
+  </si>
+  <si>
+    <t>Support From Breminairo Cut. Officials Promise Aid for Those Affected</t>
+  </si>
+  <si>
+    <t>Country Representative Leaves Stage During A Losing Debate!!!</t>
+  </si>
+  <si>
+    <t>Towns Form Support Funds and Programs to Aid Each Other In Rising Conflict</t>
+  </si>
+  <si>
+    <t>Teenage Gang Called the Rattle Snakes Declare War on All Pidgeons!?!</t>
+  </si>
+  <si>
+    <t>Shooter Claims House Pets as Hostages During a House Invasion</t>
+  </si>
+  <si>
+    <t>Government Releases Claims that the a Cure to Rising Illness is Under Way</t>
+  </si>
+  <si>
+    <t>Private Clinics Opened to Diagnose the Virus</t>
+  </si>
+  <si>
+    <t>Crowds Gather at Hospital Doors</t>
+  </si>
+  <si>
+    <t>Patients Turned Away During Rising Epidemic</t>
+  </si>
+  <si>
+    <t>Wealthy Patients Bribe Their Way Past Waiting Rooms!?!</t>
+  </si>
+  <si>
+    <t>Lead Epidemic Researcher Lost in Plane Crash</t>
+  </si>
+  <si>
+    <t>Radical Radio Station Goes Live to Radios Across the Country Playing Music</t>
+  </si>
+  <si>
+    <t>Police Confiscate Electronics from Privately Owned Businesses</t>
+  </si>
+  <si>
+    <t>Arcade with Open Radios Shut Down by Police</t>
+  </si>
+  <si>
+    <t>Woman With Separatist Views Dumped by Nationalist Partner</t>
+  </si>
+  <si>
+    <t>Emerging Protestors Flashbanged by Rogue Officer</t>
+  </si>
+  <si>
+    <t>Government Provide New Relief Funding to Recently Unemployed Citizens</t>
+  </si>
+  <si>
+    <t>Chairwoman Finds New Love With the President of New Donza</t>
   </si>
 </sst>
 </file>
@@ -566,7 +737,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +748,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
         <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -592,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -602,6 +785,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="C86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +1135,7 @@
     <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="70.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1029,12 +1215,6 @@
       <c r="K2" s="1">
         <v>100</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1053,7 +1233,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>20</v>
@@ -1074,7 +1254,7 @@
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1094,13 +1274,13 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -1115,7 +1295,7 @@
         <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1135,13 +1315,13 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K5" s="1">
         <v>75</v>
@@ -1150,7 +1330,7 @@
         <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1170,13 +1350,13 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K6" s="1">
         <v>121</v>
@@ -1185,7 +1365,7 @@
         <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1205,22 +1385,19 @@
         <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K7" s="1">
         <v>131</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" t="s">
-        <v>116</v>
+      <c r="L7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1240,22 +1417,19 @@
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K8" s="1">
         <v>98</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s">
-        <v>117</v>
+      <c r="L8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1275,22 +1449,19 @@
         <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K9" s="1">
         <v>132</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" t="s">
-        <v>118</v>
+      <c r="L9" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1313,19 +1484,16 @@
         <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K10" s="1">
         <v>149</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" t="s">
-        <v>119</v>
+      <c r="L10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1348,19 +1516,16 @@
         <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K11" s="1">
         <v>89</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" t="s">
-        <v>120</v>
+      <c r="L11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1380,22 +1545,19 @@
         <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="K12" s="1">
         <v>69</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" t="s">
-        <v>121</v>
+      <c r="L12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1415,22 +1577,19 @@
         <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K13" s="1">
         <v>50</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" t="s">
-        <v>122</v>
+      <c r="L13" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1450,13 +1609,13 @@
         <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K14" s="1">
         <v>134</v>
@@ -1465,7 +1624,7 @@
         <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1485,13 +1644,13 @@
         <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K15" s="1">
         <v>78</v>
@@ -1500,7 +1659,7 @@
         <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1520,22 +1679,19 @@
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K16" s="1">
         <v>145</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" t="s">
-        <v>125</v>
+      <c r="L16" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1555,13 +1711,13 @@
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="1">
         <v>82</v>
@@ -1570,7 +1726,7 @@
         <v>49</v>
       </c>
       <c r="M17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1590,22 +1746,19 @@
         <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K18" s="1">
         <v>175</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" t="s">
-        <v>127</v>
+      <c r="L18" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1625,22 +1778,19 @@
         <v>26</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K19" s="1">
         <v>91</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" t="s">
-        <v>128</v>
+      <c r="L19" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1660,13 +1810,13 @@
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K20" s="1">
         <v>150</v>
@@ -1675,7 +1825,7 @@
         <v>51</v>
       </c>
       <c r="M20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1695,13 +1845,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K21" s="1">
         <v>110</v>
@@ -1710,7 +1860,7 @@
         <v>52</v>
       </c>
       <c r="M21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1730,13 +1880,13 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K22" s="1">
         <v>60</v>
@@ -1745,7 +1895,7 @@
         <v>53</v>
       </c>
       <c r="M22" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1765,13 +1915,13 @@
         <v>24</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K23" s="1">
         <v>70</v>
@@ -1780,7 +1930,7 @@
         <v>54</v>
       </c>
       <c r="M23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1800,13 +1950,13 @@
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K24" s="1">
         <v>147</v>
@@ -1815,7 +1965,7 @@
         <v>55</v>
       </c>
       <c r="M24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1835,13 +1985,13 @@
         <v>26</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K25" s="1">
         <v>90</v>
@@ -1850,7 +2000,7 @@
         <v>56</v>
       </c>
       <c r="M25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1882,10 +2032,10 @@
         <v>100</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="M26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1905,7 +2055,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s">
         <v>20</v>
@@ -1917,10 +2067,10 @@
         <v>156</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="M27" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1940,22 +2090,22 @@
         <v>24</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K28" s="1">
         <v>80</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="M28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1975,22 +2125,22 @@
         <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K29" s="1">
         <v>75</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2010,22 +2160,22 @@
         <v>26</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K30" s="1">
         <v>121</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2045,22 +2195,22 @@
         <v>26</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K31" s="1">
         <v>131</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="M31" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2080,22 +2230,22 @@
         <v>19</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K32" s="1">
         <v>98</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M32" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2115,22 +2265,22 @@
         <v>19</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K33" s="1">
         <v>132</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M33" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2153,19 +2303,19 @@
         <v>25</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K34" s="1">
         <v>149</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M34" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2188,19 +2338,19 @@
         <v>25</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K35" s="1">
         <v>89</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M35" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2220,22 +2370,22 @@
         <v>26</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K36" s="1">
         <v>69</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M36" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2255,22 +2405,22 @@
         <v>26</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K37" s="1">
         <v>50</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M37" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2290,22 +2440,22 @@
         <v>19</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K38" s="1">
         <v>134</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M38" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2325,22 +2475,22 @@
         <v>19</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K39" s="1">
         <v>78</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M39" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2360,22 +2510,22 @@
         <v>24</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K40" s="1">
         <v>145</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2395,22 +2545,22 @@
         <v>24</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K41" s="1">
         <v>82</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M41" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2430,22 +2580,22 @@
         <v>26</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K42" s="1">
         <v>175</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M42" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2465,22 +2615,22 @@
         <v>26</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K43" s="1">
         <v>91</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M43" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2500,22 +2650,22 @@
         <v>19</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K44" s="1">
         <v>150</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M44" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2535,22 +2685,22 @@
         <v>19</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K45" s="1">
         <v>110</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M45" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2570,22 +2720,22 @@
         <v>24</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K46" s="1">
         <v>60</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M46" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2605,22 +2755,22 @@
         <v>24</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K47" s="1">
         <v>70</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M47" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2640,22 +2790,22 @@
         <v>26</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K48" s="1">
         <v>147</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M48" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2675,22 +2825,22 @@
         <v>26</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K49" s="1">
         <v>90</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M49" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2721,11 +2871,11 @@
       <c r="K50" s="1">
         <v>100</v>
       </c>
-      <c r="L50" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50" t="s">
-        <v>159</v>
+      <c r="L50" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2745,7 +2895,7 @@
         <v>19</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
@@ -2757,7 +2907,7 @@
         <v>156</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2777,19 +2927,19 @@
         <v>24</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K52" s="1">
         <v>80</v>
       </c>
       <c r="L52" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2809,19 +2959,19 @@
         <v>24</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K53" s="1">
         <v>75</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2841,19 +2991,19 @@
         <v>26</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K54" s="1">
         <v>121</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2873,19 +3023,19 @@
         <v>26</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K55" s="1">
         <v>131</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2905,19 +3055,19 @@
         <v>19</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K56" s="1">
         <v>98</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2937,19 +3087,19 @@
         <v>19</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K57" s="1">
         <v>132</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -2972,15 +3122,17 @@
         <v>25</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K58" s="1">
         <v>149</v>
       </c>
-      <c r="L58" s="5"/>
+      <c r="L58" s="5" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -3002,15 +3154,20 @@
         <v>25</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K59" s="1">
         <v>89</v>
       </c>
-      <c r="L59" s="4"/>
+      <c r="L59" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -3029,18 +3186,20 @@
         <v>26</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K60" s="1">
         <v>69</v>
       </c>
-      <c r="L60" s="5"/>
+      <c r="L60" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
@@ -3059,18 +3218,20 @@
         <v>26</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="K61" s="1">
         <v>50</v>
       </c>
-      <c r="L61" s="4"/>
+      <c r="L61" s="4" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -3089,18 +3250,20 @@
         <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K62" s="1">
         <v>134</v>
       </c>
-      <c r="L62" s="5"/>
+      <c r="L62" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
@@ -3119,18 +3282,20 @@
         <v>19</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K63" s="1">
         <v>78</v>
       </c>
-      <c r="L63" s="4"/>
+      <c r="L63" s="4" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -3149,18 +3314,20 @@
         <v>24</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K64" s="1">
         <v>145</v>
       </c>
-      <c r="L64" s="5"/>
+      <c r="L64" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
@@ -3179,18 +3346,20 @@
         <v>24</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K65" s="1">
         <v>82</v>
       </c>
-      <c r="L65" s="4"/>
+      <c r="L65" s="4" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -3209,18 +3378,20 @@
         <v>26</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K66" s="1">
         <v>175</v>
       </c>
-      <c r="L66" s="5"/>
+      <c r="L66" s="5" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
@@ -3239,18 +3410,20 @@
         <v>26</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K67" s="1">
         <v>91</v>
       </c>
-      <c r="L67" s="4"/>
+      <c r="L67" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -3269,18 +3442,20 @@
         <v>19</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K68" s="1">
         <v>150</v>
       </c>
-      <c r="L68" s="5"/>
+      <c r="L68" s="5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
@@ -3299,18 +3474,20 @@
         <v>19</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K69" s="1">
         <v>110</v>
       </c>
-      <c r="L69" s="4"/>
+      <c r="L69" s="4" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -3329,18 +3506,20 @@
         <v>24</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K70" s="1">
         <v>60</v>
       </c>
-      <c r="L70" s="5"/>
+      <c r="L70" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
@@ -3359,18 +3538,20 @@
         <v>24</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K71" s="1">
         <v>70</v>
       </c>
-      <c r="L71" s="4"/>
+      <c r="L71" s="4" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -3389,18 +3570,20 @@
         <v>26</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K72" s="1">
         <v>147</v>
       </c>
-      <c r="L72" s="5"/>
+      <c r="L72" s="5" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
@@ -3419,18 +3602,20 @@
         <v>26</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K73" s="1">
         <v>90</v>
       </c>
-      <c r="L73" s="4"/>
+      <c r="L73" s="4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -3461,7 +3646,7 @@
         <v>100</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3481,7 +3666,7 @@
         <v>19</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G75" t="s">
         <v>20</v>
@@ -3492,7 +3677,9 @@
       <c r="K75" s="1">
         <v>156</v>
       </c>
-      <c r="L75" s="4"/>
+      <c r="L75" s="4" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -3511,18 +3698,20 @@
         <v>24</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K76" s="1">
         <v>80</v>
       </c>
-      <c r="L76" s="5"/>
+      <c r="L76" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
@@ -3541,18 +3730,20 @@
         <v>24</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K77" s="1">
         <v>75</v>
       </c>
-      <c r="L77" s="4"/>
+      <c r="L77" s="4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
@@ -3571,18 +3762,20 @@
         <v>26</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K78" s="1">
         <v>121</v>
       </c>
-      <c r="L78" s="5"/>
+      <c r="L78" s="5" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
@@ -3601,18 +3794,20 @@
         <v>26</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K79" s="1">
         <v>131</v>
       </c>
-      <c r="L79" s="4"/>
+      <c r="L79" s="4" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
@@ -3631,20 +3826,22 @@
         <v>19</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K80" s="1">
         <v>98</v>
       </c>
-      <c r="L80" s="5"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L80" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -3661,20 +3858,22 @@
         <v>19</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K81" s="1">
         <v>132</v>
       </c>
-      <c r="L81" s="4"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L81" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -3694,17 +3893,19 @@
         <v>25</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K82" s="1">
         <v>149</v>
       </c>
-      <c r="L82" s="5"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L82" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -3724,17 +3925,22 @@
         <v>25</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K83" s="1">
         <v>89</v>
       </c>
-      <c r="L83" s="4"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L83" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M83" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -3751,20 +3957,22 @@
         <v>26</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1">
         <v>69</v>
       </c>
-      <c r="L84" s="5"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L84" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -3781,20 +3989,22 @@
         <v>26</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1">
         <v>50</v>
       </c>
-      <c r="L85" s="4"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L85" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -3811,20 +4021,22 @@
         <v>19</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K86" s="1">
         <v>134</v>
       </c>
-      <c r="L86" s="5"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L86" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -3841,20 +4053,22 @@
         <v>19</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K87" s="1">
         <v>78</v>
       </c>
-      <c r="L87" s="4"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L87" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -3871,20 +4085,22 @@
         <v>24</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K88" s="1">
         <v>145</v>
       </c>
-      <c r="L88" s="5"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L88" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -3901,20 +4117,22 @@
         <v>24</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K89" s="1">
         <v>82</v>
       </c>
-      <c r="L89" s="4"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L89" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -3931,20 +4149,22 @@
         <v>26</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K90" s="1">
         <v>175</v>
       </c>
-      <c r="L90" s="5"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L90" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -3961,20 +4181,22 @@
         <v>26</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K91" s="1">
         <v>91</v>
       </c>
-      <c r="L91" s="4"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L91" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -3991,20 +4213,22 @@
         <v>19</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K92" s="1">
         <v>150</v>
       </c>
-      <c r="L92" s="5"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L92" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -4021,20 +4245,22 @@
         <v>19</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K93" s="1">
         <v>110</v>
       </c>
-      <c r="L93" s="4"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L93" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -4051,20 +4277,22 @@
         <v>24</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K94" s="1">
         <v>60</v>
       </c>
-      <c r="L94" s="5"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L94" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -4081,20 +4309,22 @@
         <v>24</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K95" s="1">
         <v>70</v>
       </c>
-      <c r="L95" s="4"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L95" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -4111,20 +4341,22 @@
         <v>26</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K96" s="1">
         <v>147</v>
       </c>
-      <c r="L96" s="5"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L96" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -4141,20 +4373,22 @@
         <v>26</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K97" s="1">
         <v>90</v>
       </c>
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L97" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -4182,9 +4416,11 @@
       <c r="K98" s="1">
         <v>100</v>
       </c>
-      <c r="L98" s="5"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L98" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -4201,7 +4437,7 @@
         <v>19</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G99" t="s">
         <v>20</v>
@@ -4212,9 +4448,11 @@
       <c r="K99" s="1">
         <v>156</v>
       </c>
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L99" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -4231,22 +4469,22 @@
         <v>24</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K100" s="1">
         <v>80</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -4263,20 +4501,20 @@
         <v>24</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K101" s="1">
         <v>75</v>
       </c>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -4293,20 +4531,20 @@
         <v>26</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K102" s="1">
         <v>121</v>
       </c>
       <c r="L102" s="5"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -4323,20 +4561,20 @@
         <v>26</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K103" s="1">
         <v>131</v>
       </c>
       <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -4353,20 +4591,25 @@
         <v>19</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K104" s="1">
         <v>98</v>
       </c>
-      <c r="L104" s="5"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L104" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M104" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -4383,20 +4626,20 @@
         <v>19</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K105" s="1">
         <v>132</v>
       </c>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -4416,17 +4659,22 @@
         <v>25</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K106" s="1">
         <v>149</v>
       </c>
-      <c r="L106" s="5"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L106" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M106" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -4446,17 +4694,17 @@
         <v>25</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K107" s="1">
         <v>89</v>
       </c>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -4473,20 +4721,25 @@
         <v>26</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K108" s="1">
         <v>69</v>
       </c>
-      <c r="L108" s="5"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L108" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M108" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -4503,20 +4756,22 @@
         <v>26</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K109" s="1">
         <v>50</v>
       </c>
-      <c r="L109" s="4"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L109" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -4533,20 +4788,20 @@
         <v>19</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K110" s="1">
         <v>134</v>
       </c>
       <c r="L110" s="5"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -4563,20 +4818,20 @@
         <v>19</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K111" s="1">
         <v>78</v>
       </c>
       <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -4593,20 +4848,20 @@
         <v>24</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K112" s="1">
         <v>145</v>
       </c>
       <c r="L112" s="5"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>111</v>
       </c>
@@ -4623,20 +4878,20 @@
         <v>24</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K113" s="1">
         <v>82</v>
       </c>
       <c r="L113" s="4"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -4653,20 +4908,25 @@
         <v>26</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K114" s="1">
         <v>175</v>
       </c>
-      <c r="L114" s="5"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L114" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M114" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>113</v>
       </c>
@@ -4683,20 +4943,22 @@
         <v>26</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K115" s="1">
         <v>91</v>
       </c>
-      <c r="L115" s="4"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L115" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -4713,20 +4975,20 @@
         <v>19</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K116" s="1">
         <v>150</v>
       </c>
       <c r="L116" s="5"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>115</v>
       </c>
@@ -4743,20 +5005,20 @@
         <v>19</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K117" s="1">
         <v>110</v>
       </c>
       <c r="L117" s="4"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -4773,20 +5035,20 @@
         <v>24</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K118" s="1">
         <v>60</v>
       </c>
       <c r="L118" s="5"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>117</v>
       </c>
@@ -4803,20 +5065,20 @@
         <v>24</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K119" s="1">
         <v>70</v>
       </c>
       <c r="L119" s="4"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -4833,20 +5095,20 @@
         <v>26</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K120" s="1">
         <v>147</v>
       </c>
       <c r="L120" s="5"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>119</v>
       </c>
@@ -4863,20 +5125,20 @@
         <v>26</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K121" s="1">
         <v>90</v>
       </c>
       <c r="L121" s="4"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -4906,7 +5168,7 @@
       </c>
       <c r="L122" s="5"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>121</v>
       </c>
@@ -4923,7 +5185,7 @@
         <v>19</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G123" t="s">
         <v>20</v>
@@ -4936,7 +5198,7 @@
       </c>
       <c r="L123" s="4"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -4953,20 +5215,20 @@
         <v>24</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K124" s="1">
         <v>80</v>
       </c>
       <c r="L124" s="5"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>123</v>
       </c>
@@ -4983,20 +5245,20 @@
         <v>24</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K125" s="1">
         <v>75</v>
       </c>
       <c r="L125" s="4"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -5013,20 +5275,20 @@
         <v>26</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K126" s="1">
         <v>121</v>
       </c>
       <c r="L126" s="5"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>125</v>
       </c>
@@ -5043,20 +5305,20 @@
         <v>26</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K127" s="1">
         <v>131</v>
       </c>
       <c r="L127" s="4"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -5073,20 +5335,20 @@
         <v>19</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K128" s="1">
         <v>98</v>
       </c>
       <c r="L128" s="5"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>127</v>
       </c>
@@ -5103,20 +5365,20 @@
         <v>19</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K129" s="1">
         <v>132</v>
       </c>
       <c r="L129" s="4"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -5136,17 +5398,17 @@
         <v>25</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K130" s="1">
         <v>149</v>
       </c>
       <c r="L130" s="5"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>129</v>
       </c>
@@ -5166,17 +5428,17 @@
         <v>25</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K131" s="1">
         <v>89</v>
       </c>
       <c r="L131" s="4"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -5193,20 +5455,25 @@
         <v>26</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K132" s="1">
         <v>69</v>
       </c>
-      <c r="L132" s="5"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L132" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M132" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>131</v>
       </c>
@@ -5223,20 +5490,20 @@
         <v>26</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K133" s="1">
         <v>50</v>
       </c>
       <c r="L133" s="4"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -5253,20 +5520,20 @@
         <v>19</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K134" s="1">
         <v>134</v>
       </c>
       <c r="L134" s="5"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>133</v>
       </c>
@@ -5283,20 +5550,20 @@
         <v>19</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K135" s="1">
         <v>78</v>
       </c>
       <c r="L135" s="4"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -5313,20 +5580,20 @@
         <v>24</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K136" s="1">
         <v>145</v>
       </c>
       <c r="L136" s="5"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>135</v>
       </c>
@@ -5343,20 +5610,20 @@
         <v>24</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K137" s="1">
         <v>82</v>
       </c>
       <c r="L137" s="4"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -5373,20 +5640,25 @@
         <v>26</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K138" s="1">
         <v>175</v>
       </c>
-      <c r="L138" s="5"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L138" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M138" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>137</v>
       </c>
@@ -5403,20 +5675,20 @@
         <v>26</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K139" s="1">
         <v>91</v>
       </c>
       <c r="L139" s="4"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -5433,20 +5705,20 @@
         <v>19</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K140" s="1">
         <v>150</v>
       </c>
       <c r="L140" s="5"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>139</v>
       </c>
@@ -5463,20 +5735,20 @@
         <v>19</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K141" s="1">
         <v>110</v>
       </c>
       <c r="L141" s="4"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>140</v>
       </c>
@@ -5493,20 +5765,20 @@
         <v>24</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K142" s="1">
         <v>60</v>
       </c>
       <c r="L142" s="5"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>141</v>
       </c>
@@ -5523,20 +5795,20 @@
         <v>24</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K143" s="1">
         <v>70</v>
       </c>
       <c r="L143" s="4"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>142</v>
       </c>
@@ -5553,20 +5825,20 @@
         <v>26</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K144" s="1">
         <v>147</v>
       </c>
       <c r="L144" s="5"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>143</v>
       </c>
@@ -5583,20 +5855,20 @@
         <v>26</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K145" s="1">
         <v>90</v>
       </c>
       <c r="L145" s="4"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -5626,7 +5898,7 @@
       </c>
       <c r="L146" s="5"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>145</v>
       </c>
@@ -5643,7 +5915,7 @@
         <v>19</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G147" t="s">
         <v>20</v>
@@ -5656,7 +5928,7 @@
       </c>
       <c r="L147" s="4"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -5673,20 +5945,20 @@
         <v>24</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K148" s="1">
         <v>80</v>
       </c>
       <c r="L148" s="5"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>147</v>
       </c>
@@ -5703,20 +5975,20 @@
         <v>24</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K149" s="1">
         <v>75</v>
       </c>
       <c r="L149" s="4"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>148</v>
       </c>
@@ -5733,20 +6005,20 @@
         <v>26</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K150" s="1">
         <v>121</v>
       </c>
       <c r="L150" s="5"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>149</v>
       </c>
@@ -5763,20 +6035,20 @@
         <v>26</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K151" s="1">
         <v>131</v>
       </c>
       <c r="L151" s="4"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -5793,20 +6065,20 @@
         <v>19</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K152" s="1">
         <v>98</v>
       </c>
       <c r="L152" s="5"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>151</v>
       </c>
@@ -5823,20 +6095,25 @@
         <v>19</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K153" s="1">
         <v>132</v>
       </c>
-      <c r="L153" s="4"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L153" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M153" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>152</v>
       </c>
@@ -5856,17 +6133,17 @@
         <v>25</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K154" s="1">
         <v>149</v>
       </c>
       <c r="L154" s="5"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>153</v>
       </c>
@@ -5886,17 +6163,17 @@
         <v>25</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K155" s="1">
         <v>89</v>
       </c>
       <c r="L155" s="4"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>154</v>
       </c>
@@ -5913,20 +6190,20 @@
         <v>26</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K156" s="1">
         <v>69</v>
       </c>
       <c r="L156" s="5"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -5943,20 +6220,20 @@
         <v>26</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K157" s="1">
         <v>50</v>
       </c>
       <c r="L157" s="4"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>156</v>
       </c>
@@ -5973,20 +6250,20 @@
         <v>19</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K158" s="1">
         <v>134</v>
       </c>
       <c r="L158" s="5"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -6003,20 +6280,20 @@
         <v>19</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K159" s="1">
         <v>78</v>
       </c>
       <c r="L159" s="4"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>158</v>
       </c>
@@ -6033,20 +6310,20 @@
         <v>24</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K160" s="1">
         <v>145</v>
       </c>
       <c r="L160" s="5"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>159</v>
       </c>
@@ -6063,20 +6340,20 @@
         <v>24</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K161" s="1">
         <v>82</v>
       </c>
       <c r="L161" s="4"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -6093,20 +6370,20 @@
         <v>26</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G162" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K162" s="1">
         <v>175</v>
       </c>
       <c r="L162" s="5"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>161</v>
       </c>
@@ -6123,20 +6400,20 @@
         <v>26</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G163" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K163" s="1">
         <v>91</v>
       </c>
       <c r="L163" s="4"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -6153,20 +6430,20 @@
         <v>19</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K164" s="1">
         <v>150</v>
       </c>
       <c r="L164" s="5"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>163</v>
       </c>
@@ -6183,20 +6460,20 @@
         <v>19</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K165" s="1">
         <v>110</v>
       </c>
       <c r="L165" s="4"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>164</v>
       </c>
@@ -6213,20 +6490,20 @@
         <v>24</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K166" s="1">
         <v>60</v>
       </c>
       <c r="L166" s="5"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>165</v>
       </c>
@@ -6243,20 +6520,20 @@
         <v>24</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K167" s="1">
         <v>70</v>
       </c>
       <c r="L167" s="4"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>166</v>
       </c>
@@ -6273,20 +6550,20 @@
         <v>26</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K168" s="1">
         <v>147</v>
       </c>
       <c r="L168" s="5"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>167</v>
       </c>
@@ -6303,20 +6580,20 @@
         <v>26</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K169" s="1">
         <v>90</v>
       </c>
       <c r="L169" s="4"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>168</v>
       </c>
@@ -6344,9 +6621,14 @@
       <c r="K170" s="1">
         <v>100</v>
       </c>
-      <c r="L170" s="5"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L170" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M170" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>169</v>
       </c>
@@ -6363,7 +6645,7 @@
         <v>19</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G171" t="s">
         <v>20</v>
@@ -6376,7 +6658,7 @@
       </c>
       <c r="L171" s="4"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>170</v>
       </c>
@@ -6393,20 +6675,20 @@
         <v>24</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K172" s="1">
         <v>80</v>
       </c>
       <c r="L172" s="5"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>171</v>
       </c>
@@ -6423,20 +6705,20 @@
         <v>24</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K173" s="1">
         <v>75</v>
       </c>
       <c r="L173" s="4"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>172</v>
       </c>
@@ -6453,20 +6735,20 @@
         <v>26</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K174" s="1">
         <v>121</v>
       </c>
       <c r="L174" s="5"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>173</v>
       </c>
@@ -6483,20 +6765,20 @@
         <v>26</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K175" s="1">
         <v>131</v>
       </c>
       <c r="L175" s="4"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -6513,20 +6795,20 @@
         <v>19</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K176" s="1">
         <v>98</v>
       </c>
       <c r="L176" s="5"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>175</v>
       </c>
@@ -6543,20 +6825,20 @@
         <v>19</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K177" s="1">
         <v>132</v>
       </c>
       <c r="L177" s="4"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>176</v>
       </c>
@@ -6576,17 +6858,17 @@
         <v>25</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K178" s="1">
         <v>149</v>
       </c>
       <c r="L178" s="5"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>177</v>
       </c>
@@ -6606,17 +6888,17 @@
         <v>25</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K179" s="1">
         <v>89</v>
       </c>
       <c r="L179" s="4"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>178</v>
       </c>
@@ -6633,20 +6915,25 @@
         <v>26</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K180" s="1">
         <v>69</v>
       </c>
-      <c r="L180" s="5"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L180" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M180" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>179</v>
       </c>
@@ -6663,20 +6950,20 @@
         <v>26</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K181" s="1">
         <v>50</v>
       </c>
       <c r="L181" s="4"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>180</v>
       </c>
@@ -6693,20 +6980,20 @@
         <v>19</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K182" s="1">
         <v>134</v>
       </c>
       <c r="L182" s="5"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>181</v>
       </c>
@@ -6723,20 +7010,20 @@
         <v>19</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K183" s="1">
         <v>78</v>
       </c>
       <c r="L183" s="4"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>182</v>
       </c>
@@ -6753,20 +7040,20 @@
         <v>24</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K184" s="1">
         <v>145</v>
       </c>
       <c r="L184" s="5"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>183</v>
       </c>
@@ -6783,20 +7070,20 @@
         <v>24</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K185" s="1">
         <v>82</v>
       </c>
       <c r="L185" s="4"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>184</v>
       </c>
@@ -6813,20 +7100,20 @@
         <v>26</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G186" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K186" s="1">
         <v>175</v>
       </c>
       <c r="L186" s="5"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>185</v>
       </c>
@@ -6843,20 +7130,20 @@
         <v>26</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G187" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K187" s="1">
         <v>91</v>
       </c>
       <c r="L187" s="4"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>186</v>
       </c>
@@ -6873,20 +7160,20 @@
         <v>19</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K188" s="1">
         <v>150</v>
       </c>
       <c r="L188" s="5"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>187</v>
       </c>
@@ -6903,20 +7190,20 @@
         <v>19</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K189" s="1">
         <v>110</v>
       </c>
       <c r="L189" s="4"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>188</v>
       </c>
@@ -6933,20 +7220,20 @@
         <v>24</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K190" s="1">
         <v>60</v>
       </c>
       <c r="L190" s="5"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>189</v>
       </c>
@@ -6963,20 +7250,20 @@
         <v>24</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K191" s="1">
         <v>70</v>
       </c>
       <c r="L191" s="4"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>190</v>
       </c>
@@ -6993,13 +7280,13 @@
         <v>26</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K192" s="1">
         <v>147</v>
@@ -7023,13 +7310,13 @@
         <v>26</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K193" s="1">
         <v>90</v>

--- a/Source/Narrative/Media Posts.xlsx
+++ b/Source/Narrative/Media Posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8FC554-463F-43B9-A042-730D0094B6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F386EC-6F15-44FE-AD4A-A239948CFC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="271">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -111,9 +111,6 @@
     <t>CrappyHealthCare</t>
   </si>
   <si>
-    <t>Surgeons Walk Out</t>
-  </si>
-  <si>
     <t>SeeEnEn</t>
   </si>
   <si>
@@ -690,9 +687,6 @@
     <t>Lead Epidemic Researcher Lost in Plane Crash</t>
   </si>
   <si>
-    <t>Radical Radio Station Goes Live to Radios Across the Country Playing Music</t>
-  </si>
-  <si>
     <t>Police Confiscate Electronics from Privately Owned Businesses</t>
   </si>
   <si>
@@ -709,6 +703,141 @@
   </si>
   <si>
     <t>Chairwoman Finds New Love With the President of New Donza</t>
+  </si>
+  <si>
+    <t>U.S.A.R. Declares Smile Day a New Holiday!</t>
+  </si>
+  <si>
+    <t>Governments Attempts to Establish Country Owned Paper Mill Fails</t>
+  </si>
+  <si>
+    <t>U.S.A.R. Releases Official Ban List for Internet Use! More Restrictions!!!</t>
+  </si>
+  <si>
+    <t>Chairmen Missuses Modern Slang During Public Speech</t>
+  </si>
+  <si>
+    <t>Towns Open Shelters for Victims of Riots</t>
+  </si>
+  <si>
+    <t>Refugees From City Centers Plea for Their Lives During Riots</t>
+  </si>
+  <si>
+    <t>Health Officials Release Information On Evolving Cure</t>
+  </si>
+  <si>
+    <t>New Hit Single Cheers Up the Country!</t>
+  </si>
+  <si>
+    <t>Beloved Singer Taken Ill By The Pandemic</t>
+  </si>
+  <si>
+    <t>Doctors Too Busy To Spend Time With Family In Light Of Current Crisis</t>
+  </si>
+  <si>
+    <t>Radical Radio Station Goes Live to Radios Across The Country To Play Music</t>
+  </si>
+  <si>
+    <t>Protestors Perform Dance Routine In Front of Government Buildings</t>
+  </si>
+  <si>
+    <t>Graffiti Artist Imprisoned After Completing Building Sized Piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long Lived Graffiti Sight In Abandoned Factory Demolished </t>
+  </si>
+  <si>
+    <t>Police Man Tazes, Sprays and Beats Young Graffiti Artist!!!</t>
+  </si>
+  <si>
+    <t>Police Unable to Corral Protestors Without Violence!?!</t>
+  </si>
+  <si>
+    <t>Chairmen Reveals Plans for New System to Help Find People Jobs!!!</t>
+  </si>
+  <si>
+    <t>U.S.A.R. Funded Solar Power Plant Now Open! Carbon Emissions Down!</t>
+  </si>
+  <si>
+    <t>New Representative Breaks Down During Speech. Crowd Supports Her!</t>
+  </si>
+  <si>
+    <t>Continued Attempts to Gain Financial Support From Countries Failed</t>
+  </si>
+  <si>
+    <t>Government Defeated By Paper? Attempts Still Look Bleak</t>
+  </si>
+  <si>
+    <t>New Donza Ambassador Slanders the U.S.A.R. During Visit!?!</t>
+  </si>
+  <si>
+    <t>Tourists Openly Insults U.S.A.R. Chairmen During Speech. Crowd Outraged</t>
+  </si>
+  <si>
+    <t>Civil War Bands Formed! Celebrate First Victory In Southern Towns!</t>
+  </si>
+  <si>
+    <t>Dealers Open Up To Supply the War Effort! Cheap Weapons From Nowhere</t>
+  </si>
+  <si>
+    <t>First Blood Spilled! Reporting U.S.A.R. Journalist Murdered In Riot</t>
+  </si>
+  <si>
+    <t>Preaching for Peace Met With Failure and Molotovs</t>
+  </si>
+  <si>
+    <t>People Drive For Change In Streets. Sleeping Civilians Scared for Their Safety</t>
+  </si>
+  <si>
+    <t>Official Medical Remedy Said to Cure Disease Now Released!</t>
+  </si>
+  <si>
+    <t>Medical Vaccination Test On Government Representative Worked!</t>
+  </si>
+  <si>
+    <t>Death's Climbing In View of The Pandemic</t>
+  </si>
+  <si>
+    <t>Children and Elderly Proven to Be More Vulnerable to the Disease</t>
+  </si>
+  <si>
+    <t>Surgeons Walk Out!!!</t>
+  </si>
+  <si>
+    <t>Wealthy Citizens Offered Better Treatment!?!</t>
+  </si>
+  <si>
+    <t>Artistic Expression of Independence and Reform Incentivized</t>
+  </si>
+  <si>
+    <t>"Happy Charlie" Broadcasts to the Whole Country Again! People Smile</t>
+  </si>
+  <si>
+    <t>Police Refuse to Listen to "Brain Washing Broadcasts". Just Some Good Tunes</t>
+  </si>
+  <si>
+    <t>Protestors Long Awaited Art Piece Destroyed in House Fire</t>
+  </si>
+  <si>
+    <t>Police Ordered to Destroy All Privately Owned Radios. House Raids Begin!!!</t>
+  </si>
+  <si>
+    <t>War on "Charlie" Declared. U.S.A.R. Speech Against New Protetors Movement</t>
+  </si>
+  <si>
+    <t>Voice of Broadcast Now Named "Happy Charlie". People Wait to Listen Again</t>
+  </si>
+  <si>
+    <t>Employment Rate Sky Rockets Due to New Government Plan!!!</t>
+  </si>
+  <si>
+    <t>Chairmen Tells Bad Joke</t>
+  </si>
+  <si>
+    <t>Beloved Dog of Chairwoman Passes Away in the Night</t>
+  </si>
+  <si>
+    <t>Governments Repeated Attempts for Financial Trade Met with Harsh Rejection</t>
   </si>
 </sst>
 </file>
@@ -1120,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L100" sqref="L100"/>
+    <sheetView tabSelected="1" topLeftCell="C107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L150" sqref="L150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>16</v>
@@ -1214,6 +1343,9 @@
       </c>
       <c r="K2" s="1">
         <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1221,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>16</v>
@@ -1233,7 +1365,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>20</v>
@@ -1251,10 +1383,10 @@
         <v>156</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1274,13 +1406,13 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -1292,10 +1424,10 @@
         <v>80</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1315,22 +1447,22 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="K5" s="1">
         <v>75</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1338,7 +1470,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>16</v>
@@ -1350,22 +1482,22 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K6" s="1">
         <v>121</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1373,7 +1505,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>16</v>
@@ -1385,19 +1517,19 @@
         <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K7" s="1">
         <v>131</v>
       </c>
       <c r="L7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1405,7 +1537,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
@@ -1417,19 +1549,19 @@
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="K8" s="1">
         <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1437,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>17</v>
@@ -1449,19 +1581,19 @@
         <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="K9" s="1">
         <v>132</v>
       </c>
       <c r="L9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1469,7 +1601,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>17</v>
@@ -1484,16 +1616,16 @@
         <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="K10" s="1">
         <v>149</v>
       </c>
       <c r="L10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1501,7 +1633,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>17</v>
@@ -1516,16 +1648,16 @@
         <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="K11" s="1">
         <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1533,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>17</v>
@@ -1545,19 +1677,19 @@
         <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="K12" s="1">
         <v>69</v>
       </c>
       <c r="L12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1565,7 +1697,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>17</v>
@@ -1577,19 +1709,19 @@
         <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="K13" s="1">
         <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1597,7 +1729,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>18</v>
@@ -1609,22 +1741,22 @@
         <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K14" s="1">
         <v>134</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1632,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>18</v>
@@ -1644,22 +1776,22 @@
         <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K15" s="1">
         <v>78</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1679,19 +1811,19 @@
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K16" s="1">
         <v>145</v>
       </c>
       <c r="L16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1699,7 +1831,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>18</v>
@@ -1711,22 +1843,22 @@
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K17" s="1">
         <v>82</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1734,7 +1866,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>18</v>
@@ -1746,19 +1878,19 @@
         <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K18" s="1">
         <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1778,19 +1910,19 @@
         <v>26</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K19" s="1">
         <v>91</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1801,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -1810,22 +1942,22 @@
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="K20" s="1">
         <v>150</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1833,10 +1965,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
@@ -1845,22 +1977,22 @@
         <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="K21" s="1">
         <v>110</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1871,7 +2003,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -1880,22 +2012,22 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K22" s="1">
         <v>60</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1903,10 +2035,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -1915,22 +2047,22 @@
         <v>24</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K23" s="1">
         <v>70</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1941,7 +2073,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -1950,22 +2082,22 @@
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K24" s="1">
         <v>147</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1973,10 +2105,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -1985,22 +2117,22 @@
         <v>26</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K25" s="1">
         <v>90</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2008,7 +2140,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>16</v>
@@ -2032,10 +2164,10 @@
         <v>100</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2055,7 +2187,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
         <v>20</v>
@@ -2067,10 +2199,10 @@
         <v>156</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2090,22 +2222,22 @@
         <v>24</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="K28" s="1">
         <v>80</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2125,22 +2257,22 @@
         <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="K29" s="1">
         <v>75</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2160,22 +2292,22 @@
         <v>26</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K30" s="1">
         <v>121</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2183,7 +2315,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>16</v>
@@ -2195,22 +2327,22 @@
         <v>26</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K31" s="1">
         <v>131</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2218,7 +2350,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>17</v>
@@ -2230,22 +2362,22 @@
         <v>19</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="K32" s="1">
         <v>98</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2253,7 +2385,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>17</v>
@@ -2265,22 +2397,22 @@
         <v>19</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="K33" s="1">
         <v>132</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2288,7 +2420,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>17</v>
@@ -2303,19 +2435,19 @@
         <v>25</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="K34" s="1">
         <v>149</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2323,7 +2455,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>17</v>
@@ -2338,19 +2470,19 @@
         <v>25</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="K35" s="1">
         <v>89</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2358,7 +2490,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>17</v>
@@ -2370,22 +2502,22 @@
         <v>26</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="K36" s="1">
         <v>69</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2405,22 +2537,22 @@
         <v>26</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="K37" s="1">
         <v>50</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2428,7 +2560,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>18</v>
@@ -2440,22 +2572,22 @@
         <v>19</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K38" s="1">
         <v>134</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2475,22 +2607,22 @@
         <v>19</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="H39" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K39" s="1">
         <v>78</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2498,7 +2630,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>18</v>
@@ -2510,22 +2642,22 @@
         <v>24</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K40" s="1">
         <v>145</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2545,22 +2677,22 @@
         <v>24</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K41" s="1">
         <v>82</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2568,7 +2700,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>18</v>
@@ -2580,22 +2712,22 @@
         <v>26</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K42" s="1">
         <v>175</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2603,7 +2735,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>18</v>
@@ -2615,22 +2747,22 @@
         <v>26</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K43" s="1">
         <v>91</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2641,7 +2773,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="7">
         <v>2</v>
@@ -2650,22 +2782,22 @@
         <v>19</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="H44" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="K44" s="1">
         <v>150</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2676,7 +2808,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="7">
         <v>2</v>
@@ -2685,22 +2817,22 @@
         <v>19</v>
       </c>
       <c r="F45" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="K45" s="1">
         <v>110</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2708,10 +2840,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
@@ -2720,22 +2852,22 @@
         <v>24</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="H46" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K46" s="1">
         <v>60</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2746,7 +2878,7 @@
         <v>15</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="7">
         <v>2</v>
@@ -2755,22 +2887,22 @@
         <v>24</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="H47" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K47" s="1">
         <v>70</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2778,10 +2910,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D48" s="7">
         <v>2</v>
@@ -2790,22 +2922,22 @@
         <v>26</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="H48" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K48" s="1">
         <v>147</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2813,10 +2945,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="7">
         <v>2</v>
@@ -2825,22 +2957,22 @@
         <v>26</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="H49" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K49" s="1">
         <v>90</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2848,7 +2980,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>16</v>
@@ -2872,10 +3004,10 @@
         <v>100</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2883,7 +3015,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>16</v>
@@ -2895,7 +3027,7 @@
         <v>19</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
@@ -2907,7 +3039,7 @@
         <v>156</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2927,19 +3059,19 @@
         <v>24</v>
       </c>
       <c r="F52" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="K52" s="1">
         <v>80</v>
       </c>
       <c r="L52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2947,7 +3079,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>16</v>
@@ -2959,19 +3091,19 @@
         <v>24</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="K53" s="1">
         <v>75</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2991,19 +3123,19 @@
         <v>26</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K54" s="1">
         <v>121</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3011,7 +3143,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>16</v>
@@ -3023,19 +3155,19 @@
         <v>26</v>
       </c>
       <c r="F55" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K55" s="1">
         <v>131</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3043,7 +3175,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>17</v>
@@ -3055,19 +3187,19 @@
         <v>19</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="H56" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="K56" s="1">
         <v>98</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3075,7 +3207,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>17</v>
@@ -3087,19 +3219,19 @@
         <v>19</v>
       </c>
       <c r="F57" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="H57" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="K57" s="1">
         <v>132</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3107,7 +3239,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>17</v>
@@ -3122,16 +3254,16 @@
         <v>25</v>
       </c>
       <c r="G58" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="K58" s="1">
         <v>149</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3154,19 +3286,19 @@
         <v>25</v>
       </c>
       <c r="G59" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="K59" s="1">
         <v>89</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3174,7 +3306,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>17</v>
@@ -3186,19 +3318,19 @@
         <v>26</v>
       </c>
       <c r="F60" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="H60" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="K60" s="1">
         <v>69</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3206,7 +3338,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>17</v>
@@ -3218,19 +3350,19 @@
         <v>26</v>
       </c>
       <c r="F61" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="H61" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="K61" s="1">
         <v>50</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3238,7 +3370,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>18</v>
@@ -3250,19 +3382,19 @@
         <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="H62" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K62" s="1">
         <v>134</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3270,7 +3402,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>18</v>
@@ -3282,19 +3414,19 @@
         <v>19</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="H63" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K63" s="1">
         <v>78</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3302,7 +3434,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>18</v>
@@ -3314,19 +3446,19 @@
         <v>24</v>
       </c>
       <c r="F64" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K64" s="1">
         <v>145</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3346,19 +3478,19 @@
         <v>24</v>
       </c>
       <c r="F65" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K65" s="1">
         <v>82</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3366,7 +3498,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>18</v>
@@ -3378,19 +3510,19 @@
         <v>26</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K66" s="1">
         <v>175</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3398,7 +3530,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>18</v>
@@ -3410,19 +3542,19 @@
         <v>26</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K67" s="1">
         <v>91</v>
       </c>
       <c r="L67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3430,10 +3562,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" s="7">
         <v>3</v>
@@ -3442,19 +3574,19 @@
         <v>19</v>
       </c>
       <c r="F68" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="H68" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="K68" s="1">
         <v>150</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3462,10 +3594,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D69" s="7">
         <v>3</v>
@@ -3474,19 +3606,19 @@
         <v>19</v>
       </c>
       <c r="F69" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="H69" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="K69" s="1">
         <v>110</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3494,10 +3626,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D70" s="7">
         <v>3</v>
@@ -3506,19 +3638,19 @@
         <v>24</v>
       </c>
       <c r="F70" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="H70" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K70" s="1">
         <v>60</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3529,7 +3661,7 @@
         <v>14</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D71" s="7">
         <v>3</v>
@@ -3538,19 +3670,19 @@
         <v>24</v>
       </c>
       <c r="F71" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="H71" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K71" s="1">
         <v>70</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3558,10 +3690,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D72" s="7">
         <v>3</v>
@@ -3570,19 +3702,19 @@
         <v>26</v>
       </c>
       <c r="F72" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K72" s="1">
         <v>147</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3590,10 +3722,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D73" s="7">
         <v>3</v>
@@ -3602,19 +3734,19 @@
         <v>26</v>
       </c>
       <c r="F73" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="H73" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K73" s="1">
         <v>90</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3646,7 +3778,7 @@
         <v>100</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3654,7 +3786,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>16</v>
@@ -3666,7 +3798,7 @@
         <v>19</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G75" t="s">
         <v>20</v>
@@ -3678,7 +3810,7 @@
         <v>156</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3686,7 +3818,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>16</v>
@@ -3698,19 +3830,19 @@
         <v>24</v>
       </c>
       <c r="F76" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="H76" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="K76" s="1">
         <v>80</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3718,7 +3850,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>16</v>
@@ -3730,19 +3862,19 @@
         <v>24</v>
       </c>
       <c r="F77" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="H77" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="K77" s="1">
         <v>75</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3762,19 +3894,19 @@
         <v>26</v>
       </c>
       <c r="F78" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="H78" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K78" s="1">
         <v>121</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3782,7 +3914,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>16</v>
@@ -3794,19 +3926,19 @@
         <v>26</v>
       </c>
       <c r="F79" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="H79" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K79" s="1">
         <v>131</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3814,7 +3946,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>17</v>
@@ -3826,19 +3958,19 @@
         <v>19</v>
       </c>
       <c r="F80" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="K80" s="1">
         <v>98</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3846,7 +3978,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>17</v>
@@ -3858,19 +3990,19 @@
         <v>19</v>
       </c>
       <c r="F81" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="H81" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="K81" s="1">
         <v>132</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3878,7 +4010,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>17</v>
@@ -3893,16 +4025,16 @@
         <v>25</v>
       </c>
       <c r="G82" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H82" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="K82" s="1">
         <v>149</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3925,19 +4057,19 @@
         <v>25</v>
       </c>
       <c r="G83" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H83" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="K83" s="1">
         <v>89</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M83" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -3945,7 +4077,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>17</v>
@@ -3957,19 +4089,19 @@
         <v>26</v>
       </c>
       <c r="F84" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="H84" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="K84" s="1">
         <v>69</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -3977,7 +4109,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>17</v>
@@ -3989,19 +4121,19 @@
         <v>26</v>
       </c>
       <c r="F85" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="H85" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="K85" s="1">
         <v>50</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4009,7 +4141,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>18</v>
@@ -4021,19 +4153,19 @@
         <v>19</v>
       </c>
       <c r="F86" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="H86" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K86" s="1">
         <v>134</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4053,19 +4185,19 @@
         <v>19</v>
       </c>
       <c r="F87" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="H87" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K87" s="1">
         <v>78</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4085,19 +4217,19 @@
         <v>24</v>
       </c>
       <c r="F88" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="H88" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K88" s="1">
         <v>145</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4117,19 +4249,19 @@
         <v>24</v>
       </c>
       <c r="F89" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="H89" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K89" s="1">
         <v>82</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4137,7 +4269,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>18</v>
@@ -4149,19 +4281,19 @@
         <v>26</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K90" s="1">
         <v>175</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4169,7 +4301,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>18</v>
@@ -4181,19 +4313,19 @@
         <v>26</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K91" s="1">
         <v>91</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4201,10 +4333,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D92" s="7">
         <v>4</v>
@@ -4213,19 +4345,19 @@
         <v>19</v>
       </c>
       <c r="F92" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="H92" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="K92" s="1">
         <v>150</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4233,10 +4365,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D93" s="7">
         <v>4</v>
@@ -4245,19 +4377,19 @@
         <v>19</v>
       </c>
       <c r="F93" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="H93" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="K93" s="1">
         <v>110</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4265,10 +4397,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D94" s="7">
         <v>4</v>
@@ -4277,19 +4409,19 @@
         <v>24</v>
       </c>
       <c r="F94" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G94" s="7" t="s">
+      <c r="H94" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K94" s="1">
         <v>60</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4297,10 +4429,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D95" s="7">
         <v>4</v>
@@ -4309,19 +4441,19 @@
         <v>24</v>
       </c>
       <c r="F95" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="H95" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K95" s="1">
         <v>70</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4332,7 +4464,7 @@
         <v>14</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D96" s="7">
         <v>4</v>
@@ -4341,19 +4473,19 @@
         <v>26</v>
       </c>
       <c r="F96" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="H96" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K96" s="1">
         <v>147</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4361,10 +4493,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D97" s="7">
         <v>4</v>
@@ -4373,19 +4505,19 @@
         <v>26</v>
       </c>
       <c r="F97" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="H97" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K97" s="1">
         <v>90</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4417,7 +4549,7 @@
         <v>100</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4425,7 +4557,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>16</v>
@@ -4437,7 +4569,7 @@
         <v>19</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G99" t="s">
         <v>20</v>
@@ -4449,7 +4581,7 @@
         <v>156</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4457,7 +4589,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>16</v>
@@ -4469,19 +4601,19 @@
         <v>24</v>
       </c>
       <c r="F100" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="H100" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="K100" s="1">
         <v>80</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4489,7 +4621,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>16</v>
@@ -4501,25 +4633,27 @@
         <v>24</v>
       </c>
       <c r="F101" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="H101" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="K101" s="1">
         <v>75</v>
       </c>
-      <c r="L101" s="4"/>
+      <c r="L101" s="4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>16</v>
@@ -4531,18 +4665,20 @@
         <v>26</v>
       </c>
       <c r="F102" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G102" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="H102" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K102" s="1">
         <v>121</v>
       </c>
-      <c r="L102" s="5"/>
+      <c r="L102" s="5" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
@@ -4561,25 +4697,27 @@
         <v>26</v>
       </c>
       <c r="F103" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G103" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G103" s="4" t="s">
+      <c r="H103" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K103" s="1">
         <v>131</v>
       </c>
-      <c r="L103" s="4"/>
+      <c r="L103" s="4" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>102</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>17</v>
@@ -4591,22 +4729,22 @@
         <v>19</v>
       </c>
       <c r="F104" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G104" s="7" t="s">
+      <c r="H104" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="K104" s="1">
         <v>98</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4614,7 +4752,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>17</v>
@@ -4626,18 +4764,20 @@
         <v>19</v>
       </c>
       <c r="F105" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G105" s="7" t="s">
+      <c r="H105" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="K105" s="1">
         <v>132</v>
       </c>
-      <c r="L105" s="4"/>
+      <c r="L105" s="4" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
@@ -4659,19 +4799,19 @@
         <v>25</v>
       </c>
       <c r="G106" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H106" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="K106" s="1">
         <v>149</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4694,22 +4834,24 @@
         <v>25</v>
       </c>
       <c r="G107" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H107" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="K107" s="1">
         <v>89</v>
       </c>
-      <c r="L107" s="4"/>
+      <c r="L107" s="4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>106</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>17</v>
@@ -4721,22 +4863,22 @@
         <v>26</v>
       </c>
       <c r="F108" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G108" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G108" s="7" t="s">
+      <c r="H108" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="K108" s="1">
         <v>69</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M108" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -4756,19 +4898,19 @@
         <v>26</v>
       </c>
       <c r="F109" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="H109" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="K109" s="1">
         <v>50</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -4776,7 +4918,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>18</v>
@@ -4788,18 +4930,20 @@
         <v>19</v>
       </c>
       <c r="F110" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G110" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G110" s="7" t="s">
+      <c r="H110" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K110" s="1">
         <v>134</v>
       </c>
-      <c r="L110" s="5"/>
+      <c r="L110" s="5" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
@@ -4818,25 +4962,27 @@
         <v>19</v>
       </c>
       <c r="F111" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="H111" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K111" s="1">
         <v>78</v>
       </c>
-      <c r="L111" s="4"/>
+      <c r="L111" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>110</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>18</v>
@@ -4848,25 +4994,27 @@
         <v>24</v>
       </c>
       <c r="F112" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G112" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G112" s="7" t="s">
+      <c r="H112" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K112" s="1">
         <v>145</v>
       </c>
-      <c r="L112" s="5"/>
+      <c r="L112" s="5" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>18</v>
@@ -4878,18 +5026,20 @@
         <v>24</v>
       </c>
       <c r="F113" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G113" s="7" t="s">
+      <c r="H113" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K113" s="1">
         <v>82</v>
       </c>
-      <c r="L113" s="4"/>
+      <c r="L113" s="4" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
@@ -4908,22 +5058,22 @@
         <v>26</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K114" s="1">
         <v>175</v>
       </c>
       <c r="L114" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -4943,19 +5093,19 @@
         <v>26</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K115" s="1">
         <v>91</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -4963,10 +5113,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D116" s="7">
         <v>5</v>
@@ -4975,18 +5125,20 @@
         <v>19</v>
       </c>
       <c r="F116" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G116" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G116" s="7" t="s">
+      <c r="H116" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="K116" s="1">
         <v>150</v>
       </c>
-      <c r="L116" s="5"/>
+      <c r="L116" s="5" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
@@ -4996,7 +5148,7 @@
         <v>15</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D117" s="7">
         <v>5</v>
@@ -5005,28 +5157,30 @@
         <v>19</v>
       </c>
       <c r="F117" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G117" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="H117" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="K117" s="1">
         <v>110</v>
       </c>
-      <c r="L117" s="4"/>
+      <c r="L117" s="4" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>116</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D118" s="7">
         <v>5</v>
@@ -5035,28 +5189,30 @@
         <v>24</v>
       </c>
       <c r="F118" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G118" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G118" s="7" t="s">
+      <c r="H118" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K118" s="1">
         <v>60</v>
       </c>
-      <c r="L118" s="5"/>
+      <c r="L118" s="5" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D119" s="7">
         <v>5</v>
@@ -5065,28 +5221,30 @@
         <v>24</v>
       </c>
       <c r="F119" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G119" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="H119" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K119" s="1">
         <v>70</v>
       </c>
-      <c r="L119" s="4"/>
+      <c r="L119" s="4" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>118</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D120" s="7">
         <v>5</v>
@@ -5095,28 +5253,30 @@
         <v>26</v>
       </c>
       <c r="F120" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G120" s="7" t="s">
+      <c r="H120" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K120" s="1">
         <v>147</v>
       </c>
-      <c r="L120" s="5"/>
+      <c r="L120" s="5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D121" s="7">
         <v>5</v>
@@ -5125,25 +5285,27 @@
         <v>26</v>
       </c>
       <c r="F121" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G121" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G121" s="7" t="s">
+      <c r="H121" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K121" s="1">
         <v>90</v>
       </c>
-      <c r="L121" s="4"/>
+      <c r="L121" s="4" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>120</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>16</v>
@@ -5166,14 +5328,16 @@
       <c r="K122" s="1">
         <v>100</v>
       </c>
-      <c r="L122" s="5"/>
+      <c r="L122" s="5" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>16</v>
@@ -5185,7 +5349,7 @@
         <v>19</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G123" t="s">
         <v>20</v>
@@ -5196,14 +5360,16 @@
       <c r="K123" s="1">
         <v>156</v>
       </c>
-      <c r="L123" s="4"/>
+      <c r="L123" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>122</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>16</v>
@@ -5215,25 +5381,27 @@
         <v>24</v>
       </c>
       <c r="F124" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G124" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G124" s="4" t="s">
+      <c r="H124" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="K124" s="1">
         <v>80</v>
       </c>
-      <c r="L124" s="5"/>
+      <c r="L124" s="5" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>16</v>
@@ -5245,18 +5413,20 @@
         <v>24</v>
       </c>
       <c r="F125" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G125" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G125" s="4" t="s">
+      <c r="H125" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="K125" s="1">
         <v>75</v>
       </c>
-      <c r="L125" s="4"/>
+      <c r="L125" s="4" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
@@ -5275,25 +5445,27 @@
         <v>26</v>
       </c>
       <c r="F126" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G126" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G126" s="4" t="s">
+      <c r="H126" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K126" s="1">
         <v>121</v>
       </c>
-      <c r="L126" s="5"/>
+      <c r="L126" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>16</v>
@@ -5305,25 +5477,27 @@
         <v>26</v>
       </c>
       <c r="F127" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G127" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G127" s="4" t="s">
+      <c r="H127" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K127" s="1">
         <v>131</v>
       </c>
-      <c r="L127" s="4"/>
+      <c r="L127" s="4" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>126</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>17</v>
@@ -5335,18 +5509,20 @@
         <v>19</v>
       </c>
       <c r="F128" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G128" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G128" s="7" t="s">
+      <c r="H128" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="K128" s="1">
         <v>98</v>
       </c>
-      <c r="L128" s="5"/>
+      <c r="L128" s="5" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
@@ -5365,25 +5541,27 @@
         <v>19</v>
       </c>
       <c r="F129" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G129" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G129" s="7" t="s">
+      <c r="H129" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="K129" s="1">
         <v>132</v>
       </c>
-      <c r="L129" s="4"/>
+      <c r="L129" s="4" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>128</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>17</v>
@@ -5398,15 +5576,17 @@
         <v>25</v>
       </c>
       <c r="G130" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H130" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="K130" s="1">
         <v>149</v>
       </c>
-      <c r="L130" s="5"/>
+      <c r="L130" s="5" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
@@ -5428,22 +5608,24 @@
         <v>25</v>
       </c>
       <c r="G131" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H131" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="K131" s="1">
         <v>89</v>
       </c>
-      <c r="L131" s="4"/>
+      <c r="L131" s="4" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>130</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>17</v>
@@ -5455,22 +5637,22 @@
         <v>26</v>
       </c>
       <c r="F132" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G132" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G132" s="7" t="s">
+      <c r="H132" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="K132" s="1">
         <v>69</v>
       </c>
       <c r="L132" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M132" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -5478,7 +5660,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>17</v>
@@ -5490,25 +5672,27 @@
         <v>26</v>
       </c>
       <c r="F133" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G133" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G133" s="7" t="s">
+      <c r="H133" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="K133" s="1">
         <v>50</v>
       </c>
-      <c r="L133" s="4"/>
+      <c r="L133" s="5" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>132</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>18</v>
@@ -5520,25 +5704,27 @@
         <v>19</v>
       </c>
       <c r="F134" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G134" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G134" s="7" t="s">
+      <c r="H134" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K134" s="1">
         <v>134</v>
       </c>
-      <c r="L134" s="5"/>
+      <c r="L134" s="5" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>133</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>18</v>
@@ -5550,18 +5736,20 @@
         <v>19</v>
       </c>
       <c r="F135" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G135" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G135" s="7" t="s">
+      <c r="H135" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K135" s="1">
         <v>78</v>
       </c>
-      <c r="L135" s="4"/>
+      <c r="L135" s="4" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
@@ -5580,25 +5768,27 @@
         <v>24</v>
       </c>
       <c r="F136" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G136" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G136" s="7" t="s">
+      <c r="H136" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K136" s="1">
         <v>145</v>
       </c>
-      <c r="L136" s="5"/>
+      <c r="L136" s="5" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>135</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>18</v>
@@ -5610,18 +5800,20 @@
         <v>24</v>
       </c>
       <c r="F137" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G137" s="7" t="s">
+      <c r="H137" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K137" s="1">
         <v>82</v>
       </c>
-      <c r="L137" s="4"/>
+      <c r="L137" s="4" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
@@ -5640,22 +5832,22 @@
         <v>26</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K138" s="1">
         <v>175</v>
       </c>
       <c r="L138" s="9" t="s">
-        <v>28</v>
+        <v>258</v>
       </c>
       <c r="M138" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -5675,18 +5867,20 @@
         <v>26</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K139" s="1">
         <v>91</v>
       </c>
-      <c r="L139" s="4"/>
+      <c r="L139" s="4" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
@@ -5696,7 +5890,7 @@
         <v>13</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D140" s="7">
         <v>6</v>
@@ -5705,18 +5899,20 @@
         <v>19</v>
       </c>
       <c r="F140" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G140" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G140" s="7" t="s">
+      <c r="H140" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H140" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="K140" s="1">
         <v>150</v>
       </c>
-      <c r="L140" s="5"/>
+      <c r="L140" s="5" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
@@ -5726,7 +5922,7 @@
         <v>14</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D141" s="7">
         <v>6</v>
@@ -5735,28 +5931,30 @@
         <v>19</v>
       </c>
       <c r="F141" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G141" s="7" t="s">
+      <c r="H141" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H141" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="K141" s="1">
         <v>110</v>
       </c>
-      <c r="L141" s="4"/>
+      <c r="L141" s="4" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>140</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D142" s="7">
         <v>6</v>
@@ -5765,18 +5963,20 @@
         <v>24</v>
       </c>
       <c r="F142" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G142" s="7" t="s">
+      <c r="H142" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H142" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K142" s="1">
         <v>60</v>
       </c>
-      <c r="L142" s="5"/>
+      <c r="L142" s="5" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
@@ -5786,7 +5986,7 @@
         <v>14</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D143" s="7">
         <v>6</v>
@@ -5795,18 +5995,20 @@
         <v>24</v>
       </c>
       <c r="F143" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G143" s="7" t="s">
+      <c r="H143" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H143" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K143" s="1">
         <v>70</v>
       </c>
-      <c r="L143" s="4"/>
+      <c r="L143" s="4" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
@@ -5816,7 +6018,7 @@
         <v>13</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D144" s="7">
         <v>6</v>
@@ -5825,28 +6027,30 @@
         <v>26</v>
       </c>
       <c r="F144" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G144" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G144" s="7" t="s">
+      <c r="H144" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H144" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K144" s="1">
         <v>147</v>
       </c>
-      <c r="L144" s="5"/>
+      <c r="L144" s="5" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>143</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D145" s="7">
         <v>6</v>
@@ -5855,18 +6059,20 @@
         <v>26</v>
       </c>
       <c r="F145" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G145" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G145" s="7" t="s">
+      <c r="H145" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K145" s="1">
         <v>90</v>
       </c>
-      <c r="L145" s="4"/>
+      <c r="L145" s="4" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -5896,14 +6102,16 @@
       <c r="K146" s="1">
         <v>100</v>
       </c>
-      <c r="L146" s="5"/>
+      <c r="L146" s="4" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>145</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>16</v>
@@ -5915,7 +6123,7 @@
         <v>19</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G147" t="s">
         <v>20</v>
@@ -5926,14 +6134,16 @@
       <c r="K147" s="1">
         <v>156</v>
       </c>
-      <c r="L147" s="4"/>
+      <c r="L147" s="4" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>146</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>16</v>
@@ -5945,25 +6155,27 @@
         <v>24</v>
       </c>
       <c r="F148" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G148" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G148" s="4" t="s">
+      <c r="H148" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H148" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="K148" s="1">
         <v>80</v>
       </c>
-      <c r="L148" s="5"/>
+      <c r="L148" s="5" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>147</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>16</v>
@@ -5975,25 +6187,27 @@
         <v>24</v>
       </c>
       <c r="F149" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G149" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G149" s="4" t="s">
+      <c r="H149" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H149" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="K149" s="1">
         <v>75</v>
       </c>
-      <c r="L149" s="4"/>
+      <c r="L149" s="4" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>148</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>16</v>
@@ -6005,25 +6219,27 @@
         <v>26</v>
       </c>
       <c r="F150" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G150" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G150" s="4" t="s">
+      <c r="H150" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H150" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K150" s="1">
         <v>121</v>
       </c>
-      <c r="L150" s="5"/>
+      <c r="L150" s="5" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>149</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>16</v>
@@ -6035,13 +6251,13 @@
         <v>26</v>
       </c>
       <c r="F151" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G151" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G151" s="4" t="s">
+      <c r="H151" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H151" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K151" s="1">
         <v>131</v>
@@ -6065,13 +6281,13 @@
         <v>19</v>
       </c>
       <c r="F152" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G152" s="7" t="s">
+      <c r="H152" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H152" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="K152" s="1">
         <v>98</v>
@@ -6095,22 +6311,22 @@
         <v>19</v>
       </c>
       <c r="F153" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G153" s="7" t="s">
+      <c r="H153" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="K153" s="1">
         <v>132</v>
       </c>
       <c r="L153" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M153" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -6118,7 +6334,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>17</v>
@@ -6133,10 +6349,10 @@
         <v>25</v>
       </c>
       <c r="G154" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H154" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="K154" s="1">
         <v>149</v>
@@ -6163,10 +6379,10 @@
         <v>25</v>
       </c>
       <c r="G155" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H155" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H155" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="K155" s="1">
         <v>89</v>
@@ -6178,7 +6394,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>17</v>
@@ -6190,13 +6406,13 @@
         <v>26</v>
       </c>
       <c r="F156" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G156" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G156" s="7" t="s">
+      <c r="H156" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H156" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="K156" s="1">
         <v>69</v>
@@ -6208,7 +6424,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>17</v>
@@ -6220,13 +6436,13 @@
         <v>26</v>
       </c>
       <c r="F157" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G157" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G157" s="7" t="s">
+      <c r="H157" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H157" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="K157" s="1">
         <v>50</v>
@@ -6238,7 +6454,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>18</v>
@@ -6250,13 +6466,13 @@
         <v>19</v>
       </c>
       <c r="F158" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="H158" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K158" s="1">
         <v>134</v>
@@ -6280,13 +6496,13 @@
         <v>19</v>
       </c>
       <c r="F159" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G159" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G159" s="7" t="s">
+      <c r="H159" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K159" s="1">
         <v>78</v>
@@ -6298,7 +6514,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>18</v>
@@ -6310,13 +6526,13 @@
         <v>24</v>
       </c>
       <c r="F160" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G160" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G160" s="7" t="s">
+      <c r="H160" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H160" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K160" s="1">
         <v>145</v>
@@ -6328,7 +6544,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>18</v>
@@ -6340,13 +6556,13 @@
         <v>24</v>
       </c>
       <c r="F161" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G161" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G161" s="7" t="s">
+      <c r="H161" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H161" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K161" s="1">
         <v>82</v>
@@ -6370,13 +6586,13 @@
         <v>26</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G162" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K162" s="1">
         <v>175</v>
@@ -6388,7 +6604,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>18</v>
@@ -6400,13 +6616,13 @@
         <v>26</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G163" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K163" s="1">
         <v>91</v>
@@ -6418,10 +6634,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C164" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D164" s="7">
         <v>7</v>
@@ -6430,13 +6646,13 @@
         <v>19</v>
       </c>
       <c r="F164" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G164" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G164" s="7" t="s">
+      <c r="H164" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H164" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="K164" s="1">
         <v>150</v>
@@ -6448,10 +6664,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C165" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D165" s="7">
         <v>7</v>
@@ -6460,13 +6676,13 @@
         <v>19</v>
       </c>
       <c r="F165" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G165" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G165" s="7" t="s">
+      <c r="H165" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="K165" s="1">
         <v>110</v>
@@ -6478,10 +6694,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D166" s="7">
         <v>7</v>
@@ -6490,13 +6706,13 @@
         <v>24</v>
       </c>
       <c r="F166" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G166" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G166" s="7" t="s">
+      <c r="H166" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H166" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K166" s="1">
         <v>60</v>
@@ -6508,10 +6724,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D167" s="7">
         <v>7</v>
@@ -6520,13 +6736,13 @@
         <v>24</v>
       </c>
       <c r="F167" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G167" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G167" s="7" t="s">
+      <c r="H167" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H167" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K167" s="1">
         <v>70</v>
@@ -6541,7 +6757,7 @@
         <v>13</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D168" s="7">
         <v>7</v>
@@ -6550,13 +6766,13 @@
         <v>26</v>
       </c>
       <c r="F168" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G168" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G168" s="7" t="s">
+      <c r="H168" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H168" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K168" s="1">
         <v>147</v>
@@ -6568,10 +6784,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C169" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D169" s="7">
         <v>7</v>
@@ -6580,13 +6796,13 @@
         <v>26</v>
       </c>
       <c r="F169" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G169" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G169" s="7" t="s">
+      <c r="H169" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H169" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K169" s="1">
         <v>90</v>
@@ -6598,7 +6814,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>16</v>
@@ -6625,7 +6841,7 @@
         <v>23</v>
       </c>
       <c r="M170" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -6645,7 +6861,7 @@
         <v>19</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G171" t="s">
         <v>20</v>
@@ -6663,7 +6879,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>16</v>
@@ -6675,13 +6891,13 @@
         <v>24</v>
       </c>
       <c r="F172" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G172" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G172" s="4" t="s">
+      <c r="H172" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H172" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="K172" s="1">
         <v>80</v>
@@ -6693,7 +6909,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>16</v>
@@ -6705,13 +6921,13 @@
         <v>24</v>
       </c>
       <c r="F173" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G173" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G173" s="4" t="s">
+      <c r="H173" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H173" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="K173" s="1">
         <v>75</v>
@@ -6735,13 +6951,13 @@
         <v>26</v>
       </c>
       <c r="F174" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G174" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G174" s="4" t="s">
+      <c r="H174" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H174" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K174" s="1">
         <v>121</v>
@@ -6765,13 +6981,13 @@
         <v>26</v>
       </c>
       <c r="F175" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G175" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G175" s="4" t="s">
+      <c r="H175" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H175" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K175" s="1">
         <v>131</v>
@@ -6795,13 +7011,13 @@
         <v>19</v>
       </c>
       <c r="F176" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G176" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G176" s="7" t="s">
+      <c r="H176" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H176" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="K176" s="1">
         <v>98</v>
@@ -6813,7 +7029,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>17</v>
@@ -6825,13 +7041,13 @@
         <v>19</v>
       </c>
       <c r="F177" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G177" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G177" s="7" t="s">
+      <c r="H177" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="K177" s="1">
         <v>132</v>
@@ -6843,7 +7059,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>17</v>
@@ -6858,10 +7074,10 @@
         <v>25</v>
       </c>
       <c r="G178" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H178" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H178" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="K178" s="1">
         <v>149</v>
@@ -6873,7 +7089,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>17</v>
@@ -6888,10 +7104,10 @@
         <v>25</v>
       </c>
       <c r="G179" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H179" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H179" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="K179" s="1">
         <v>89</v>
@@ -6915,22 +7131,22 @@
         <v>26</v>
       </c>
       <c r="F180" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G180" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G180" s="7" t="s">
+      <c r="H180" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H180" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="K180" s="1">
         <v>69</v>
       </c>
       <c r="L180" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M180" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -6938,7 +7154,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>17</v>
@@ -6950,13 +7166,13 @@
         <v>26</v>
       </c>
       <c r="F181" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G181" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G181" s="7" t="s">
+      <c r="H181" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H181" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="K181" s="1">
         <v>50</v>
@@ -6968,7 +7184,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>18</v>
@@ -6980,13 +7196,13 @@
         <v>19</v>
       </c>
       <c r="F182" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G182" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G182" s="7" t="s">
+      <c r="H182" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H182" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K182" s="1">
         <v>134</v>
@@ -6998,7 +7214,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>18</v>
@@ -7010,13 +7226,13 @@
         <v>19</v>
       </c>
       <c r="F183" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G183" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G183" s="7" t="s">
+      <c r="H183" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H183" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K183" s="1">
         <v>78</v>
@@ -7040,13 +7256,13 @@
         <v>24</v>
       </c>
       <c r="F184" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G184" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G184" s="7" t="s">
+      <c r="H184" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H184" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K184" s="1">
         <v>145</v>
@@ -7058,7 +7274,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>18</v>
@@ -7070,13 +7286,13 @@
         <v>24</v>
       </c>
       <c r="F185" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G185" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G185" s="7" t="s">
+      <c r="H185" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H185" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="K185" s="1">
         <v>82</v>
@@ -7088,7 +7304,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>18</v>
@@ -7100,13 +7316,13 @@
         <v>26</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G186" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K186" s="1">
         <v>175</v>
@@ -7118,7 +7334,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>18</v>
@@ -7130,13 +7346,13 @@
         <v>26</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G187" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K187" s="1">
         <v>91</v>
@@ -7148,10 +7364,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D188" s="7">
         <v>8</v>
@@ -7160,13 +7376,13 @@
         <v>19</v>
       </c>
       <c r="F188" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G188" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G188" s="7" t="s">
+      <c r="H188" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H188" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="K188" s="1">
         <v>150</v>
@@ -7178,10 +7394,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D189" s="7">
         <v>8</v>
@@ -7190,13 +7406,13 @@
         <v>19</v>
       </c>
       <c r="F189" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G189" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G189" s="7" t="s">
+      <c r="H189" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H189" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="K189" s="1">
         <v>110</v>
@@ -7208,10 +7424,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D190" s="7">
         <v>8</v>
@@ -7220,13 +7436,13 @@
         <v>24</v>
       </c>
       <c r="F190" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G190" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G190" s="7" t="s">
+      <c r="H190" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H190" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K190" s="1">
         <v>60</v>
@@ -7241,7 +7457,7 @@
         <v>13</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D191" s="7">
         <v>8</v>
@@ -7250,13 +7466,13 @@
         <v>24</v>
       </c>
       <c r="F191" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G191" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G191" s="7" t="s">
+      <c r="H191" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H191" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K191" s="1">
         <v>70</v>
@@ -7268,10 +7484,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D192" s="7">
         <v>8</v>
@@ -7280,13 +7496,13 @@
         <v>26</v>
       </c>
       <c r="F192" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G192" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G192" s="7" t="s">
+      <c r="H192" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H192" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K192" s="1">
         <v>147</v>
@@ -7301,7 +7517,7 @@
         <v>13</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D193" s="7">
         <v>8</v>
@@ -7310,13 +7526,13 @@
         <v>26</v>
       </c>
       <c r="F193" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G193" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G193" s="7" t="s">
+      <c r="H193" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H193" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="K193" s="1">
         <v>90</v>

--- a/Source/Narrative/Media Posts.xlsx
+++ b/Source/Narrative/Media Posts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Desktop\Computer Science\BGDS Yr-03 Semester 06_Design_Practice_04\Source\Narrative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grayn\OneDrive\Documents\short\Under Choices\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F8BC05-C584-4F61-91E9-4C8B3BE79F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F915515-0277-451C-B577-1EA6E55D9F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,6 +1116,12 @@
       <c r="H5" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="I5">
+        <v>75</v>
+      </c>
+      <c r="J5">
+        <v>16000</v>
+      </c>
       <c r="K5" s="1">
         <v>75</v>
       </c>
@@ -1151,6 +1157,12 @@
       <c r="H6" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="I6">
+        <v>117</v>
+      </c>
+      <c r="J6">
+        <v>28000</v>
+      </c>
       <c r="K6" s="1">
         <v>121</v>
       </c>
@@ -1186,6 +1198,12 @@
       <c r="H7" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>15000</v>
+      </c>
       <c r="K7" s="1">
         <v>131</v>
       </c>
@@ -1221,6 +1239,12 @@
       <c r="H8" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="I8">
+        <v>75</v>
+      </c>
+      <c r="J8">
+        <v>16000</v>
+      </c>
       <c r="K8" s="1">
         <v>98</v>
       </c>
@@ -1256,6 +1280,12 @@
       <c r="H9" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="I9">
+        <v>117</v>
+      </c>
+      <c r="J9">
+        <v>28000</v>
+      </c>
       <c r="K9" s="1">
         <v>132</v>
       </c>
@@ -1291,6 +1321,12 @@
       <c r="H10" s="7" t="s">
         <v>92</v>
       </c>
+      <c r="I10">
+        <v>50</v>
+      </c>
+      <c r="J10">
+        <v>15000</v>
+      </c>
       <c r="K10" s="1">
         <v>149</v>
       </c>
@@ -1326,6 +1362,12 @@
       <c r="H11" s="7" t="s">
         <v>92</v>
       </c>
+      <c r="I11">
+        <v>75</v>
+      </c>
+      <c r="J11">
+        <v>16000</v>
+      </c>
       <c r="K11" s="1">
         <v>89</v>
       </c>
@@ -1361,6 +1403,12 @@
       <c r="H12" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="I12">
+        <v>117</v>
+      </c>
+      <c r="J12">
+        <v>28000</v>
+      </c>
       <c r="K12" s="1">
         <v>69</v>
       </c>
@@ -1396,6 +1444,12 @@
       <c r="H13" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="J13">
+        <v>15000</v>
+      </c>
       <c r="K13" s="1">
         <v>50</v>
       </c>
@@ -1431,6 +1485,12 @@
       <c r="H14" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="I14">
+        <v>75</v>
+      </c>
+      <c r="J14">
+        <v>16000</v>
+      </c>
       <c r="K14" s="1">
         <v>134</v>
       </c>
@@ -1466,6 +1526,12 @@
       <c r="H15" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="I15">
+        <v>117</v>
+      </c>
+      <c r="J15">
+        <v>28000</v>
+      </c>
       <c r="K15" s="1">
         <v>78</v>
       </c>
@@ -1501,6 +1567,12 @@
       <c r="H16" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="I16">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>15000</v>
+      </c>
       <c r="K16" s="1">
         <v>145</v>
       </c>
@@ -1536,6 +1608,12 @@
       <c r="H17" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="I17">
+        <v>75</v>
+      </c>
+      <c r="J17">
+        <v>16000</v>
+      </c>
       <c r="K17" s="1">
         <v>82</v>
       </c>
@@ -1571,6 +1649,12 @@
       <c r="H18" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="I18">
+        <v>117</v>
+      </c>
+      <c r="J18">
+        <v>28000</v>
+      </c>
       <c r="K18" s="1">
         <v>175</v>
       </c>
@@ -1606,6 +1690,12 @@
       <c r="H19" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <v>15000</v>
+      </c>
       <c r="K19" s="1">
         <v>91</v>
       </c>
@@ -1641,6 +1731,12 @@
       <c r="H20" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="I20">
+        <v>75</v>
+      </c>
+      <c r="J20">
+        <v>16000</v>
+      </c>
       <c r="K20" s="1">
         <v>150</v>
       </c>
@@ -1676,6 +1772,12 @@
       <c r="H21" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="I21">
+        <v>117</v>
+      </c>
+      <c r="J21">
+        <v>28000</v>
+      </c>
       <c r="K21" s="1">
         <v>110</v>
       </c>
@@ -1711,6 +1813,12 @@
       <c r="H22" s="7" t="s">
         <v>109</v>
       </c>
+      <c r="I22">
+        <v>50</v>
+      </c>
+      <c r="J22">
+        <v>15000</v>
+      </c>
       <c r="K22" s="1">
         <v>60</v>
       </c>
@@ -1746,6 +1854,12 @@
       <c r="H23" s="7" t="s">
         <v>109</v>
       </c>
+      <c r="I23">
+        <v>75</v>
+      </c>
+      <c r="J23">
+        <v>16000</v>
+      </c>
       <c r="K23" s="1">
         <v>70</v>
       </c>
@@ -1781,6 +1895,12 @@
       <c r="H24" s="7" t="s">
         <v>112</v>
       </c>
+      <c r="I24">
+        <v>117</v>
+      </c>
+      <c r="J24">
+        <v>28000</v>
+      </c>
       <c r="K24" s="1">
         <v>147</v>
       </c>
@@ -1815,6 +1935,12 @@
       </c>
       <c r="H25" s="7" t="s">
         <v>112</v>
+      </c>
+      <c r="I25">
+        <v>50</v>
+      </c>
+      <c r="J25">
+        <v>15000</v>
       </c>
       <c r="K25" s="1">
         <v>90</v>

--- a/Source/Narrative/Media Posts.xlsx
+++ b/Source/Narrative/Media Posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F386EC-6F15-44FE-AD4A-A239948CFC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445AEDB0-2B99-49B9-BBAC-75894154FDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="274">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -237,9 +237,6 @@
     <t>How Did This Anestheologist Work for 10 Years With No Training?</t>
   </si>
   <si>
-    <t>Anime Weebs Create Sword Art Online IRL</t>
-  </si>
-  <si>
     <t>Why Did Die A Hard Adrenaline Junkie Jump Without Her Parachute?</t>
   </si>
   <si>
@@ -838,6 +835,18 @@
   </si>
   <si>
     <t>Governments Repeated Attempts for Financial Trade Met with Harsh Rejection</t>
+  </si>
+  <si>
+    <t>Anime Enthusiasts Create Sword Art Online IRL</t>
+  </si>
+  <si>
+    <t>Government Forced to Raise Taxes</t>
+  </si>
+  <si>
+    <t>Arms on Sale!?! Arms Dealers Open Up to All During Civil Conflict!</t>
+  </si>
+  <si>
+    <t>Kids Forced Into Battle!!! Children now Expected to Carry Arms For Safety!</t>
   </si>
 </sst>
 </file>
@@ -1249,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L150" sqref="L150"/>
+    <sheetView tabSelected="1" topLeftCell="C118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L154" sqref="L154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1354,7 @@
         <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1365,7 +1374,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>20</v>
@@ -1386,7 +1395,7 @@
         <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1406,13 +1415,13 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -1427,7 +1436,7 @@
         <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1447,13 +1456,13 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="K5" s="1">
         <v>75</v>
@@ -1462,7 +1471,7 @@
         <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1482,13 +1491,13 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="K6" s="1">
         <v>121</v>
@@ -1497,7 +1506,7 @@
         <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1517,19 +1526,19 @@
         <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="K7" s="1">
         <v>131</v>
       </c>
       <c r="L7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1549,19 +1558,19 @@
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="K8" s="1">
         <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1581,19 +1590,19 @@
         <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="K9" s="1">
         <v>132</v>
       </c>
       <c r="L9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1616,16 +1625,16 @@
         <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="K10" s="1">
         <v>149</v>
       </c>
       <c r="L10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1648,16 +1657,16 @@
         <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="K11" s="1">
         <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1677,19 +1686,19 @@
         <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="K12" s="1">
         <v>69</v>
       </c>
       <c r="L12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1709,19 +1718,19 @@
         <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="K13" s="1">
         <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1741,13 +1750,13 @@
         <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K14" s="1">
         <v>134</v>
@@ -1756,7 +1765,7 @@
         <v>45</v>
       </c>
       <c r="M14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1776,13 +1785,13 @@
         <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K15" s="1">
         <v>78</v>
@@ -1791,7 +1800,7 @@
         <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1811,19 +1820,19 @@
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="K16" s="1">
         <v>145</v>
       </c>
       <c r="L16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1843,13 +1852,13 @@
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="K17" s="1">
         <v>82</v>
@@ -1858,7 +1867,7 @@
         <v>48</v>
       </c>
       <c r="M17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1878,19 +1887,19 @@
         <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K18" s="1">
         <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1910,19 +1919,19 @@
         <v>26</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K19" s="1">
         <v>91</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1942,13 +1951,13 @@
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K20" s="1">
         <v>150</v>
@@ -1957,7 +1966,7 @@
         <v>50</v>
       </c>
       <c r="M20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1977,13 +1986,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K21" s="1">
         <v>110</v>
@@ -1992,7 +2001,7 @@
         <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2012,13 +2021,13 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K22" s="1">
         <v>60</v>
@@ -2027,7 +2036,7 @@
         <v>52</v>
       </c>
       <c r="M22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2047,13 +2056,13 @@
         <v>24</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K23" s="1">
         <v>70</v>
@@ -2062,7 +2071,7 @@
         <v>53</v>
       </c>
       <c r="M23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2082,13 +2091,13 @@
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K24" s="1">
         <v>147</v>
@@ -2097,7 +2106,7 @@
         <v>54</v>
       </c>
       <c r="M24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2117,13 +2126,13 @@
         <v>26</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K25" s="1">
         <v>90</v>
@@ -2132,7 +2141,7 @@
         <v>55</v>
       </c>
       <c r="M25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2164,10 +2173,10 @@
         <v>100</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2187,7 +2196,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
         <v>20</v>
@@ -2199,10 +2208,10 @@
         <v>156</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2222,22 +2231,22 @@
         <v>24</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="K28" s="1">
         <v>80</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2257,13 +2266,13 @@
         <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="K29" s="1">
         <v>75</v>
@@ -2272,7 +2281,7 @@
         <v>56</v>
       </c>
       <c r="M29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2292,13 +2301,13 @@
         <v>26</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="K30" s="1">
         <v>121</v>
@@ -2307,7 +2316,7 @@
         <v>57</v>
       </c>
       <c r="M30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2327,22 +2336,22 @@
         <v>26</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="K31" s="1">
         <v>131</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2362,13 +2371,13 @@
         <v>19</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="K32" s="1">
         <v>98</v>
@@ -2377,7 +2386,7 @@
         <v>58</v>
       </c>
       <c r="M32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2397,13 +2406,13 @@
         <v>19</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="K33" s="1">
         <v>132</v>
@@ -2412,7 +2421,7 @@
         <v>59</v>
       </c>
       <c r="M33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2435,10 +2444,10 @@
         <v>25</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="K34" s="1">
         <v>149</v>
@@ -2447,7 +2456,7 @@
         <v>60</v>
       </c>
       <c r="M34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2470,10 +2479,10 @@
         <v>25</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="K35" s="1">
         <v>89</v>
@@ -2482,7 +2491,7 @@
         <v>61</v>
       </c>
       <c r="M35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2502,13 +2511,13 @@
         <v>26</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="K36" s="1">
         <v>69</v>
@@ -2517,7 +2526,7 @@
         <v>62</v>
       </c>
       <c r="M36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2537,13 +2546,13 @@
         <v>26</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="K37" s="1">
         <v>50</v>
@@ -2552,7 +2561,7 @@
         <v>63</v>
       </c>
       <c r="M37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2572,13 +2581,13 @@
         <v>19</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K38" s="1">
         <v>134</v>
@@ -2587,7 +2596,7 @@
         <v>64</v>
       </c>
       <c r="M38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2607,13 +2616,13 @@
         <v>19</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="H39" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K39" s="1">
         <v>78</v>
@@ -2622,7 +2631,7 @@
         <v>65</v>
       </c>
       <c r="M39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2642,13 +2651,13 @@
         <v>24</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="K40" s="1">
         <v>145</v>
@@ -2657,7 +2666,7 @@
         <v>66</v>
       </c>
       <c r="M40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2677,13 +2686,13 @@
         <v>24</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="K41" s="1">
         <v>82</v>
@@ -2692,7 +2701,7 @@
         <v>67</v>
       </c>
       <c r="M41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2712,13 +2721,13 @@
         <v>26</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K42" s="1">
         <v>175</v>
@@ -2727,7 +2736,7 @@
         <v>68</v>
       </c>
       <c r="M42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2747,13 +2756,13 @@
         <v>26</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K43" s="1">
         <v>91</v>
@@ -2762,7 +2771,7 @@
         <v>69</v>
       </c>
       <c r="M43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2782,22 +2791,22 @@
         <v>19</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="H44" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K44" s="1">
         <v>150</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="M44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2817,22 +2826,22 @@
         <v>19</v>
       </c>
       <c r="F45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K45" s="1">
         <v>110</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2852,22 +2861,22 @@
         <v>24</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="H46" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K46" s="1">
         <v>60</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2887,22 +2896,22 @@
         <v>24</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="H47" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K47" s="1">
         <v>70</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2922,22 +2931,22 @@
         <v>26</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="H48" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K48" s="1">
         <v>147</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2957,22 +2966,22 @@
         <v>26</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="H49" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K49" s="1">
         <v>90</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -3004,10 +3013,10 @@
         <v>100</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -3027,7 +3036,7 @@
         <v>19</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
@@ -3039,7 +3048,7 @@
         <v>156</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3059,19 +3068,19 @@
         <v>24</v>
       </c>
       <c r="F52" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="K52" s="1">
         <v>80</v>
       </c>
       <c r="L52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3091,19 +3100,19 @@
         <v>24</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="K53" s="1">
         <v>75</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3123,19 +3132,19 @@
         <v>26</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="K54" s="1">
         <v>121</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3155,19 +3164,19 @@
         <v>26</v>
       </c>
       <c r="F55" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="K55" s="1">
         <v>131</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3187,19 +3196,19 @@
         <v>19</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="H56" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="K56" s="1">
         <v>98</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3219,19 +3228,19 @@
         <v>19</v>
       </c>
       <c r="F57" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="H57" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="K57" s="1">
         <v>132</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3254,16 +3263,16 @@
         <v>25</v>
       </c>
       <c r="G58" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="K58" s="1">
         <v>149</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3286,10 +3295,10 @@
         <v>25</v>
       </c>
       <c r="G59" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="K59" s="1">
         <v>89</v>
@@ -3298,7 +3307,7 @@
         <v>41</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3318,19 +3327,19 @@
         <v>26</v>
       </c>
       <c r="F60" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="H60" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="K60" s="1">
         <v>69</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3350,19 +3359,19 @@
         <v>26</v>
       </c>
       <c r="F61" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="H61" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="K61" s="1">
         <v>50</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3382,19 +3391,19 @@
         <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="H62" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K62" s="1">
         <v>134</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3414,19 +3423,19 @@
         <v>19</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="H63" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K63" s="1">
         <v>78</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3446,19 +3455,19 @@
         <v>24</v>
       </c>
       <c r="F64" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="K64" s="1">
         <v>145</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3478,19 +3487,19 @@
         <v>24</v>
       </c>
       <c r="F65" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="K65" s="1">
         <v>82</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3510,19 +3519,19 @@
         <v>26</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K66" s="1">
         <v>175</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3542,19 +3551,19 @@
         <v>26</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K67" s="1">
         <v>91</v>
       </c>
       <c r="L67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3574,19 +3583,19 @@
         <v>19</v>
       </c>
       <c r="F68" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="H68" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K68" s="1">
         <v>150</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3606,19 +3615,19 @@
         <v>19</v>
       </c>
       <c r="F69" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="H69" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K69" s="1">
         <v>110</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3638,19 +3647,19 @@
         <v>24</v>
       </c>
       <c r="F70" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="H70" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K70" s="1">
         <v>60</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3670,19 +3679,19 @@
         <v>24</v>
       </c>
       <c r="F71" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="H71" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K71" s="1">
         <v>70</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3702,19 +3711,19 @@
         <v>26</v>
       </c>
       <c r="F72" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K72" s="1">
         <v>147</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3734,19 +3743,19 @@
         <v>26</v>
       </c>
       <c r="F73" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="H73" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K73" s="1">
         <v>90</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3778,7 +3787,7 @@
         <v>100</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3798,7 +3807,7 @@
         <v>19</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G75" t="s">
         <v>20</v>
@@ -3810,7 +3819,7 @@
         <v>156</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3830,19 +3839,19 @@
         <v>24</v>
       </c>
       <c r="F76" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="H76" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="K76" s="1">
         <v>80</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3862,19 +3871,19 @@
         <v>24</v>
       </c>
       <c r="F77" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="H77" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="K77" s="1">
         <v>75</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3894,19 +3903,19 @@
         <v>26</v>
       </c>
       <c r="F78" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="H78" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="K78" s="1">
         <v>121</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3926,19 +3935,19 @@
         <v>26</v>
       </c>
       <c r="F79" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="H79" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="K79" s="1">
         <v>131</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3958,19 +3967,19 @@
         <v>19</v>
       </c>
       <c r="F80" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="K80" s="1">
         <v>98</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3990,19 +3999,19 @@
         <v>19</v>
       </c>
       <c r="F81" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="H81" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="K81" s="1">
         <v>132</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4025,16 +4034,16 @@
         <v>25</v>
       </c>
       <c r="G82" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H82" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="K82" s="1">
         <v>149</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4057,10 +4066,10 @@
         <v>25</v>
       </c>
       <c r="G83" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H83" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="K83" s="1">
         <v>89</v>
@@ -4069,7 +4078,7 @@
         <v>42</v>
       </c>
       <c r="M83" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4089,19 +4098,19 @@
         <v>26</v>
       </c>
       <c r="F84" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="H84" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="K84" s="1">
         <v>69</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4121,19 +4130,19 @@
         <v>26</v>
       </c>
       <c r="F85" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="H85" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="K85" s="1">
         <v>50</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4153,19 +4162,19 @@
         <v>19</v>
       </c>
       <c r="F86" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="H86" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K86" s="1">
         <v>134</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4185,19 +4194,19 @@
         <v>19</v>
       </c>
       <c r="F87" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="H87" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K87" s="1">
         <v>78</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4217,19 +4226,19 @@
         <v>24</v>
       </c>
       <c r="F88" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="H88" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="K88" s="1">
         <v>145</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4249,19 +4258,19 @@
         <v>24</v>
       </c>
       <c r="F89" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="H89" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="K89" s="1">
         <v>82</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4281,19 +4290,19 @@
         <v>26</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K90" s="1">
         <v>175</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4313,19 +4322,19 @@
         <v>26</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K91" s="1">
         <v>91</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4345,19 +4354,19 @@
         <v>19</v>
       </c>
       <c r="F92" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="H92" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K92" s="1">
         <v>150</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4377,19 +4386,19 @@
         <v>19</v>
       </c>
       <c r="F93" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="H93" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K93" s="1">
         <v>110</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4409,19 +4418,19 @@
         <v>24</v>
       </c>
       <c r="F94" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G94" s="7" t="s">
+      <c r="H94" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K94" s="1">
         <v>60</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4441,19 +4450,19 @@
         <v>24</v>
       </c>
       <c r="F95" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="H95" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K95" s="1">
         <v>70</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4473,19 +4482,19 @@
         <v>26</v>
       </c>
       <c r="F96" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="H96" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K96" s="1">
         <v>147</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4505,19 +4514,19 @@
         <v>26</v>
       </c>
       <c r="F97" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="H97" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K97" s="1">
         <v>90</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4549,7 +4558,7 @@
         <v>100</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4569,7 +4578,7 @@
         <v>19</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G99" t="s">
         <v>20</v>
@@ -4581,7 +4590,7 @@
         <v>156</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4601,19 +4610,19 @@
         <v>24</v>
       </c>
       <c r="F100" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="H100" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="K100" s="1">
         <v>80</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4633,19 +4642,19 @@
         <v>24</v>
       </c>
       <c r="F101" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="H101" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="K101" s="1">
         <v>75</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4665,19 +4674,19 @@
         <v>26</v>
       </c>
       <c r="F102" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G102" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="H102" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="K102" s="1">
         <v>121</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4697,19 +4706,19 @@
         <v>26</v>
       </c>
       <c r="F103" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G103" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G103" s="4" t="s">
+      <c r="H103" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="K103" s="1">
         <v>131</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4729,13 +4738,13 @@
         <v>19</v>
       </c>
       <c r="F104" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G104" s="7" t="s">
+      <c r="H104" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="K104" s="1">
         <v>98</v>
@@ -4744,7 +4753,7 @@
         <v>39</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4764,19 +4773,19 @@
         <v>19</v>
       </c>
       <c r="F105" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G105" s="7" t="s">
+      <c r="H105" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="K105" s="1">
         <v>132</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4799,10 +4808,10 @@
         <v>25</v>
       </c>
       <c r="G106" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H106" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="K106" s="1">
         <v>149</v>
@@ -4811,7 +4820,7 @@
         <v>47</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4834,16 +4843,16 @@
         <v>25</v>
       </c>
       <c r="G107" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H107" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="K107" s="1">
         <v>89</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -4863,13 +4872,13 @@
         <v>26</v>
       </c>
       <c r="F108" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G108" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G108" s="7" t="s">
+      <c r="H108" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="K108" s="1">
         <v>69</v>
@@ -4878,7 +4887,7 @@
         <v>43</v>
       </c>
       <c r="M108" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -4898,19 +4907,19 @@
         <v>26</v>
       </c>
       <c r="F109" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="H109" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="K109" s="1">
         <v>50</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -4930,19 +4939,19 @@
         <v>19</v>
       </c>
       <c r="F110" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G110" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G110" s="7" t="s">
+      <c r="H110" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K110" s="1">
         <v>134</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -4962,19 +4971,19 @@
         <v>19</v>
       </c>
       <c r="F111" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="H111" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K111" s="1">
         <v>78</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -4994,19 +5003,19 @@
         <v>24</v>
       </c>
       <c r="F112" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G112" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G112" s="7" t="s">
+      <c r="H112" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="K112" s="1">
         <v>145</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5026,19 +5035,19 @@
         <v>24</v>
       </c>
       <c r="F113" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G113" s="7" t="s">
+      <c r="H113" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="K113" s="1">
         <v>82</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5058,13 +5067,13 @@
         <v>26</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K114" s="1">
         <v>175</v>
@@ -5073,7 +5082,7 @@
         <v>49</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5093,19 +5102,19 @@
         <v>26</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K115" s="1">
         <v>91</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5125,19 +5134,19 @@
         <v>19</v>
       </c>
       <c r="F116" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G116" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G116" s="7" t="s">
+      <c r="H116" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K116" s="1">
         <v>150</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5157,19 +5166,19 @@
         <v>19</v>
       </c>
       <c r="F117" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G117" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="H117" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K117" s="1">
         <v>110</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5189,19 +5198,19 @@
         <v>24</v>
       </c>
       <c r="F118" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G118" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G118" s="7" t="s">
+      <c r="H118" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K118" s="1">
         <v>60</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5221,19 +5230,19 @@
         <v>24</v>
       </c>
       <c r="F119" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G119" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="H119" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K119" s="1">
         <v>70</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5253,19 +5262,19 @@
         <v>26</v>
       </c>
       <c r="F120" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G120" s="7" t="s">
+      <c r="H120" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K120" s="1">
         <v>147</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5285,19 +5294,19 @@
         <v>26</v>
       </c>
       <c r="F121" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G121" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G121" s="7" t="s">
+      <c r="H121" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K121" s="1">
         <v>90</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5329,7 +5338,7 @@
         <v>100</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5349,7 +5358,7 @@
         <v>19</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G123" t="s">
         <v>20</v>
@@ -5361,7 +5370,7 @@
         <v>156</v>
       </c>
       <c r="L123" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5381,19 +5390,19 @@
         <v>24</v>
       </c>
       <c r="F124" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G124" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G124" s="4" t="s">
+      <c r="H124" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="K124" s="1">
         <v>80</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5413,19 +5422,19 @@
         <v>24</v>
       </c>
       <c r="F125" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G125" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G125" s="4" t="s">
+      <c r="H125" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="K125" s="1">
         <v>75</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5445,19 +5454,19 @@
         <v>26</v>
       </c>
       <c r="F126" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G126" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G126" s="4" t="s">
+      <c r="H126" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="K126" s="1">
         <v>121</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5477,19 +5486,19 @@
         <v>26</v>
       </c>
       <c r="F127" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G127" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G127" s="4" t="s">
+      <c r="H127" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="K127" s="1">
         <v>131</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5509,19 +5518,19 @@
         <v>19</v>
       </c>
       <c r="F128" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G128" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G128" s="7" t="s">
+      <c r="H128" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="K128" s="1">
         <v>98</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -5541,19 +5550,19 @@
         <v>19</v>
       </c>
       <c r="F129" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G129" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G129" s="7" t="s">
+      <c r="H129" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="K129" s="1">
         <v>132</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -5576,16 +5585,16 @@
         <v>25</v>
       </c>
       <c r="G130" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H130" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="K130" s="1">
         <v>149</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -5608,16 +5617,16 @@
         <v>25</v>
       </c>
       <c r="G131" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H131" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="K131" s="1">
         <v>89</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -5637,13 +5646,13 @@
         <v>26</v>
       </c>
       <c r="F132" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G132" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G132" s="7" t="s">
+      <c r="H132" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="K132" s="1">
         <v>69</v>
@@ -5652,7 +5661,7 @@
         <v>38</v>
       </c>
       <c r="M132" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -5672,19 +5681,19 @@
         <v>26</v>
       </c>
       <c r="F133" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G133" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G133" s="7" t="s">
+      <c r="H133" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="K133" s="1">
         <v>50</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -5704,19 +5713,19 @@
         <v>19</v>
       </c>
       <c r="F134" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G134" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G134" s="7" t="s">
+      <c r="H134" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K134" s="1">
         <v>134</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -5736,19 +5745,19 @@
         <v>19</v>
       </c>
       <c r="F135" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G135" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G135" s="7" t="s">
+      <c r="H135" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K135" s="1">
         <v>78</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -5768,19 +5777,19 @@
         <v>24</v>
       </c>
       <c r="F136" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G136" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G136" s="7" t="s">
+      <c r="H136" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="K136" s="1">
         <v>145</v>
       </c>
       <c r="L136" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -5800,19 +5809,19 @@
         <v>24</v>
       </c>
       <c r="F137" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G137" s="7" t="s">
+      <c r="H137" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="K137" s="1">
         <v>82</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -5832,22 +5841,22 @@
         <v>26</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K138" s="1">
         <v>175</v>
       </c>
       <c r="L138" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M138" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -5867,19 +5876,19 @@
         <v>26</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K139" s="1">
         <v>91</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -5899,19 +5908,19 @@
         <v>19</v>
       </c>
       <c r="F140" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G140" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G140" s="7" t="s">
+      <c r="H140" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H140" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K140" s="1">
         <v>150</v>
       </c>
       <c r="L140" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -5931,19 +5940,19 @@
         <v>19</v>
       </c>
       <c r="F141" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G141" s="7" t="s">
+      <c r="H141" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H141" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K141" s="1">
         <v>110</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -5963,19 +5972,19 @@
         <v>24</v>
       </c>
       <c r="F142" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G142" s="7" t="s">
+      <c r="H142" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H142" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K142" s="1">
         <v>60</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -5995,19 +6004,19 @@
         <v>24</v>
       </c>
       <c r="F143" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G143" s="7" t="s">
+      <c r="H143" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H143" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K143" s="1">
         <v>70</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6027,19 +6036,19 @@
         <v>26</v>
       </c>
       <c r="F144" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G144" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G144" s="7" t="s">
+      <c r="H144" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H144" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K144" s="1">
         <v>147</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6059,19 +6068,19 @@
         <v>26</v>
       </c>
       <c r="F145" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G145" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G145" s="7" t="s">
+      <c r="H145" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K145" s="1">
         <v>90</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6103,7 +6112,7 @@
         <v>100</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6123,7 +6132,7 @@
         <v>19</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G147" t="s">
         <v>20</v>
@@ -6135,7 +6144,7 @@
         <v>156</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6155,19 +6164,19 @@
         <v>24</v>
       </c>
       <c r="F148" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G148" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G148" s="4" t="s">
+      <c r="H148" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H148" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="K148" s="1">
         <v>80</v>
       </c>
       <c r="L148" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6187,19 +6196,19 @@
         <v>24</v>
       </c>
       <c r="F149" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G149" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G149" s="4" t="s">
+      <c r="H149" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H149" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="K149" s="1">
         <v>75</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6219,19 +6228,19 @@
         <v>26</v>
       </c>
       <c r="F150" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G150" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G150" s="4" t="s">
+      <c r="H150" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H150" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="K150" s="1">
         <v>121</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6251,18 +6260,20 @@
         <v>26</v>
       </c>
       <c r="F151" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G151" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G151" s="4" t="s">
+      <c r="H151" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H151" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="K151" s="1">
         <v>131</v>
       </c>
-      <c r="L151" s="4"/>
+      <c r="L151" s="4" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
@@ -6281,18 +6292,20 @@
         <v>19</v>
       </c>
       <c r="F152" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G152" s="7" t="s">
+      <c r="H152" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H152" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="K152" s="1">
         <v>98</v>
       </c>
-      <c r="L152" s="5"/>
+      <c r="L152" s="5" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
@@ -6311,13 +6324,13 @@
         <v>19</v>
       </c>
       <c r="F153" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G153" s="7" t="s">
+      <c r="H153" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="K153" s="1">
         <v>132</v>
@@ -6326,7 +6339,7 @@
         <v>40</v>
       </c>
       <c r="M153" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -6349,10 +6362,10 @@
         <v>25</v>
       </c>
       <c r="G154" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H154" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="K154" s="1">
         <v>149</v>
@@ -6379,10 +6392,10 @@
         <v>25</v>
       </c>
       <c r="G155" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H155" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H155" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="K155" s="1">
         <v>89</v>
@@ -6406,18 +6419,20 @@
         <v>26</v>
       </c>
       <c r="F156" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G156" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G156" s="7" t="s">
+      <c r="H156" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H156" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="K156" s="1">
         <v>69</v>
       </c>
-      <c r="L156" s="5"/>
+      <c r="L156" s="5" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
@@ -6436,13 +6451,13 @@
         <v>26</v>
       </c>
       <c r="F157" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G157" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G157" s="7" t="s">
+      <c r="H157" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H157" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="K157" s="1">
         <v>50</v>
@@ -6466,13 +6481,13 @@
         <v>19</v>
       </c>
       <c r="F158" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="H158" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K158" s="1">
         <v>134</v>
@@ -6496,13 +6511,13 @@
         <v>19</v>
       </c>
       <c r="F159" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G159" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G159" s="7" t="s">
+      <c r="H159" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K159" s="1">
         <v>78</v>
@@ -6526,13 +6541,13 @@
         <v>24</v>
       </c>
       <c r="F160" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G160" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G160" s="7" t="s">
+      <c r="H160" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H160" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="K160" s="1">
         <v>145</v>
@@ -6556,13 +6571,13 @@
         <v>24</v>
       </c>
       <c r="F161" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G161" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G161" s="7" t="s">
+      <c r="H161" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H161" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="K161" s="1">
         <v>82</v>
@@ -6586,13 +6601,13 @@
         <v>26</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G162" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K162" s="1">
         <v>175</v>
@@ -6616,13 +6631,13 @@
         <v>26</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G163" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K163" s="1">
         <v>91</v>
@@ -6646,13 +6661,13 @@
         <v>19</v>
       </c>
       <c r="F164" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G164" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G164" s="7" t="s">
+      <c r="H164" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H164" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K164" s="1">
         <v>150</v>
@@ -6676,13 +6691,13 @@
         <v>19</v>
       </c>
       <c r="F165" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G165" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G165" s="7" t="s">
+      <c r="H165" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K165" s="1">
         <v>110</v>
@@ -6706,13 +6721,13 @@
         <v>24</v>
       </c>
       <c r="F166" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G166" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G166" s="7" t="s">
+      <c r="H166" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H166" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K166" s="1">
         <v>60</v>
@@ -6736,13 +6751,13 @@
         <v>24</v>
       </c>
       <c r="F167" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G167" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G167" s="7" t="s">
+      <c r="H167" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H167" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K167" s="1">
         <v>70</v>
@@ -6766,13 +6781,13 @@
         <v>26</v>
       </c>
       <c r="F168" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G168" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G168" s="7" t="s">
+      <c r="H168" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H168" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K168" s="1">
         <v>147</v>
@@ -6796,13 +6811,13 @@
         <v>26</v>
       </c>
       <c r="F169" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G169" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G169" s="7" t="s">
+      <c r="H169" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H169" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K169" s="1">
         <v>90</v>
@@ -6841,7 +6856,7 @@
         <v>23</v>
       </c>
       <c r="M170" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -6861,7 +6876,7 @@
         <v>19</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G171" t="s">
         <v>20</v>
@@ -6891,13 +6906,13 @@
         <v>24</v>
       </c>
       <c r="F172" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G172" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G172" s="4" t="s">
+      <c r="H172" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H172" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="K172" s="1">
         <v>80</v>
@@ -6921,13 +6936,13 @@
         <v>24</v>
       </c>
       <c r="F173" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G173" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G173" s="4" t="s">
+      <c r="H173" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H173" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="K173" s="1">
         <v>75</v>
@@ -6951,13 +6966,13 @@
         <v>26</v>
       </c>
       <c r="F174" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G174" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G174" s="4" t="s">
+      <c r="H174" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H174" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="K174" s="1">
         <v>121</v>
@@ -6981,13 +6996,13 @@
         <v>26</v>
       </c>
       <c r="F175" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G175" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G175" s="4" t="s">
+      <c r="H175" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H175" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="K175" s="1">
         <v>131</v>
@@ -7011,13 +7026,13 @@
         <v>19</v>
       </c>
       <c r="F176" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G176" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G176" s="7" t="s">
+      <c r="H176" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H176" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="K176" s="1">
         <v>98</v>
@@ -7041,13 +7056,13 @@
         <v>19</v>
       </c>
       <c r="F177" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G177" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G177" s="7" t="s">
+      <c r="H177" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="K177" s="1">
         <v>132</v>
@@ -7074,10 +7089,10 @@
         <v>25</v>
       </c>
       <c r="G178" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H178" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H178" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="K178" s="1">
         <v>149</v>
@@ -7104,10 +7119,10 @@
         <v>25</v>
       </c>
       <c r="G179" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H179" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H179" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="K179" s="1">
         <v>89</v>
@@ -7131,13 +7146,13 @@
         <v>26</v>
       </c>
       <c r="F180" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G180" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G180" s="7" t="s">
+      <c r="H180" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H180" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="K180" s="1">
         <v>69</v>
@@ -7146,7 +7161,7 @@
         <v>44</v>
       </c>
       <c r="M180" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -7166,13 +7181,13 @@
         <v>26</v>
       </c>
       <c r="F181" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G181" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G181" s="7" t="s">
+      <c r="H181" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H181" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="K181" s="1">
         <v>50</v>
@@ -7196,13 +7211,13 @@
         <v>19</v>
       </c>
       <c r="F182" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G182" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G182" s="7" t="s">
+      <c r="H182" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H182" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K182" s="1">
         <v>134</v>
@@ -7226,13 +7241,13 @@
         <v>19</v>
       </c>
       <c r="F183" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G183" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G183" s="7" t="s">
+      <c r="H183" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H183" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K183" s="1">
         <v>78</v>
@@ -7256,13 +7271,13 @@
         <v>24</v>
       </c>
       <c r="F184" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G184" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G184" s="7" t="s">
+      <c r="H184" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H184" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="K184" s="1">
         <v>145</v>
@@ -7286,13 +7301,13 @@
         <v>24</v>
       </c>
       <c r="F185" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G185" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G185" s="7" t="s">
+      <c r="H185" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H185" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="K185" s="1">
         <v>82</v>
@@ -7316,13 +7331,13 @@
         <v>26</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G186" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K186" s="1">
         <v>175</v>
@@ -7346,13 +7361,13 @@
         <v>26</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G187" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K187" s="1">
         <v>91</v>
@@ -7376,13 +7391,13 @@
         <v>19</v>
       </c>
       <c r="F188" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G188" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G188" s="7" t="s">
+      <c r="H188" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H188" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K188" s="1">
         <v>150</v>
@@ -7406,13 +7421,13 @@
         <v>19</v>
       </c>
       <c r="F189" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G189" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G189" s="7" t="s">
+      <c r="H189" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H189" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K189" s="1">
         <v>110</v>
@@ -7436,13 +7451,13 @@
         <v>24</v>
       </c>
       <c r="F190" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G190" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G190" s="7" t="s">
+      <c r="H190" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H190" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K190" s="1">
         <v>60</v>
@@ -7466,13 +7481,13 @@
         <v>24</v>
       </c>
       <c r="F191" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G191" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G191" s="7" t="s">
+      <c r="H191" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H191" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K191" s="1">
         <v>70</v>
@@ -7496,13 +7511,13 @@
         <v>26</v>
       </c>
       <c r="F192" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G192" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G192" s="7" t="s">
+      <c r="H192" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H192" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K192" s="1">
         <v>147</v>
@@ -7526,13 +7541,13 @@
         <v>26</v>
       </c>
       <c r="F193" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G193" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G193" s="7" t="s">
+      <c r="H193" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H193" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K193" s="1">
         <v>90</v>

--- a/Source/Narrative/Media Posts.xlsx
+++ b/Source/Narrative/Media Posts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grayn\OneDrive\Documents\short\Under Choices\UnderChoices\Source\Narrative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F915515-0277-451C-B577-1EA6E55D9F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BF4C60-26E6-4875-B3D2-282AC0DB402C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="268">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -111,9 +111,6 @@
     <t>CrappyHealthCare</t>
   </si>
   <si>
-    <t>Surgeons Walk Out</t>
-  </si>
-  <si>
     <t>SeeEnEn</t>
   </si>
   <si>
@@ -198,24 +195,12 @@
     <t>CAUTION! Thousands of Fanatics Punch Paul</t>
   </si>
   <si>
-    <t>How Government Can Make You Happier!</t>
-  </si>
-  <si>
-    <t>Government Bans Sadness</t>
-  </si>
-  <si>
-    <t>Why Government's Netflix Increases Depression</t>
-  </si>
-  <si>
     <t>The Government Cuts Toilet Paper Funding</t>
   </si>
   <si>
     <t>Government "Misplaces" Billions In Tax Revenue</t>
   </si>
   <si>
-    <t>Anger At Governments Internet Ban</t>
-  </si>
-  <si>
     <t>Tike Myson Beats Rogan Jaul In 1 Round!</t>
   </si>
   <si>
@@ -252,9 +237,6 @@
     <t>How Did This Anestheologist Work for 10 Years With No Training?</t>
   </si>
   <si>
-    <t>Anime Weebs Create Sword Art Online IRL</t>
-  </si>
-  <si>
     <t>Why Did Die A Hard Adrenaline Junkie Jump Without Her Parachute?</t>
   </si>
   <si>
@@ -511,6 +493,342 @@
   </si>
   <si>
     <t>media_post_2.jpg</t>
+  </si>
+  <si>
+    <t>U.S.A.R. Declares Smile Day a New Holiday!</t>
+  </si>
+  <si>
+    <t>Government Official Settles a Debate with a Slapboxing Match!?!</t>
+  </si>
+  <si>
+    <t>Public Boxing Arena Opened</t>
+  </si>
+  <si>
+    <t>Bar Patrons Stop Fighting to Settle Conflict with a Thumb Wrestling Match</t>
+  </si>
+  <si>
+    <t>Bystander Heavily Insulted for Being "Involved" in Car Crash</t>
+  </si>
+  <si>
+    <t>Civilian Tackled for Listening to Music!?!</t>
+  </si>
+  <si>
+    <t>Pidgeon Jumped by Highschoolers</t>
+  </si>
+  <si>
+    <t>Police Man Laughs at Deathly Injured Victim of Assault!!!</t>
+  </si>
+  <si>
+    <t>Elderly Woman Passes Away After Being in Hospital for 20 Years</t>
+  </si>
+  <si>
+    <t>Man With Cancer Turned Away By Hospital!!!</t>
+  </si>
+  <si>
+    <t>Doctor Late to Surgery to Take a Smoke Break!</t>
+  </si>
+  <si>
+    <t>How the Government Can Make You Happier!</t>
+  </si>
+  <si>
+    <t>Governments Ban on Sadness! Programs Meant to Improve Mood</t>
+  </si>
+  <si>
+    <t>Why Government's Streaming Increases Depression</t>
+  </si>
+  <si>
+    <t>Anger At Governments Website Ban List</t>
+  </si>
+  <si>
+    <t>Anime Enthusiasts Create Sword Art Online IRL</t>
+  </si>
+  <si>
+    <t>U.S.A.R. Chairmen Crowd Surfs After Speech</t>
+  </si>
+  <si>
+    <t>U.S.A.R. Chairmen Donates 10 Million to Charity!!!</t>
+  </si>
+  <si>
+    <t>U.S.A.R Debate Team Loses National Championship</t>
+  </si>
+  <si>
+    <t>Chairmen Retires After the Death of Their Spouse</t>
+  </si>
+  <si>
+    <t>Policeman Slaps Homeless Man for Fun</t>
+  </si>
+  <si>
+    <t>Countries Soccer Team Eliminated Immediately</t>
+  </si>
+  <si>
+    <t>Passersby Defend Young Boy From Drunken Police</t>
+  </si>
+  <si>
+    <t>Stray Cat Caught in Street Fight Saved by Homeless Woman</t>
+  </si>
+  <si>
+    <t>Teen Who Saved Snail Found Wounded in Their Attempt</t>
+  </si>
+  <si>
+    <t>Driver Run Over By Cyclist Imprisoned for Technicality</t>
+  </si>
+  <si>
+    <t>Gang of Highschoolers Now Attacking Flocks of Pidgeons in Public!!!</t>
+  </si>
+  <si>
+    <t>Clinics Expanding Wait Lists In Sight of Rising Illness</t>
+  </si>
+  <si>
+    <t>Man Recieves Surprise Check to Cover His Treatments</t>
+  </si>
+  <si>
+    <t>Man Diagnosed with Mental Illness After Staying Alone for 10 Weeks</t>
+  </si>
+  <si>
+    <t>Nurse Ashamed of Her Mistakes During Check Up</t>
+  </si>
+  <si>
+    <t>Brain Surgery Abandoned After Patient Wouldn't Stop Screaming</t>
+  </si>
+  <si>
+    <t>Elderly Man Miss-Diagnosed With a Cold Instead of New Illness</t>
+  </si>
+  <si>
+    <t>Members of Separatist Group Living Happy Lives</t>
+  </si>
+  <si>
+    <t>Woman Defies Police's Demands and Continues to Play Music for Crowds</t>
+  </si>
+  <si>
+    <t>Woman Speaking of Change Silenced by Authorities</t>
+  </si>
+  <si>
+    <t>Independent Games Company Forced to Sell to the U.S.A.R. After 50 Years</t>
+  </si>
+  <si>
+    <t>Police Destroy Public Radios in Café During Hijacked Broadcast</t>
+  </si>
+  <si>
+    <t>Government Officials Ban Specific Radio Stations</t>
+  </si>
+  <si>
+    <t>Government Officials Unveil Construction of New Schools</t>
+  </si>
+  <si>
+    <t>Government Cuts Tissue Paper Funding!!!</t>
+  </si>
+  <si>
+    <t>Support From Breminairo Cut. Officials Promise Aid for Those Affected</t>
+  </si>
+  <si>
+    <t>Government Continues to Ban Streaming Sights and Services</t>
+  </si>
+  <si>
+    <t>Country Representative Leaves Stage During A Losing Debate!!!</t>
+  </si>
+  <si>
+    <t>Neighbourhoods Able to Settle Differences… For NOW</t>
+  </si>
+  <si>
+    <t>Towns Form Support Funds and Programs to Aid Each Other In Rising Conflict</t>
+  </si>
+  <si>
+    <t>Local Beloved Hero Dies in Shootout</t>
+  </si>
+  <si>
+    <t>Government Unable to Contain Fight in Game Store</t>
+  </si>
+  <si>
+    <t>Shooter Claims House Pets as Hostages During a House Invasion</t>
+  </si>
+  <si>
+    <t>Government Releases Claims that the a Cure to Rising Illness is Under Way</t>
+  </si>
+  <si>
+    <t>Private Clinics Opened to Diagnose the Virus</t>
+  </si>
+  <si>
+    <t>Crowds Gather at Hospital Doors</t>
+  </si>
+  <si>
+    <t>Lead Epidemic Researcher Lost in Plane Crash</t>
+  </si>
+  <si>
+    <t>Patients Turned Away During Rising Epidemic</t>
+  </si>
+  <si>
+    <t>Wealthy Patients Bribe Their Way Past Waiting Rooms!?!</t>
+  </si>
+  <si>
+    <t>Police Dog Refuses to Attack Defenseless Radical Preacher</t>
+  </si>
+  <si>
+    <t>Radical Radio Station Goes Live to Radios Across The Country To Play Music</t>
+  </si>
+  <si>
+    <t>Arcade with Open Radios Shut Down by Police</t>
+  </si>
+  <si>
+    <t>Woman With Separatist Views Dumped by Nationalist Partner</t>
+  </si>
+  <si>
+    <t>Police Confiscate Electronics from Privately Owned Businesses</t>
+  </si>
+  <si>
+    <t>Emerging Protestors Flashbanged by Rogue Officer</t>
+  </si>
+  <si>
+    <t>Government Provide New Relief Funding to Recently Unemployed Citizens</t>
+  </si>
+  <si>
+    <t>Chairwoman Finds New Love With the President of New Donza</t>
+  </si>
+  <si>
+    <t>Vote for Financial Support From New Donza Fails</t>
+  </si>
+  <si>
+    <t>Governments Attempts to Establish Country Owned Paper Mill Fails</t>
+  </si>
+  <si>
+    <t>U.S.A.R. Releases Official Ban List for Internet Use! More Restrictions!!!</t>
+  </si>
+  <si>
+    <t>Chairmen Missuses Modern Slang During Public Speech</t>
+  </si>
+  <si>
+    <t>Towns Open Shelters for Victims of Riots</t>
+  </si>
+  <si>
+    <t>Refugees From City Centers Plea for Their Lives During Riots</t>
+  </si>
+  <si>
+    <t>Teenage Gang Called the Rattle Snakes Declare War on All Pidgeons!?!</t>
+  </si>
+  <si>
+    <t>Health Officials Release Information On Evolving Cure</t>
+  </si>
+  <si>
+    <t>New Hit Single Cheers Up the Country!</t>
+  </si>
+  <si>
+    <t>Beloved Singer Taken Ill By The Pandemic</t>
+  </si>
+  <si>
+    <t>Doctors Too Busy To Spend Time With Family In Light Of Current Crisis</t>
+  </si>
+  <si>
+    <t>Medical Staff Lock Their Doors to Patients with "Minimal" Symptoms</t>
+  </si>
+  <si>
+    <t>Voice of Broadcast Now Named "Happy Charlie". People Wait to Listen Again</t>
+  </si>
+  <si>
+    <t>Protestors Perform Dance Routine In Front of Government Buildings</t>
+  </si>
+  <si>
+    <t>Graffiti Artist Imprisoned After Completing Building Sized Piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long Lived Graffiti Sight In Abandoned Factory Demolished </t>
+  </si>
+  <si>
+    <t>Police Man Tazes, Sprays and Beats Young Graffiti Artist!!!</t>
+  </si>
+  <si>
+    <t>Police Unable to Corral Protestors Without Violence!?!</t>
+  </si>
+  <si>
+    <t>Chairmen Reveals Plans for New System to Help Find People Jobs!!!</t>
+  </si>
+  <si>
+    <t>New Representative Breaks Down During Speech. Crowd Supports Her!</t>
+  </si>
+  <si>
+    <t>Continued Attempts to Gain Financial Support From Countries Failed</t>
+  </si>
+  <si>
+    <t>Government Defeated By Paper? Attempts Still Look Bleak</t>
+  </si>
+  <si>
+    <t>New Donza Ambassador Slanders the U.S.A.R. During Visit!?!</t>
+  </si>
+  <si>
+    <t>Tourists Openly Insults U.S.A.R. Chairmen During Speech. Crowd Outraged</t>
+  </si>
+  <si>
+    <t>Civil War Bands Formed! Celebrate First Victory In Southern Towns!</t>
+  </si>
+  <si>
+    <t>Dealers Open Up To Supply the War Effort! Cheap Weapons From Nowhere</t>
+  </si>
+  <si>
+    <t>Preaching for Peace Met With Failure and Molotovs</t>
+  </si>
+  <si>
+    <t>People Drive For Change In Streets. Sleeping Civilians Scared for Their Safety</t>
+  </si>
+  <si>
+    <t>First Blood Spilled! Reporting U.S.A.R. Journalist Murdered In Riot</t>
+  </si>
+  <si>
+    <t>Official Medical Remedy Said to Cure Disease Now Released!</t>
+  </si>
+  <si>
+    <t>Medical Vaccination Test On Government Representative Worked!</t>
+  </si>
+  <si>
+    <t>Death's Climbing In View of The Pandemic</t>
+  </si>
+  <si>
+    <t>Children and Elderly Proven to Be More Vulnerable to the Disease</t>
+  </si>
+  <si>
+    <t>Surgeons Walk Out!!!</t>
+  </si>
+  <si>
+    <t>Wealthy Citizens Offered Better Treatment!?!</t>
+  </si>
+  <si>
+    <t>"Happy Charlie" Broadcasts to the Whole Country Again! People Smile</t>
+  </si>
+  <si>
+    <t>Artistic Expression of Independence and Reform Incentivized</t>
+  </si>
+  <si>
+    <t>Police Refuse to Listen to "Brain Washing Broadcasts". Just Some Good Tunes</t>
+  </si>
+  <si>
+    <t>Protestors Long Awaited Art Piece Destroyed in House Fire</t>
+  </si>
+  <si>
+    <t>Police Ordered to Destroy All Privately Owned Radios. House Raids Begin!!!</t>
+  </si>
+  <si>
+    <t>War on "Charlie" Declared. U.S.A.R. Speech Against New Protetors Movement</t>
+  </si>
+  <si>
+    <t>U.S.A.R. Funded Solar Power Plant Now Open! Carbon Emissions Down!</t>
+  </si>
+  <si>
+    <t>Employment Rate Sky Rockets Due to New Government Plan!!!</t>
+  </si>
+  <si>
+    <t>Chairmen Tells Bad Joke</t>
+  </si>
+  <si>
+    <t>Beloved Dog of Chairwoman Passes Away in the Night</t>
+  </si>
+  <si>
+    <t>Governments Repeated Attempts for Financial Trade Met with Harsh Rejection</t>
+  </si>
+  <si>
+    <t>Government Forced to Raise Taxes</t>
+  </si>
+  <si>
+    <t>Arms on Sale!?! Arms Dealers Open Up to All During Civil Conflict!</t>
+  </si>
+  <si>
+    <t>Kids Forced Into Battle!!! Children now Expected to Carry Arms For Safety!</t>
   </si>
 </sst>
 </file>
@@ -539,7 +857,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +867,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
@@ -565,7 +895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -575,11 +905,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -626,16 +977,16 @@
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{A937A89C-83D8-47F8-A939-870491748BB5}" name="Post Number (Integer)"/>
     <tableColumn id="2" xr3:uid="{A8EF90EC-7501-4CAC-9D7B-BE5B573D1E94}" name="Publisher (String)"/>
-    <tableColumn id="3" xr3:uid="{872F46ED-9A97-4884-87EA-B74DD8C9F9BF}" name="Subject (Government, Violence, Health, Radicalism)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{36B97FA6-B33F-4DE1-B9DC-F0FEA9FE8AE1}" name="Day (Integer, 1-8)" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{09621E9C-3C9D-433E-A258-75193CBBC6B5}" name="Reaction (Happy, Sad, Angry)" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{872F46ED-9A97-4884-87EA-B74DD8C9F9BF}" name="Subject (Government, Violence, Health, Radicalism)" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{36B97FA6-B33F-4DE1-B9DC-F0FEA9FE8AE1}" name="Day (Integer, 1-8)" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{09621E9C-3C9D-433E-A258-75193CBBC6B5}" name="Reaction (Happy, Sad, Angry)" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{672F08D8-8913-457E-AE3B-06C0C51FB77F}" name="Hashtag 1 (String)"/>
     <tableColumn id="7" xr3:uid="{138FDF3D-648F-448D-976E-7FA90153CDBA}" name="Hashtag 2 (String)"/>
     <tableColumn id="8" xr3:uid="{D221DCB3-339D-4547-A686-C0A14B78F5A8}" name="Hashtag 3 (String)"/>
     <tableColumn id="9" xr3:uid="{FA9BCD0A-EFD9-4FA2-9B00-B6D8748094C7}" name="Base Engagement (Integer)"/>
     <tableColumn id="10" xr3:uid="{394B2133-9A3B-4549-9628-338B588047E1}" name="Boosted Engagement (Integer)"/>
-    <tableColumn id="11" xr3:uid="{FB8F38F8-7B80-42B3-BABD-6B09E43B42E7}" name="Boost Cost (Float)" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{90123981-6599-4E19-882F-16B99DF735F8}" name="Headline (String)"/>
+    <tableColumn id="11" xr3:uid="{FB8F38F8-7B80-42B3-BABD-6B09E43B42E7}" name="Boost Cost (Float)" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{90123981-6599-4E19-882F-16B99DF735F8}" name="Headline (String)" dataDxfId="0"/>
     <tableColumn id="13" xr3:uid="{72271049-51D5-47E0-973A-28F53D2C997B}" name="Image File Path (String)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -907,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="D160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J175" sqref="J175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>16</v>
@@ -1002,11 +1353,8 @@
       <c r="K2" s="1">
         <v>100</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>113</v>
+      <c r="L2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1014,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>16</v>
@@ -1026,7 +1374,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>20</v>
@@ -1044,10 +1392,10 @@
         <v>156</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1067,13 +1415,13 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -1085,10 +1433,10 @@
         <v>80</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1108,13 +1456,13 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I5">
         <v>75</v>
@@ -1126,10 +1474,10 @@
         <v>75</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1137,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>16</v>
@@ -1149,13 +1497,13 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>117</v>
@@ -1167,10 +1515,10 @@
         <v>121</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1178,7 +1526,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>16</v>
@@ -1190,13 +1538,13 @@
         <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -1207,11 +1555,8 @@
       <c r="K7" s="1">
         <v>131</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" t="s">
-        <v>116</v>
+      <c r="L7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1219,7 +1564,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
@@ -1231,13 +1576,13 @@
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I8">
         <v>75</v>
@@ -1248,11 +1593,8 @@
       <c r="K8" s="1">
         <v>98</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s">
-        <v>117</v>
+      <c r="L8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1260,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>17</v>
@@ -1272,13 +1614,13 @@
         <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I9">
         <v>117</v>
@@ -1289,11 +1631,8 @@
       <c r="K9" s="1">
         <v>132</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" t="s">
-        <v>118</v>
+      <c r="L9" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1301,7 +1640,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>17</v>
@@ -1316,10 +1655,10 @@
         <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>50</v>
@@ -1330,11 +1669,8 @@
       <c r="K10" s="1">
         <v>149</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" t="s">
-        <v>119</v>
+      <c r="L10" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1342,7 +1678,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>17</v>
@@ -1357,10 +1693,10 @@
         <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>75</v>
@@ -1371,11 +1707,8 @@
       <c r="K11" s="1">
         <v>89</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" t="s">
-        <v>120</v>
+      <c r="L11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1383,7 +1716,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>17</v>
@@ -1395,13 +1728,13 @@
         <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I12">
         <v>117</v>
@@ -1412,11 +1745,8 @@
       <c r="K12" s="1">
         <v>69</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" t="s">
-        <v>121</v>
+      <c r="L12" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1424,7 +1754,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>17</v>
@@ -1436,13 +1766,13 @@
         <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I13">
         <v>50</v>
@@ -1453,11 +1783,8 @@
       <c r="K13" s="1">
         <v>50</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" t="s">
-        <v>122</v>
+      <c r="L13" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1465,7 +1792,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>18</v>
@@ -1477,13 +1804,13 @@
         <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I14">
         <v>75</v>
@@ -1495,10 +1822,10 @@
         <v>134</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M14" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1506,7 +1833,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>18</v>
@@ -1518,13 +1845,13 @@
         <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I15">
         <v>117</v>
@@ -1536,10 +1863,10 @@
         <v>78</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1559,13 +1886,13 @@
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I16">
         <v>50</v>
@@ -1576,11 +1903,8 @@
       <c r="K16" s="1">
         <v>145</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" t="s">
-        <v>125</v>
+      <c r="L16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1588,7 +1912,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>18</v>
@@ -1600,13 +1924,13 @@
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I17">
         <v>75</v>
@@ -1618,10 +1942,10 @@
         <v>82</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1629,7 +1953,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>18</v>
@@ -1641,13 +1965,13 @@
         <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I18">
         <v>117</v>
@@ -1658,11 +1982,8 @@
       <c r="K18" s="1">
         <v>175</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" t="s">
-        <v>127</v>
+      <c r="L18" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1682,13 +2003,13 @@
         <v>26</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I19">
         <v>50</v>
@@ -1699,11 +2020,8 @@
       <c r="K19" s="1">
         <v>91</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" t="s">
-        <v>128</v>
+      <c r="L19" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1714,7 +2032,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -1723,13 +2041,13 @@
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I20">
         <v>75</v>
@@ -1741,10 +2059,10 @@
         <v>150</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1752,10 +2070,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
@@ -1764,13 +2082,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I21">
         <v>117</v>
@@ -1782,10 +2100,10 @@
         <v>110</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1796,7 +2114,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -1805,13 +2123,13 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I22">
         <v>50</v>
@@ -1823,10 +2141,10 @@
         <v>60</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M22" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1834,10 +2152,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -1846,13 +2164,13 @@
         <v>24</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I23">
         <v>75</v>
@@ -1864,10 +2182,10 @@
         <v>70</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M23" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1878,7 +2196,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -1887,13 +2205,13 @@
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I24">
         <v>117</v>
@@ -1905,10 +2223,10 @@
         <v>147</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M24" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1916,10 +2234,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -1928,13 +2246,13 @@
         <v>26</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I25">
         <v>50</v>
@@ -1946,10 +2264,10 @@
         <v>90</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M25" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1957,7 +2275,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>16</v>
@@ -1981,10 +2299,10 @@
         <v>100</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="M26" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2004,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
         <v>20</v>
@@ -2016,10 +2334,10 @@
         <v>156</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="M27" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2039,22 +2357,22 @@
         <v>24</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K28" s="1">
         <v>80</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="M28" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2074,22 +2392,22 @@
         <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K29" s="1">
         <v>75</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M29" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2109,22 +2427,22 @@
         <v>26</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K30" s="1">
         <v>121</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M30" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2132,7 +2450,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>16</v>
@@ -2144,22 +2462,22 @@
         <v>26</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K31" s="1">
         <v>131</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="M31" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2167,7 +2485,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>17</v>
@@ -2179,22 +2497,22 @@
         <v>19</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K32" s="1">
         <v>98</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M32" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2202,7 +2520,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>17</v>
@@ -2214,22 +2532,22 @@
         <v>19</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K33" s="1">
         <v>132</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M33" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2237,7 +2555,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>17</v>
@@ -2252,19 +2570,19 @@
         <v>25</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K34" s="1">
         <v>149</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M34" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2272,7 +2590,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>17</v>
@@ -2287,19 +2605,19 @@
         <v>25</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K35" s="1">
         <v>89</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M35" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2307,7 +2625,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>17</v>
@@ -2319,22 +2637,22 @@
         <v>26</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K36" s="1">
         <v>69</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M36" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2354,22 +2672,22 @@
         <v>26</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K37" s="1">
         <v>50</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M37" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2377,7 +2695,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>18</v>
@@ -2389,22 +2707,22 @@
         <v>19</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K38" s="1">
         <v>134</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M38" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2424,22 +2742,22 @@
         <v>19</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K39" s="1">
         <v>78</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M39" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2447,7 +2765,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>18</v>
@@ -2459,22 +2777,22 @@
         <v>24</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K40" s="1">
         <v>145</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M40" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2494,22 +2812,22 @@
         <v>24</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K41" s="1">
         <v>82</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M41" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2517,7 +2835,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>18</v>
@@ -2529,22 +2847,22 @@
         <v>26</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K42" s="1">
         <v>175</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M42" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2552,7 +2870,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>18</v>
@@ -2564,22 +2882,22 @@
         <v>26</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K43" s="1">
         <v>91</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M43" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2590,7 +2908,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="7">
         <v>2</v>
@@ -2599,22 +2917,22 @@
         <v>19</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K44" s="1">
         <v>150</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="M44" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2625,7 +2943,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="7">
         <v>2</v>
@@ -2634,22 +2952,22 @@
         <v>19</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K45" s="1">
         <v>110</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M45" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2657,10 +2975,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
@@ -2669,22 +2987,22 @@
         <v>24</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K46" s="1">
         <v>60</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M46" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2695,7 +3013,7 @@
         <v>15</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="7">
         <v>2</v>
@@ -2704,22 +3022,22 @@
         <v>24</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K47" s="1">
         <v>70</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M47" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2727,10 +3045,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D48" s="7">
         <v>2</v>
@@ -2739,22 +3057,22 @@
         <v>26</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K48" s="1">
         <v>147</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M48" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2762,10 +3080,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="7">
         <v>2</v>
@@ -2774,22 +3092,22 @@
         <v>26</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K49" s="1">
         <v>90</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M49" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2797,7 +3115,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>16</v>
@@ -2820,11 +3138,11 @@
       <c r="K50" s="1">
         <v>100</v>
       </c>
-      <c r="L50" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50" t="s">
-        <v>159</v>
+      <c r="L50" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2832,7 +3150,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>16</v>
@@ -2844,7 +3162,7 @@
         <v>19</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
@@ -2856,7 +3174,7 @@
         <v>156</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2876,19 +3194,19 @@
         <v>24</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K52" s="1">
         <v>80</v>
       </c>
-      <c r="L52" s="5" t="s">
-        <v>59</v>
+      <c r="L52" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2896,7 +3214,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>16</v>
@@ -2908,19 +3226,19 @@
         <v>24</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K53" s="1">
         <v>75</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2940,19 +3258,19 @@
         <v>26</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K54" s="1">
         <v>121</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2960,7 +3278,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>16</v>
@@ -2972,19 +3290,19 @@
         <v>26</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K55" s="1">
         <v>131</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2992,7 +3310,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>17</v>
@@ -3004,19 +3322,19 @@
         <v>19</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K56" s="1">
         <v>98</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3024,7 +3342,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>17</v>
@@ -3036,19 +3354,19 @@
         <v>19</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K57" s="1">
         <v>132</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3056,7 +3374,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>17</v>
@@ -3071,16 +3389,16 @@
         <v>25</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K58" s="1">
         <v>149</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3103,16 +3421,19 @@
         <v>25</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K59" s="1">
         <v>89</v>
       </c>
-      <c r="L59" s="4" t="s">
-        <v>65</v>
+      <c r="L59" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3120,7 +3441,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>17</v>
@@ -3132,19 +3453,19 @@
         <v>26</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K60" s="1">
         <v>69</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3152,7 +3473,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>17</v>
@@ -3164,19 +3485,19 @@
         <v>26</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K61" s="1">
         <v>50</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3184,7 +3505,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>18</v>
@@ -3196,19 +3517,19 @@
         <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K62" s="1">
         <v>134</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3216,7 +3537,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>18</v>
@@ -3228,19 +3549,19 @@
         <v>19</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K63" s="1">
         <v>78</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3248,7 +3569,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>18</v>
@@ -3260,19 +3581,19 @@
         <v>24</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K64" s="1">
         <v>145</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3292,19 +3613,19 @@
         <v>24</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K65" s="1">
         <v>82</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3312,7 +3633,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>18</v>
@@ -3324,19 +3645,19 @@
         <v>26</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K66" s="1">
         <v>175</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3344,7 +3665,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>18</v>
@@ -3356,19 +3677,19 @@
         <v>26</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K67" s="1">
         <v>91</v>
       </c>
-      <c r="L67" s="4" t="s">
-        <v>74</v>
+      <c r="L67" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3376,10 +3697,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" s="7">
         <v>3</v>
@@ -3388,19 +3709,19 @@
         <v>19</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K68" s="1">
         <v>150</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3408,10 +3729,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D69" s="7">
         <v>3</v>
@@ -3420,19 +3741,19 @@
         <v>19</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K69" s="1">
         <v>110</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3440,10 +3761,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D70" s="7">
         <v>3</v>
@@ -3452,19 +3773,19 @@
         <v>24</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K70" s="1">
         <v>60</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3475,7 +3796,7 @@
         <v>14</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D71" s="7">
         <v>3</v>
@@ -3484,19 +3805,19 @@
         <v>24</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K71" s="1">
         <v>70</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3504,10 +3825,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D72" s="7">
         <v>3</v>
@@ -3516,19 +3837,19 @@
         <v>26</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K72" s="1">
         <v>147</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3536,10 +3857,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D73" s="7">
         <v>3</v>
@@ -3548,19 +3869,19 @@
         <v>26</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K73" s="1">
         <v>90</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3592,7 +3913,7 @@
         <v>100</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3600,7 +3921,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>16</v>
@@ -3612,7 +3933,7 @@
         <v>19</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G75" t="s">
         <v>20</v>
@@ -3624,7 +3945,7 @@
         <v>156</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3632,7 +3953,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>16</v>
@@ -3644,19 +3965,19 @@
         <v>24</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K76" s="1">
         <v>80</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3664,7 +3985,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>16</v>
@@ -3676,19 +3997,19 @@
         <v>24</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K77" s="1">
         <v>75</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3708,19 +4029,19 @@
         <v>26</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K78" s="1">
         <v>121</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3728,7 +4049,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>16</v>
@@ -3740,19 +4061,19 @@
         <v>26</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K79" s="1">
         <v>131</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3760,7 +4081,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>17</v>
@@ -3772,27 +4093,27 @@
         <v>19</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K80" s="1">
         <v>98</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>17</v>
@@ -3804,27 +4125,27 @@
         <v>19</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K81" s="1">
         <v>132</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>17</v>
@@ -3839,19 +4160,19 @@
         <v>25</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K82" s="1">
         <v>149</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -3871,24 +4192,27 @@
         <v>25</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K83" s="1">
         <v>89</v>
       </c>
-      <c r="L83" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L83" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>17</v>
@@ -3900,27 +4224,27 @@
         <v>26</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K84" s="1">
         <v>69</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>17</v>
@@ -3932,27 +4256,27 @@
         <v>26</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K85" s="1">
         <v>50</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>18</v>
@@ -3964,22 +4288,22 @@
         <v>19</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K86" s="1">
         <v>134</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -3996,22 +4320,22 @@
         <v>19</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K87" s="1">
         <v>78</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -4028,22 +4352,22 @@
         <v>24</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K88" s="1">
         <v>145</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -4060,27 +4384,27 @@
         <v>24</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K89" s="1">
         <v>82</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>88</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>18</v>
@@ -4092,27 +4416,27 @@
         <v>26</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K90" s="1">
         <v>175</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>18</v>
@@ -4124,30 +4448,30 @@
         <v>26</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K91" s="1">
         <v>91</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>90</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D92" s="7">
         <v>4</v>
@@ -4156,30 +4480,30 @@
         <v>19</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K92" s="1">
         <v>150</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D93" s="7">
         <v>4</v>
@@ -4188,30 +4512,30 @@
         <v>19</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K93" s="1">
         <v>110</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D94" s="7">
         <v>4</v>
@@ -4220,30 +4544,30 @@
         <v>24</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K94" s="1">
         <v>60</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D95" s="7">
         <v>4</v>
@@ -4252,22 +4576,22 @@
         <v>24</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K95" s="1">
         <v>70</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -4275,7 +4599,7 @@
         <v>14</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D96" s="7">
         <v>4</v>
@@ -4284,30 +4608,30 @@
         <v>26</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K96" s="1">
         <v>147</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D97" s="7">
         <v>4</v>
@@ -4316,22 +4640,22 @@
         <v>26</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K97" s="1">
         <v>90</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -4360,15 +4684,15 @@
         <v>100</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>16</v>
@@ -4380,7 +4704,7 @@
         <v>19</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G99" t="s">
         <v>20</v>
@@ -4392,15 +4716,15 @@
         <v>156</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>98</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>16</v>
@@ -4412,27 +4736,27 @@
         <v>24</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K100" s="1">
         <v>80</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>16</v>
@@ -4444,27 +4768,27 @@
         <v>24</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K101" s="1">
         <v>75</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>16</v>
@@ -4476,22 +4800,22 @@
         <v>26</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K102" s="1">
         <v>121</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -4508,27 +4832,27 @@
         <v>26</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K103" s="1">
         <v>131</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>102</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>17</v>
@@ -4540,27 +4864,30 @@
         <v>19</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K104" s="1">
         <v>98</v>
       </c>
-      <c r="L104" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L104" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>17</v>
@@ -4572,22 +4899,22 @@
         <v>19</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K105" s="1">
         <v>132</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -4607,19 +4934,22 @@
         <v>25</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K106" s="1">
         <v>149</v>
       </c>
-      <c r="L106" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L106" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M106" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -4639,24 +4969,24 @@
         <v>25</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K107" s="1">
         <v>89</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>106</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>17</v>
@@ -4668,22 +4998,25 @@
         <v>26</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K108" s="1">
         <v>69</v>
       </c>
-      <c r="L108" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L108" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M108" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -4700,27 +5033,27 @@
         <v>26</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K109" s="1">
         <v>50</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>108</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>18</v>
@@ -4732,22 +5065,22 @@
         <v>19</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K110" s="1">
         <v>134</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -4764,27 +5097,27 @@
         <v>19</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K111" s="1">
         <v>78</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>110</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>18</v>
@@ -4796,27 +5129,27 @@
         <v>24</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K112" s="1">
         <v>145</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>18</v>
@@ -4828,22 +5161,22 @@
         <v>24</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K113" s="1">
         <v>82</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -4860,22 +5193,25 @@
         <v>26</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K114" s="1">
         <v>175</v>
       </c>
-      <c r="L114" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L114" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M114" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>113</v>
       </c>
@@ -4892,30 +5228,30 @@
         <v>26</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K115" s="1">
         <v>91</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>114</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D116" s="7">
         <v>5</v>
@@ -4924,22 +5260,22 @@
         <v>19</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K116" s="1">
         <v>150</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>115</v>
       </c>
@@ -4947,7 +5283,7 @@
         <v>15</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D117" s="7">
         <v>5</v>
@@ -4956,30 +5292,30 @@
         <v>19</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K117" s="1">
         <v>110</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>116</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D118" s="7">
         <v>5</v>
@@ -4988,30 +5324,30 @@
         <v>24</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K118" s="1">
         <v>60</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D119" s="7">
         <v>5</v>
@@ -5020,30 +5356,30 @@
         <v>24</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K119" s="1">
         <v>70</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>118</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D120" s="7">
         <v>5</v>
@@ -5052,30 +5388,30 @@
         <v>26</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K120" s="1">
         <v>147</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D121" s="7">
         <v>5</v>
@@ -5084,27 +5420,27 @@
         <v>26</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K121" s="1">
         <v>90</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>120</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>16</v>
@@ -5128,15 +5464,15 @@
         <v>100</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>16</v>
@@ -5148,7 +5484,7 @@
         <v>19</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G123" t="s">
         <v>20</v>
@@ -5159,16 +5495,16 @@
       <c r="K123" s="1">
         <v>156</v>
       </c>
-      <c r="L123" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L123" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>122</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>16</v>
@@ -5180,27 +5516,27 @@
         <v>24</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K124" s="1">
         <v>80</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>16</v>
@@ -5212,22 +5548,22 @@
         <v>24</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K125" s="1">
         <v>75</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -5244,27 +5580,27 @@
         <v>26</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K126" s="1">
         <v>121</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>16</v>
@@ -5276,27 +5612,27 @@
         <v>26</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K127" s="1">
         <v>131</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>126</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>17</v>
@@ -5308,22 +5644,22 @@
         <v>19</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K128" s="1">
         <v>98</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>127</v>
       </c>
@@ -5340,27 +5676,27 @@
         <v>19</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K129" s="1">
         <v>132</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>128</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>17</v>
@@ -5375,19 +5711,19 @@
         <v>25</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K130" s="1">
         <v>149</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>129</v>
       </c>
@@ -5407,24 +5743,24 @@
         <v>25</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K131" s="1">
         <v>89</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>130</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>17</v>
@@ -5436,27 +5772,30 @@
         <v>26</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K132" s="1">
         <v>69</v>
       </c>
-      <c r="L132" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L132" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M132" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>17</v>
@@ -5468,27 +5807,27 @@
         <v>26</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K133" s="1">
         <v>50</v>
       </c>
-      <c r="L133" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L133" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>132</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>18</v>
@@ -5500,27 +5839,27 @@
         <v>19</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K134" s="1">
         <v>134</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>133</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>18</v>
@@ -5532,22 +5871,22 @@
         <v>19</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K135" s="1">
         <v>78</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -5564,27 +5903,27 @@
         <v>24</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K136" s="1">
         <v>145</v>
       </c>
       <c r="L136" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>135</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>18</v>
@@ -5596,22 +5935,22 @@
         <v>24</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K137" s="1">
         <v>82</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -5628,22 +5967,25 @@
         <v>26</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K138" s="1">
         <v>175</v>
       </c>
-      <c r="L138" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L138" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="M138" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>137</v>
       </c>
@@ -5660,22 +6002,22 @@
         <v>26</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K139" s="1">
         <v>91</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -5683,7 +6025,7 @@
         <v>13</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D140" s="7">
         <v>6</v>
@@ -5692,22 +6034,22 @@
         <v>19</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K140" s="1">
         <v>150</v>
       </c>
       <c r="L140" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>139</v>
       </c>
@@ -5715,7 +6057,7 @@
         <v>14</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D141" s="7">
         <v>6</v>
@@ -5724,30 +6066,30 @@
         <v>19</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K141" s="1">
         <v>110</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>140</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D142" s="7">
         <v>6</v>
@@ -5756,22 +6098,22 @@
         <v>24</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K142" s="1">
         <v>60</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>141</v>
       </c>
@@ -5779,7 +6121,7 @@
         <v>14</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D143" s="7">
         <v>6</v>
@@ -5788,22 +6130,22 @@
         <v>24</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K143" s="1">
         <v>70</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>142</v>
       </c>
@@ -5811,7 +6153,7 @@
         <v>13</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D144" s="7">
         <v>6</v>
@@ -5820,30 +6162,30 @@
         <v>26</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K144" s="1">
         <v>147</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>143</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D145" s="7">
         <v>6</v>
@@ -5852,22 +6194,22 @@
         <v>26</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K145" s="1">
         <v>90</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -5895,16 +6237,16 @@
       <c r="K146" s="1">
         <v>100</v>
       </c>
-      <c r="L146" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L146" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>145</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>16</v>
@@ -5916,7 +6258,7 @@
         <v>19</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G147" t="s">
         <v>20</v>
@@ -5928,15 +6270,15 @@
         <v>156</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>146</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>16</v>
@@ -5948,27 +6290,27 @@
         <v>24</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K148" s="1">
         <v>80</v>
       </c>
       <c r="L148" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>147</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>16</v>
@@ -5980,27 +6322,27 @@
         <v>24</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K149" s="1">
         <v>75</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>148</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>16</v>
@@ -6012,27 +6354,27 @@
         <v>26</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K150" s="1">
         <v>121</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>149</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>16</v>
@@ -6044,22 +6386,22 @@
         <v>26</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K151" s="1">
         <v>131</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -6076,22 +6418,22 @@
         <v>19</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K152" s="1">
         <v>98</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>151</v>
       </c>
@@ -6108,27 +6450,30 @@
         <v>19</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K153" s="1">
         <v>132</v>
       </c>
-      <c r="L153" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L153" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M153" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>152</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>17</v>
@@ -6143,19 +6488,17 @@
         <v>25</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K154" s="1">
         <v>149</v>
       </c>
-      <c r="L154" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L154" s="5"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>153</v>
       </c>
@@ -6175,24 +6518,22 @@
         <v>25</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K155" s="1">
         <v>89</v>
       </c>
-      <c r="L155" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L155" s="4"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>154</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>17</v>
@@ -6204,27 +6545,27 @@
         <v>26</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K156" s="1">
         <v>69</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>155</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>17</v>
@@ -6236,27 +6577,25 @@
         <v>26</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K157" s="1">
         <v>50</v>
       </c>
-      <c r="L157" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L157" s="4"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>156</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>18</v>
@@ -6268,22 +6607,20 @@
         <v>19</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K158" s="1">
         <v>134</v>
       </c>
-      <c r="L158" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L158" s="5"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -6300,27 +6637,25 @@
         <v>19</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K159" s="1">
         <v>78</v>
       </c>
-      <c r="L159" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L159" s="4"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>158</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>18</v>
@@ -6332,27 +6667,25 @@
         <v>24</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K160" s="1">
         <v>145</v>
       </c>
-      <c r="L160" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L160" s="5"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>159</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>18</v>
@@ -6364,22 +6697,20 @@
         <v>24</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K161" s="1">
         <v>82</v>
       </c>
-      <c r="L161" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L161" s="4"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -6396,27 +6727,25 @@
         <v>26</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G162" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K162" s="1">
         <v>175</v>
       </c>
-      <c r="L162" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L162" s="5"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>161</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>18</v>
@@ -6428,30 +6757,28 @@
         <v>26</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G163" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K163" s="1">
         <v>91</v>
       </c>
-      <c r="L163" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L163" s="4"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>162</v>
       </c>
       <c r="B164" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C164" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D164" s="7">
         <v>7</v>
@@ -6460,30 +6787,28 @@
         <v>19</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K164" s="1">
         <v>150</v>
       </c>
-      <c r="L164" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L164" s="5"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>163</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C165" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D165" s="7">
         <v>7</v>
@@ -6492,30 +6817,28 @@
         <v>19</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K165" s="1">
         <v>110</v>
       </c>
-      <c r="L165" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L165" s="4"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>164</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D166" s="7">
         <v>7</v>
@@ -6524,30 +6847,28 @@
         <v>24</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K166" s="1">
         <v>60</v>
       </c>
-      <c r="L166" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L166" s="5"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>165</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D167" s="7">
         <v>7</v>
@@ -6556,22 +6877,20 @@
         <v>24</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K167" s="1">
         <v>70</v>
       </c>
-      <c r="L167" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L167" s="4"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>166</v>
       </c>
@@ -6579,7 +6898,7 @@
         <v>13</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D168" s="7">
         <v>7</v>
@@ -6588,30 +6907,28 @@
         <v>26</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K168" s="1">
         <v>147</v>
       </c>
-      <c r="L168" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L168" s="5"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>167</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C169" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D169" s="7">
         <v>7</v>
@@ -6620,27 +6937,25 @@
         <v>26</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K169" s="1">
         <v>90</v>
       </c>
-      <c r="L169" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L169" s="4"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>168</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>16</v>
@@ -6663,11 +6978,14 @@
       <c r="K170" s="1">
         <v>100</v>
       </c>
-      <c r="L170" s="5" t="s">
+      <c r="L170" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M170" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>169</v>
       </c>
@@ -6684,7 +7002,7 @@
         <v>19</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G171" t="s">
         <v>20</v>
@@ -6695,16 +7013,14 @@
       <c r="K171" s="1">
         <v>156</v>
       </c>
-      <c r="L171" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L171" s="4"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>170</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>16</v>
@@ -6716,27 +7032,25 @@
         <v>24</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K172" s="1">
         <v>80</v>
       </c>
-      <c r="L172" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L172" s="5"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>171</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>16</v>
@@ -6748,22 +7062,20 @@
         <v>24</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K173" s="1">
         <v>75</v>
       </c>
-      <c r="L173" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L173" s="4"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>172</v>
       </c>
@@ -6780,22 +7092,20 @@
         <v>26</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K174" s="1">
         <v>121</v>
       </c>
-      <c r="L174" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L174" s="5"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>173</v>
       </c>
@@ -6812,22 +7122,20 @@
         <v>26</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K175" s="1">
         <v>131</v>
       </c>
-      <c r="L175" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L175" s="4"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -6844,27 +7152,25 @@
         <v>19</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K176" s="1">
         <v>98</v>
       </c>
-      <c r="L176" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L176" s="5"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>175</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>17</v>
@@ -6876,27 +7182,25 @@
         <v>19</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K177" s="1">
         <v>132</v>
       </c>
-      <c r="L177" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L177" s="4"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>176</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>17</v>
@@ -6911,24 +7215,22 @@
         <v>25</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K178" s="1">
         <v>149</v>
       </c>
-      <c r="L178" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L178" s="5"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>177</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>17</v>
@@ -6943,19 +7245,17 @@
         <v>25</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K179" s="1">
         <v>89</v>
       </c>
-      <c r="L179" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L179" s="4"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>178</v>
       </c>
@@ -6972,27 +7272,30 @@
         <v>26</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K180" s="1">
         <v>69</v>
       </c>
-      <c r="L180" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L180" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M180" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>179</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>17</v>
@@ -7004,27 +7307,25 @@
         <v>26</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K181" s="1">
         <v>50</v>
       </c>
-      <c r="L181" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L181" s="4"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>180</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>18</v>
@@ -7036,27 +7337,25 @@
         <v>19</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K182" s="1">
         <v>134</v>
       </c>
-      <c r="L182" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L182" s="5"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>181</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>18</v>
@@ -7068,22 +7367,20 @@
         <v>19</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K183" s="1">
         <v>78</v>
       </c>
-      <c r="L183" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L183" s="4"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>182</v>
       </c>
@@ -7100,27 +7397,25 @@
         <v>24</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K184" s="1">
         <v>145</v>
       </c>
-      <c r="L184" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L184" s="5"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>183</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>18</v>
@@ -7132,27 +7427,25 @@
         <v>24</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K185" s="1">
         <v>82</v>
       </c>
-      <c r="L185" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L185" s="4"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>184</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>18</v>
@@ -7164,27 +7457,25 @@
         <v>26</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G186" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K186" s="1">
         <v>175</v>
       </c>
-      <c r="L186" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L186" s="5"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>185</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>18</v>
@@ -7196,30 +7487,28 @@
         <v>26</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G187" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K187" s="1">
         <v>91</v>
       </c>
-      <c r="L187" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L187" s="4"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>186</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D188" s="7">
         <v>8</v>
@@ -7228,30 +7517,28 @@
         <v>19</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K188" s="1">
         <v>150</v>
       </c>
-      <c r="L188" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L188" s="5"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>187</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D189" s="7">
         <v>8</v>
@@ -7260,30 +7547,28 @@
         <v>19</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K189" s="1">
         <v>110</v>
       </c>
-      <c r="L189" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L189" s="4"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>188</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D190" s="7">
         <v>8</v>
@@ -7292,22 +7577,20 @@
         <v>24</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K190" s="1">
         <v>60</v>
       </c>
-      <c r="L190" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L190" s="5"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>189</v>
       </c>
@@ -7315,7 +7598,7 @@
         <v>13</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D191" s="7">
         <v>8</v>
@@ -7324,30 +7607,28 @@
         <v>24</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K191" s="1">
         <v>70</v>
       </c>
-      <c r="L191" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L191" s="4"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>190</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D192" s="7">
         <v>8</v>
@@ -7356,20 +7637,18 @@
         <v>26</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K192" s="1">
         <v>147</v>
       </c>
-      <c r="L192" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="L192" s="5"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
@@ -7379,7 +7658,7 @@
         <v>13</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D193" s="7">
         <v>8</v>
@@ -7388,20 +7667,18 @@
         <v>26</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K193" s="1">
         <v>90</v>
       </c>
-      <c r="L193" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="L193" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source/Narrative/Media Posts.xlsx
+++ b/Source/Narrative/Media Posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BF4C60-26E6-4875-B3D2-282AC0DB402C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C2CFC0-33DB-4E7F-8C6E-C6C7480642A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="305">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -513,9 +513,6 @@
     <t>Civilian Tackled for Listening to Music!?!</t>
   </si>
   <si>
-    <t>Pidgeon Jumped by Highschoolers</t>
-  </si>
-  <si>
     <t>Police Man Laughs at Deathly Injured Victim of Assault!!!</t>
   </si>
   <si>
@@ -573,9 +570,6 @@
     <t>Driver Run Over By Cyclist Imprisoned for Technicality</t>
   </si>
   <si>
-    <t>Gang of Highschoolers Now Attacking Flocks of Pidgeons in Public!!!</t>
-  </si>
-  <si>
     <t>Clinics Expanding Wait Lists In Sight of Rising Illness</t>
   </si>
   <si>
@@ -702,9 +696,6 @@
     <t>Refugees From City Centers Plea for Their Lives During Riots</t>
   </si>
   <si>
-    <t>Teenage Gang Called the Rattle Snakes Declare War on All Pidgeons!?!</t>
-  </si>
-  <si>
     <t>Health Officials Release Information On Evolving Cure</t>
   </si>
   <si>
@@ -804,9 +795,6 @@
     <t>Police Ordered to Destroy All Privately Owned Radios. House Raids Begin!!!</t>
   </si>
   <si>
-    <t>War on "Charlie" Declared. U.S.A.R. Speech Against New Protetors Movement</t>
-  </si>
-  <si>
     <t>U.S.A.R. Funded Solar Power Plant Now Open! Carbon Emissions Down!</t>
   </si>
   <si>
@@ -828,7 +816,130 @@
     <t>Arms on Sale!?! Arms Dealers Open Up to All During Civil Conflict!</t>
   </si>
   <si>
-    <t>Kids Forced Into Battle!!! Children now Expected to Carry Arms For Safety!</t>
+    <t>Innocent Refugees Caught in Cross Fire! Over 100 Dead!</t>
+  </si>
+  <si>
+    <t>Violence Rising in the U.S.A.R.!!! The Brink of Civil War!</t>
+  </si>
+  <si>
+    <t>War on "Charlie" Declared. U.S.A.R. Speech Against New Protestors Movement</t>
+  </si>
+  <si>
+    <t>Kids Forced Into Battle!!! Children Now Expected to Carry Arms For Safety!</t>
+  </si>
+  <si>
+    <t>Refugee Camps Left For Dead By the Government!!!</t>
+  </si>
+  <si>
+    <t>Results From Official Medication Proving Effective</t>
+  </si>
+  <si>
+    <t>Government Officials Assure People "This Will Be Over By Christmas"</t>
+  </si>
+  <si>
+    <t>Lower Income Housing More Vulnerable to Pandemic</t>
+  </si>
+  <si>
+    <t>Homeless People In Need. Deaths All Time High For Those in Poverty</t>
+  </si>
+  <si>
+    <t>Conspiracy Theorists Preach "The U.S.A.R. Made the Virus!!!"</t>
+  </si>
+  <si>
+    <t>Medication Too Expensive For Low Income Homes. Millions Vulnerable</t>
+  </si>
+  <si>
+    <t>We ArE CoMiNg FoR yOu…</t>
+  </si>
+  <si>
+    <t>"Happy Charlie" Supports A New Government! People Unified!!!</t>
+  </si>
+  <si>
+    <t>Protestors Sing For Change In Unison In Front of Govermment Buildings</t>
+  </si>
+  <si>
+    <t>Police Use Tear Gas on Singing Crowds. Many Protestors Flee.</t>
+  </si>
+  <si>
+    <t>Police Use Violence Against Unarmed Protestors!!!</t>
+  </si>
+  <si>
+    <t>Rain Puts a Damper on Protestors Singing. Many Signs Destroyed</t>
+  </si>
+  <si>
+    <t>Pigeon Jumped by Highschoolers</t>
+  </si>
+  <si>
+    <t>Gang of Highschoolers Now Attacking Flocks of Pigeons in Public!!!</t>
+  </si>
+  <si>
+    <t>Teenage Gang Called the Rattle Snakes Declare War on All Pigeons!?!</t>
+  </si>
+  <si>
+    <t>U.S.A.R. Plans Fireworks Display to Celebrate Employment Rates!</t>
+  </si>
+  <si>
+    <t>Chairman Forced By Other Officials to Apologize For Bad Joke</t>
+  </si>
+  <si>
+    <t>Eldest Chairman Retires After Reaching 87 Years of Age</t>
+  </si>
+  <si>
+    <t>Raised Taxes Said to Last For Years to Come</t>
+  </si>
+  <si>
+    <t>Tourists Can't Attend Political Events Without Invitation!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Plunged Into Civil War! </t>
+  </si>
+  <si>
+    <t>Public Parks and Preserves Turned Into No Man's Land!</t>
+  </si>
+  <si>
+    <t>Government Controlled Military Dispatched To Fight in Conflict</t>
+  </si>
+  <si>
+    <t>Innocents Slaughtered in Grocery Store Firefight!!!</t>
+  </si>
+  <si>
+    <t>Citizen Formed Militias Formed to Protect Their Homes</t>
+  </si>
+  <si>
+    <t>Quarantine Protocols In Effect! People Told To Stay At Home!</t>
+  </si>
+  <si>
+    <t>New Laws In Place To Control The Spread Of The Pandemic</t>
+  </si>
+  <si>
+    <t>Countless Families Lose Loved One's At The Peak Of The Pandemic</t>
+  </si>
+  <si>
+    <t>Websites Open Crowd Funding to Help Support Families In Need</t>
+  </si>
+  <si>
+    <t>Hospitals Over Crowded! Wait Lists A MONTH LONG!!!</t>
+  </si>
+  <si>
+    <t>Health Insurance Too Expensive For So Many!!!</t>
+  </si>
+  <si>
+    <t>"Happy Charlie" Wins Over the Government!!!</t>
+  </si>
+  <si>
+    <t>Government Forced To Re-Elect After Protestors Win Over The Country</t>
+  </si>
+  <si>
+    <t>Radio Voice Of Change Remains Unkown! Who Is Our Saviour?</t>
+  </si>
+  <si>
+    <t>People Gather To Memorialize The Masked Radio Figure</t>
+  </si>
+  <si>
+    <t>Chairman Unwilling To Give Up His Seat To The Vote!</t>
+  </si>
+  <si>
+    <t>Filha Outraged! Storms Out Of Congress In Face Of Protestors!</t>
   </si>
 </sst>
 </file>
@@ -1258,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J175" sqref="J175"/>
+    <sheetView tabSelected="1" topLeftCell="C153" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L194" sqref="L194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,7 +1857,7 @@
         <v>69</v>
       </c>
       <c r="L12" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1784,7 +1895,7 @@
         <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1904,7 +2015,7 @@
         <v>145</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1983,7 +2094,7 @@
         <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2021,7 +2132,7 @@
         <v>91</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2299,7 +2410,7 @@
         <v>100</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M26" t="s">
         <v>129</v>
@@ -2334,7 +2445,7 @@
         <v>156</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M27" t="s">
         <v>130</v>
@@ -2369,7 +2480,7 @@
         <v>80</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M28" t="s">
         <v>131</v>
@@ -2474,7 +2585,7 @@
         <v>131</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M31" t="s">
         <v>134</v>
@@ -2929,7 +3040,7 @@
         <v>150</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M44" t="s">
         <v>147</v>
@@ -3139,7 +3250,7 @@
         <v>100</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M50" s="9" t="s">
         <v>153</v>
@@ -3174,7 +3285,7 @@
         <v>156</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3206,7 +3317,7 @@
         <v>80</v>
       </c>
       <c r="L52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3238,7 +3349,7 @@
         <v>75</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3270,7 +3381,7 @@
         <v>121</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3302,7 +3413,7 @@
         <v>131</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3334,7 +3445,7 @@
         <v>98</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3366,7 +3477,7 @@
         <v>132</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3398,7 +3509,7 @@
         <v>149</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3465,7 +3576,7 @@
         <v>69</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3497,7 +3608,7 @@
         <v>50</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>182</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3529,7 +3640,7 @@
         <v>134</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3561,7 +3672,7 @@
         <v>78</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3593,7 +3704,7 @@
         <v>145</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3625,7 +3736,7 @@
         <v>82</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3657,7 +3768,7 @@
         <v>175</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3689,7 +3800,7 @@
         <v>91</v>
       </c>
       <c r="L67" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3721,7 +3832,7 @@
         <v>150</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3753,7 +3864,7 @@
         <v>110</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3785,7 +3896,7 @@
         <v>60</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3817,7 +3928,7 @@
         <v>70</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3849,7 +3960,7 @@
         <v>147</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3881,7 +3992,7 @@
         <v>90</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3913,7 +4024,7 @@
         <v>100</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3945,7 +4056,7 @@
         <v>156</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3977,7 +4088,7 @@
         <v>80</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -4009,7 +4120,7 @@
         <v>75</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -4041,7 +4152,7 @@
         <v>121</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -4073,7 +4184,7 @@
         <v>131</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -4105,7 +4216,7 @@
         <v>98</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4137,7 +4248,7 @@
         <v>132</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4169,7 +4280,7 @@
         <v>149</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4236,7 +4347,7 @@
         <v>69</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4268,7 +4379,7 @@
         <v>50</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4300,7 +4411,7 @@
         <v>134</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4332,7 +4443,7 @@
         <v>78</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4364,7 +4475,7 @@
         <v>145</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4396,7 +4507,7 @@
         <v>82</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4428,7 +4539,7 @@
         <v>175</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4460,7 +4571,7 @@
         <v>91</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4492,7 +4603,7 @@
         <v>150</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4524,7 +4635,7 @@
         <v>110</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4556,7 +4667,7 @@
         <v>60</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4588,7 +4699,7 @@
         <v>70</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4620,7 +4731,7 @@
         <v>147</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4652,7 +4763,7 @@
         <v>90</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4684,7 +4795,7 @@
         <v>100</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4716,7 +4827,7 @@
         <v>156</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4748,7 +4859,7 @@
         <v>80</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4780,7 +4891,7 @@
         <v>75</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4812,7 +4923,7 @@
         <v>121</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4844,7 +4955,7 @@
         <v>131</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4911,7 +5022,7 @@
         <v>132</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4978,7 +5089,7 @@
         <v>89</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5045,7 +5156,7 @@
         <v>50</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5077,7 +5188,7 @@
         <v>134</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5109,7 +5220,7 @@
         <v>78</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5141,7 +5252,7 @@
         <v>145</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5173,7 +5284,7 @@
         <v>82</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5240,7 +5351,7 @@
         <v>91</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5272,7 +5383,7 @@
         <v>150</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5304,7 +5415,7 @@
         <v>110</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5336,7 +5447,7 @@
         <v>60</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5368,7 +5479,7 @@
         <v>70</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5400,7 +5511,7 @@
         <v>147</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5432,7 +5543,7 @@
         <v>90</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5464,7 +5575,7 @@
         <v>100</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5496,7 +5607,7 @@
         <v>156</v>
       </c>
       <c r="L123" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5528,7 +5639,7 @@
         <v>80</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5560,7 +5671,7 @@
         <v>75</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5592,7 +5703,7 @@
         <v>121</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5624,7 +5735,7 @@
         <v>131</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5656,7 +5767,7 @@
         <v>98</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -5688,7 +5799,7 @@
         <v>132</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -5720,7 +5831,7 @@
         <v>149</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -5752,7 +5863,7 @@
         <v>89</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -5819,7 +5930,7 @@
         <v>50</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -5851,7 +5962,7 @@
         <v>134</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -5883,7 +5994,7 @@
         <v>78</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -5915,7 +6026,7 @@
         <v>145</v>
       </c>
       <c r="L136" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -5947,7 +6058,7 @@
         <v>82</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -5979,7 +6090,7 @@
         <v>175</v>
       </c>
       <c r="L138" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M138" s="9" t="s">
         <v>121</v>
@@ -6014,7 +6125,7 @@
         <v>91</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6046,7 +6157,7 @@
         <v>150</v>
       </c>
       <c r="L140" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6078,7 +6189,7 @@
         <v>110</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6110,7 +6221,7 @@
         <v>60</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6142,7 +6253,7 @@
         <v>70</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6174,7 +6285,7 @@
         <v>147</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6206,7 +6317,7 @@
         <v>90</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6238,7 +6349,7 @@
         <v>100</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6270,7 +6381,7 @@
         <v>156</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6302,7 +6413,7 @@
         <v>80</v>
       </c>
       <c r="L148" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6334,7 +6445,7 @@
         <v>75</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6366,7 +6477,7 @@
         <v>121</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6398,7 +6509,7 @@
         <v>131</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6430,7 +6541,7 @@
         <v>98</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6496,7 +6607,9 @@
       <c r="K154" s="1">
         <v>149</v>
       </c>
-      <c r="L154" s="5"/>
+      <c r="L154" s="5" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
@@ -6526,7 +6639,9 @@
       <c r="K155" s="1">
         <v>89</v>
       </c>
-      <c r="L155" s="4"/>
+      <c r="L155" s="4" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
@@ -6557,7 +6672,7 @@
         <v>69</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -6588,7 +6703,9 @@
       <c r="K157" s="1">
         <v>50</v>
       </c>
-      <c r="L157" s="4"/>
+      <c r="L157" s="4" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
@@ -6618,7 +6735,9 @@
       <c r="K158" s="1">
         <v>134</v>
       </c>
-      <c r="L158" s="5"/>
+      <c r="L158" s="5" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
@@ -6648,7 +6767,9 @@
       <c r="K159" s="1">
         <v>78</v>
       </c>
-      <c r="L159" s="4"/>
+      <c r="L159" s="4" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
@@ -6678,7 +6799,9 @@
       <c r="K160" s="1">
         <v>145</v>
       </c>
-      <c r="L160" s="5"/>
+      <c r="L160" s="5" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
@@ -6708,7 +6831,9 @@
       <c r="K161" s="1">
         <v>82</v>
       </c>
-      <c r="L161" s="4"/>
+      <c r="L161" s="4" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
@@ -6738,7 +6863,9 @@
       <c r="K162" s="1">
         <v>175</v>
       </c>
-      <c r="L162" s="5"/>
+      <c r="L162" s="5" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
@@ -6768,7 +6895,9 @@
       <c r="K163" s="1">
         <v>91</v>
       </c>
-      <c r="L163" s="4"/>
+      <c r="L163" s="4" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
@@ -6798,7 +6927,9 @@
       <c r="K164" s="1">
         <v>150</v>
       </c>
-      <c r="L164" s="5"/>
+      <c r="L164" s="5" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
@@ -6828,7 +6959,9 @@
       <c r="K165" s="1">
         <v>110</v>
       </c>
-      <c r="L165" s="4"/>
+      <c r="L165" s="4" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
@@ -6858,7 +6991,9 @@
       <c r="K166" s="1">
         <v>60</v>
       </c>
-      <c r="L166" s="5"/>
+      <c r="L166" s="5" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
@@ -6888,7 +7023,9 @@
       <c r="K167" s="1">
         <v>70</v>
       </c>
-      <c r="L167" s="4"/>
+      <c r="L167" s="4" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
@@ -6918,7 +7055,9 @@
       <c r="K168" s="1">
         <v>147</v>
       </c>
-      <c r="L168" s="5"/>
+      <c r="L168" s="5" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
@@ -6948,7 +7087,9 @@
       <c r="K169" s="1">
         <v>90</v>
       </c>
-      <c r="L169" s="4"/>
+      <c r="L169" s="4" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
@@ -7013,7 +7154,9 @@
       <c r="K171" s="1">
         <v>156</v>
       </c>
-      <c r="L171" s="4"/>
+      <c r="L171" s="4" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
@@ -7043,7 +7186,9 @@
       <c r="K172" s="1">
         <v>80</v>
       </c>
-      <c r="L172" s="5"/>
+      <c r="L172" s="5" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
@@ -7073,7 +7218,9 @@
       <c r="K173" s="1">
         <v>75</v>
       </c>
-      <c r="L173" s="4"/>
+      <c r="L173" s="4" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
@@ -7103,7 +7250,9 @@
       <c r="K174" s="1">
         <v>121</v>
       </c>
-      <c r="L174" s="5"/>
+      <c r="L174" s="5" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
@@ -7133,7 +7282,9 @@
       <c r="K175" s="1">
         <v>131</v>
       </c>
-      <c r="L175" s="4"/>
+      <c r="L175" s="4" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
@@ -7163,7 +7314,9 @@
       <c r="K176" s="1">
         <v>98</v>
       </c>
-      <c r="L176" s="5"/>
+      <c r="L176" s="5" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
@@ -7193,7 +7346,9 @@
       <c r="K177" s="1">
         <v>132</v>
       </c>
-      <c r="L177" s="4"/>
+      <c r="L177" s="4" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
@@ -7223,7 +7378,9 @@
       <c r="K178" s="1">
         <v>149</v>
       </c>
-      <c r="L178" s="5"/>
+      <c r="L178" s="5" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
@@ -7253,7 +7410,9 @@
       <c r="K179" s="1">
         <v>89</v>
       </c>
-      <c r="L179" s="4"/>
+      <c r="L179" s="4" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
@@ -7318,7 +7477,9 @@
       <c r="K181" s="1">
         <v>50</v>
       </c>
-      <c r="L181" s="4"/>
+      <c r="L181" s="4" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
@@ -7348,7 +7509,9 @@
       <c r="K182" s="1">
         <v>134</v>
       </c>
-      <c r="L182" s="5"/>
+      <c r="L182" s="5" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
@@ -7378,7 +7541,9 @@
       <c r="K183" s="1">
         <v>78</v>
       </c>
-      <c r="L183" s="4"/>
+      <c r="L183" s="4" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
@@ -7408,7 +7573,9 @@
       <c r="K184" s="1">
         <v>145</v>
       </c>
-      <c r="L184" s="5"/>
+      <c r="L184" s="5" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
@@ -7438,7 +7605,9 @@
       <c r="K185" s="1">
         <v>82</v>
       </c>
-      <c r="L185" s="4"/>
+      <c r="L185" s="4" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
@@ -7468,7 +7637,9 @@
       <c r="K186" s="1">
         <v>175</v>
       </c>
-      <c r="L186" s="5"/>
+      <c r="L186" s="5" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
@@ -7498,7 +7669,9 @@
       <c r="K187" s="1">
         <v>91</v>
       </c>
-      <c r="L187" s="4"/>
+      <c r="L187" s="4" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
@@ -7528,7 +7701,9 @@
       <c r="K188" s="1">
         <v>150</v>
       </c>
-      <c r="L188" s="5"/>
+      <c r="L188" s="5" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
@@ -7558,7 +7733,9 @@
       <c r="K189" s="1">
         <v>110</v>
       </c>
-      <c r="L189" s="4"/>
+      <c r="L189" s="4" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
@@ -7588,7 +7765,9 @@
       <c r="K190" s="1">
         <v>60</v>
       </c>
-      <c r="L190" s="5"/>
+      <c r="L190" s="5" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
@@ -7618,7 +7797,9 @@
       <c r="K191" s="1">
         <v>70</v>
       </c>
-      <c r="L191" s="4"/>
+      <c r="L191" s="4" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
@@ -7648,7 +7829,9 @@
       <c r="K192" s="1">
         <v>147</v>
       </c>
-      <c r="L192" s="5"/>
+      <c r="L192" s="5" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
@@ -7678,7 +7861,9 @@
       <c r="K193" s="1">
         <v>90</v>
       </c>
-      <c r="L193" s="4"/>
+      <c r="L193" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source/Narrative/Media Posts.xlsx
+++ b/Source/Narrative/Media Posts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsp1\Documents\GitHub\The-Cool-Guys\UnderChoices\Source\Narrative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Desktop\Computer Science\BGDS Yr-03 Semester 06_Design_Practice_04\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C2CFC0-33DB-4E7F-8C6E-C6C7480642A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04160AC5-8727-434D-9222-0EC6047FE1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1369,22 +1369,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C153" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L194" sqref="L194"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="50.42578125" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="18.7109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="5" max="5" width="29.28515625" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="6" max="8" width="18.85546875" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="9" max="9" width="27.5703125" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="10" max="10" width="30.85546875" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="11" max="11" width="19" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="12" max="12" width="63.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7866,6 +7866,11 @@
       </c>
     </row>
   </sheetData>
+  <dataConsolidate>
+    <dataRefs count="1">
+      <dataRef ref="B1:K1048576" sheet="Sheet1"/>
+    </dataRefs>
+  </dataConsolidate>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Source/Narrative/Media Posts.xlsx
+++ b/Source/Narrative/Media Posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Desktop\Computer Science\BGDS Yr-03 Semester 06_Design_Practice_04\Source\Narrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04160AC5-8727-434D-9222-0EC6047FE1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2C7DC7-9CA4-45F2-98B1-59BBAD967B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="448">
   <si>
     <t>Post Number (Integer)</t>
   </si>
@@ -348,153 +348,6 @@
     <t>Messiah</t>
   </si>
   <si>
-    <t>media_post_0.jpg</t>
-  </si>
-  <si>
-    <t>media_post_3.jpg</t>
-  </si>
-  <si>
-    <t>media_post_4.jpg</t>
-  </si>
-  <si>
-    <t>media_post_5.jpg</t>
-  </si>
-  <si>
-    <t>media_post_6.jpg</t>
-  </si>
-  <si>
-    <t>media_post_7.jpg</t>
-  </si>
-  <si>
-    <t>media_post_8.jpg</t>
-  </si>
-  <si>
-    <t>media_post_9.jpg</t>
-  </si>
-  <si>
-    <t>media_post_10.jpg</t>
-  </si>
-  <si>
-    <t>media_post_11.jpg</t>
-  </si>
-  <si>
-    <t>media_post_12.jpg</t>
-  </si>
-  <si>
-    <t>media_post_13.jpg</t>
-  </si>
-  <si>
-    <t>media_post_14.jpg</t>
-  </si>
-  <si>
-    <t>media_post_15.jpg</t>
-  </si>
-  <si>
-    <t>media_post_16.jpg</t>
-  </si>
-  <si>
-    <t>media_post_17.jpg</t>
-  </si>
-  <si>
-    <t>media_post_18.jpg</t>
-  </si>
-  <si>
-    <t>media_post_19.jpg</t>
-  </si>
-  <si>
-    <t>media_post_20.jpg</t>
-  </si>
-  <si>
-    <t>media_post_21.jpg</t>
-  </si>
-  <si>
-    <t>media_post_22.jpg</t>
-  </si>
-  <si>
-    <t>media_post_23.jpg</t>
-  </si>
-  <si>
-    <t>media_post_24.jpg</t>
-  </si>
-  <si>
-    <t>media_post_25.jpg</t>
-  </si>
-  <si>
-    <t>media_post_26.jpg</t>
-  </si>
-  <si>
-    <t>media_post_27.jpg</t>
-  </si>
-  <si>
-    <t>media_post_28.jpg</t>
-  </si>
-  <si>
-    <t>media_post_29.jpg</t>
-  </si>
-  <si>
-    <t>media_post_30.jpg</t>
-  </si>
-  <si>
-    <t>media_post_31.jpg</t>
-  </si>
-  <si>
-    <t>media_post_32.jpg</t>
-  </si>
-  <si>
-    <t>media_post_33.jpg</t>
-  </si>
-  <si>
-    <t>media_post_34.jpg</t>
-  </si>
-  <si>
-    <t>media_post_35.jpg</t>
-  </si>
-  <si>
-    <t>media_post_36.jpg</t>
-  </si>
-  <si>
-    <t>media_post_37.jpg</t>
-  </si>
-  <si>
-    <t>media_post_38.jpg</t>
-  </si>
-  <si>
-    <t>media_post_39.jpg</t>
-  </si>
-  <si>
-    <t>media_post_40.jpg</t>
-  </si>
-  <si>
-    <t>media_post_41.jpg</t>
-  </si>
-  <si>
-    <t>media_post_42.jpg</t>
-  </si>
-  <si>
-    <t>media_post_43.jpg</t>
-  </si>
-  <si>
-    <t>media_post_44.jpg</t>
-  </si>
-  <si>
-    <t>media_post_45.jpg</t>
-  </si>
-  <si>
-    <t>media_post_46.jpg</t>
-  </si>
-  <si>
-    <t>media_post_47.jpg</t>
-  </si>
-  <si>
-    <t>media_post_48.jpg</t>
-  </si>
-  <si>
-    <t>media_post_1.jpg</t>
-  </si>
-  <si>
-    <t>media_post_2.jpg</t>
-  </si>
-  <si>
     <t>U.S.A.R. Declares Smile Day a New Holiday!</t>
   </si>
   <si>
@@ -940,13 +793,589 @@
   </si>
   <si>
     <t>Filha Outraged! Storms Out Of Congress In Face Of Protestors!</t>
+  </si>
+  <si>
+    <t>media_post_0</t>
+  </si>
+  <si>
+    <t>media_post_5</t>
+  </si>
+  <si>
+    <t>media_post_6</t>
+  </si>
+  <si>
+    <t>media_post_7</t>
+  </si>
+  <si>
+    <t>media_post_8</t>
+  </si>
+  <si>
+    <t>media_post_9</t>
+  </si>
+  <si>
+    <t>media_post_10</t>
+  </si>
+  <si>
+    <t>media_post_11</t>
+  </si>
+  <si>
+    <t>media_post_14</t>
+  </si>
+  <si>
+    <t>media_post_16</t>
+  </si>
+  <si>
+    <t>media_post_17</t>
+  </si>
+  <si>
+    <t>media_post_1</t>
+  </si>
+  <si>
+    <t>media_post_2</t>
+  </si>
+  <si>
+    <t>media_post_3</t>
+  </si>
+  <si>
+    <t>media_post_4</t>
+  </si>
+  <si>
+    <t>media_post_12</t>
+  </si>
+  <si>
+    <t>media_post_13</t>
+  </si>
+  <si>
+    <t>media_post_15</t>
+  </si>
+  <si>
+    <t>media_post_18</t>
+  </si>
+  <si>
+    <t>media_post_19</t>
+  </si>
+  <si>
+    <t>media_post_20</t>
+  </si>
+  <si>
+    <t>media_post_21</t>
+  </si>
+  <si>
+    <t>media_post_22</t>
+  </si>
+  <si>
+    <t>media_post_23</t>
+  </si>
+  <si>
+    <t>media_post_24</t>
+  </si>
+  <si>
+    <t>media_post_25</t>
+  </si>
+  <si>
+    <t>media_post_26</t>
+  </si>
+  <si>
+    <t>media_post_27</t>
+  </si>
+  <si>
+    <t>media_post_28</t>
+  </si>
+  <si>
+    <t>media_post_29</t>
+  </si>
+  <si>
+    <t>media_post_30</t>
+  </si>
+  <si>
+    <t>media_post_31</t>
+  </si>
+  <si>
+    <t>media_post_32</t>
+  </si>
+  <si>
+    <t>media_post_33</t>
+  </si>
+  <si>
+    <t>media_post_34</t>
+  </si>
+  <si>
+    <t>media_post_35</t>
+  </si>
+  <si>
+    <t>media_post_36</t>
+  </si>
+  <si>
+    <t>media_post_37</t>
+  </si>
+  <si>
+    <t>media_post_38</t>
+  </si>
+  <si>
+    <t>media_post_39</t>
+  </si>
+  <si>
+    <t>media_post_40</t>
+  </si>
+  <si>
+    <t>media_post_41</t>
+  </si>
+  <si>
+    <t>media_post_42</t>
+  </si>
+  <si>
+    <t>media_post_43</t>
+  </si>
+  <si>
+    <t>media_post_44</t>
+  </si>
+  <si>
+    <t>media_post_45</t>
+  </si>
+  <si>
+    <t>media_post_46</t>
+  </si>
+  <si>
+    <t>media_post_47</t>
+  </si>
+  <si>
+    <t>media_post_48</t>
+  </si>
+  <si>
+    <t>media_post_49</t>
+  </si>
+  <si>
+    <t>media_post_50</t>
+  </si>
+  <si>
+    <t>media_post_51</t>
+  </si>
+  <si>
+    <t>media_post_52</t>
+  </si>
+  <si>
+    <t>media_post_53</t>
+  </si>
+  <si>
+    <t>media_post_54</t>
+  </si>
+  <si>
+    <t>media_post_55</t>
+  </si>
+  <si>
+    <t>media_post_56</t>
+  </si>
+  <si>
+    <t>media_post_57</t>
+  </si>
+  <si>
+    <t>media_post_58</t>
+  </si>
+  <si>
+    <t>media_post_59</t>
+  </si>
+  <si>
+    <t>media_post_60</t>
+  </si>
+  <si>
+    <t>media_post_61</t>
+  </si>
+  <si>
+    <t>media_post_62</t>
+  </si>
+  <si>
+    <t>media_post_63</t>
+  </si>
+  <si>
+    <t>media_post_64</t>
+  </si>
+  <si>
+    <t>media_post_65</t>
+  </si>
+  <si>
+    <t>media_post_66</t>
+  </si>
+  <si>
+    <t>media_post_67</t>
+  </si>
+  <si>
+    <t>media_post_68</t>
+  </si>
+  <si>
+    <t>media_post_69</t>
+  </si>
+  <si>
+    <t>media_post_70</t>
+  </si>
+  <si>
+    <t>media_post_71</t>
+  </si>
+  <si>
+    <t>media_post_72</t>
+  </si>
+  <si>
+    <t>media_post_73</t>
+  </si>
+  <si>
+    <t>media_post_74</t>
+  </si>
+  <si>
+    <t>media_post_75</t>
+  </si>
+  <si>
+    <t>media_post_76</t>
+  </si>
+  <si>
+    <t>media_post_77</t>
+  </si>
+  <si>
+    <t>media_post_78</t>
+  </si>
+  <si>
+    <t>media_post_79</t>
+  </si>
+  <si>
+    <t>media_post_80</t>
+  </si>
+  <si>
+    <t>media_post_81</t>
+  </si>
+  <si>
+    <t>media_post_82</t>
+  </si>
+  <si>
+    <t>media_post_83</t>
+  </si>
+  <si>
+    <t>media_post_84</t>
+  </si>
+  <si>
+    <t>media_post_85</t>
+  </si>
+  <si>
+    <t>media_post_86</t>
+  </si>
+  <si>
+    <t>media_post_87</t>
+  </si>
+  <si>
+    <t>media_post_88</t>
+  </si>
+  <si>
+    <t>media_post_89</t>
+  </si>
+  <si>
+    <t>media_post_90</t>
+  </si>
+  <si>
+    <t>media_post_91</t>
+  </si>
+  <si>
+    <t>media_post_92</t>
+  </si>
+  <si>
+    <t>media_post_93</t>
+  </si>
+  <si>
+    <t>media_post_94</t>
+  </si>
+  <si>
+    <t>media_post_95</t>
+  </si>
+  <si>
+    <t>media_post_96</t>
+  </si>
+  <si>
+    <t>media_post_97</t>
+  </si>
+  <si>
+    <t>media_post_98</t>
+  </si>
+  <si>
+    <t>media_post_99</t>
+  </si>
+  <si>
+    <t>media_post_100</t>
+  </si>
+  <si>
+    <t>media_post_101</t>
+  </si>
+  <si>
+    <t>media_post_102</t>
+  </si>
+  <si>
+    <t>media_post_103</t>
+  </si>
+  <si>
+    <t>media_post_104</t>
+  </si>
+  <si>
+    <t>media_post_105</t>
+  </si>
+  <si>
+    <t>media_post_106</t>
+  </si>
+  <si>
+    <t>media_post_107</t>
+  </si>
+  <si>
+    <t>media_post_108</t>
+  </si>
+  <si>
+    <t>media_post_109</t>
+  </si>
+  <si>
+    <t>media_post_110</t>
+  </si>
+  <si>
+    <t>media_post_111</t>
+  </si>
+  <si>
+    <t>media_post_112</t>
+  </si>
+  <si>
+    <t>media_post_113</t>
+  </si>
+  <si>
+    <t>media_post_114</t>
+  </si>
+  <si>
+    <t>media_post_115</t>
+  </si>
+  <si>
+    <t>media_post_116</t>
+  </si>
+  <si>
+    <t>media_post_117</t>
+  </si>
+  <si>
+    <t>media_post_118</t>
+  </si>
+  <si>
+    <t>media_post_119</t>
+  </si>
+  <si>
+    <t>media_post_120</t>
+  </si>
+  <si>
+    <t>media_post_121</t>
+  </si>
+  <si>
+    <t>media_post_122</t>
+  </si>
+  <si>
+    <t>media_post_123</t>
+  </si>
+  <si>
+    <t>media_post_124</t>
+  </si>
+  <si>
+    <t>media_post_125</t>
+  </si>
+  <si>
+    <t>media_post_126</t>
+  </si>
+  <si>
+    <t>media_post_127</t>
+  </si>
+  <si>
+    <t>media_post_128</t>
+  </si>
+  <si>
+    <t>media_post_129</t>
+  </si>
+  <si>
+    <t>media_post_130</t>
+  </si>
+  <si>
+    <t>media_post_131</t>
+  </si>
+  <si>
+    <t>media_post_132</t>
+  </si>
+  <si>
+    <t>media_post_133</t>
+  </si>
+  <si>
+    <t>media_post_134</t>
+  </si>
+  <si>
+    <t>media_post_135</t>
+  </si>
+  <si>
+    <t>media_post_136</t>
+  </si>
+  <si>
+    <t>media_post_137</t>
+  </si>
+  <si>
+    <t>media_post_138</t>
+  </si>
+  <si>
+    <t>media_post_139</t>
+  </si>
+  <si>
+    <t>media_post_140</t>
+  </si>
+  <si>
+    <t>media_post_141</t>
+  </si>
+  <si>
+    <t>media_post_142</t>
+  </si>
+  <si>
+    <t>media_post_143</t>
+  </si>
+  <si>
+    <t>media_post_144</t>
+  </si>
+  <si>
+    <t>media_post_145</t>
+  </si>
+  <si>
+    <t>media_post_146</t>
+  </si>
+  <si>
+    <t>media_post_147</t>
+  </si>
+  <si>
+    <t>media_post_148</t>
+  </si>
+  <si>
+    <t>media_post_149</t>
+  </si>
+  <si>
+    <t>media_post_150</t>
+  </si>
+  <si>
+    <t>media_post_151</t>
+  </si>
+  <si>
+    <t>media_post_152</t>
+  </si>
+  <si>
+    <t>media_post_153</t>
+  </si>
+  <si>
+    <t>media_post_154</t>
+  </si>
+  <si>
+    <t>media_post_155</t>
+  </si>
+  <si>
+    <t>media_post_156</t>
+  </si>
+  <si>
+    <t>media_post_157</t>
+  </si>
+  <si>
+    <t>media_post_158</t>
+  </si>
+  <si>
+    <t>media_post_159</t>
+  </si>
+  <si>
+    <t>media_post_160</t>
+  </si>
+  <si>
+    <t>media_post_161</t>
+  </si>
+  <si>
+    <t>media_post_162</t>
+  </si>
+  <si>
+    <t>media_post_163</t>
+  </si>
+  <si>
+    <t>media_post_164</t>
+  </si>
+  <si>
+    <t>media_post_165</t>
+  </si>
+  <si>
+    <t>media_post_166</t>
+  </si>
+  <si>
+    <t>media_post_167</t>
+  </si>
+  <si>
+    <t>media_post_168</t>
+  </si>
+  <si>
+    <t>media_post_169</t>
+  </si>
+  <si>
+    <t>media_post_170</t>
+  </si>
+  <si>
+    <t>media_post_171</t>
+  </si>
+  <si>
+    <t>media_post_172</t>
+  </si>
+  <si>
+    <t>media_post_173</t>
+  </si>
+  <si>
+    <t>media_post_174</t>
+  </si>
+  <si>
+    <t>media_post_175</t>
+  </si>
+  <si>
+    <t>media_post_176</t>
+  </si>
+  <si>
+    <t>media_post_177</t>
+  </si>
+  <si>
+    <t>media_post_178</t>
+  </si>
+  <si>
+    <t>media_post_179</t>
+  </si>
+  <si>
+    <t>media_post_180</t>
+  </si>
+  <si>
+    <t>media_post_181</t>
+  </si>
+  <si>
+    <t>media_post_182</t>
+  </si>
+  <si>
+    <t>media_post_183</t>
+  </si>
+  <si>
+    <t>media_post_184</t>
+  </si>
+  <si>
+    <t>media_post_185</t>
+  </si>
+  <si>
+    <t>media_post_186</t>
+  </si>
+  <si>
+    <t>media_post_187</t>
+  </si>
+  <si>
+    <t>media_post_188</t>
+  </si>
+  <si>
+    <t>media_post_189</t>
+  </si>
+  <si>
+    <t>media_post_190</t>
+  </si>
+  <si>
+    <t>media_post_191</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,8 +1396,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -978,18 +1413,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FFDDEBF7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
@@ -1006,7 +1429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1016,9 +1439,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1369,22 +1789,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="50.42578125" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="18.7109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="5" max="5" width="29.28515625" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="6" max="8" width="18.85546875" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="9" max="9" width="27.5703125" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="10" max="10" width="30.85546875" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="11" max="11" width="19" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="12" max="12" width="63.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="50.42578125" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1" outlineLevel="2"/>
+    <col min="6" max="8" width="18.85546875" customWidth="1" outlineLevel="2"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1" outlineLevel="2"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1" outlineLevel="2"/>
+    <col min="11" max="11" width="19" customWidth="1" outlineLevel="2"/>
+    <col min="12" max="12" width="63.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1465,7 +1885,10 @@
         <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>156</v>
+        <v>107</v>
+      </c>
+      <c r="M2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1506,7 +1929,7 @@
         <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1547,7 +1970,7 @@
         <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>155</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1588,7 +2011,7 @@
         <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1629,7 +2052,7 @@
         <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>109</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1667,7 +2090,10 @@
         <v>131</v>
       </c>
       <c r="L7" t="s">
-        <v>157</v>
+        <v>108</v>
+      </c>
+      <c r="M7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1705,7 +2131,10 @@
         <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>158</v>
+        <v>109</v>
+      </c>
+      <c r="M8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1743,7 +2172,10 @@
         <v>132</v>
       </c>
       <c r="L9" t="s">
-        <v>159</v>
+        <v>110</v>
+      </c>
+      <c r="M9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1781,7 +2213,10 @@
         <v>149</v>
       </c>
       <c r="L10" t="s">
-        <v>160</v>
+        <v>111</v>
+      </c>
+      <c r="M10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1819,7 +2254,10 @@
         <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>161</v>
+        <v>112</v>
+      </c>
+      <c r="M11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1857,7 +2295,10 @@
         <v>69</v>
       </c>
       <c r="L12" t="s">
-        <v>280</v>
+        <v>231</v>
+      </c>
+      <c r="M12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1895,7 +2336,10 @@
         <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>162</v>
+        <v>113</v>
+      </c>
+      <c r="M13" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1936,7 +2380,7 @@
         <v>45</v>
       </c>
       <c r="M14" t="s">
-        <v>117</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1977,7 +2421,7 @@
         <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>118</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2015,7 +2459,10 @@
         <v>145</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>114</v>
+      </c>
+      <c r="M16" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2056,7 +2503,7 @@
         <v>48</v>
       </c>
       <c r="M17" t="s">
-        <v>120</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2094,7 +2541,10 @@
         <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>164</v>
+        <v>115</v>
+      </c>
+      <c r="M18" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2132,7 +2582,10 @@
         <v>91</v>
       </c>
       <c r="L19" t="s">
-        <v>165</v>
+        <v>116</v>
+      </c>
+      <c r="M19" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2173,7 +2626,7 @@
         <v>50</v>
       </c>
       <c r="M20" t="s">
-        <v>123</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2214,7 +2667,7 @@
         <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>124</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2255,7 +2708,7 @@
         <v>52</v>
       </c>
       <c r="M22" t="s">
-        <v>125</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2296,7 +2749,7 @@
         <v>53</v>
       </c>
       <c r="M23" t="s">
-        <v>126</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2337,7 +2790,7 @@
         <v>54</v>
       </c>
       <c r="M24" t="s">
-        <v>127</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2378,7 +2831,7 @@
         <v>55</v>
       </c>
       <c r="M25" t="s">
-        <v>128</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2410,10 +2863,10 @@
         <v>100</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="M26" t="s">
-        <v>129</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2445,10 +2898,10 @@
         <v>156</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="M27" t="s">
-        <v>130</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2480,10 +2933,10 @@
         <v>80</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="M28" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2518,7 +2971,7 @@
         <v>56</v>
       </c>
       <c r="M29" t="s">
-        <v>132</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2553,7 +3006,7 @@
         <v>57</v>
       </c>
       <c r="M30" t="s">
-        <v>133</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2585,10 +3038,10 @@
         <v>131</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="M31" t="s">
-        <v>134</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2623,7 +3076,7 @@
         <v>58</v>
       </c>
       <c r="M32" t="s">
-        <v>135</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2658,7 +3111,7 @@
         <v>59</v>
       </c>
       <c r="M33" t="s">
-        <v>136</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2693,7 +3146,7 @@
         <v>60</v>
       </c>
       <c r="M34" t="s">
-        <v>137</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2728,7 +3181,7 @@
         <v>61</v>
       </c>
       <c r="M35" t="s">
-        <v>138</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2763,7 +3216,7 @@
         <v>62</v>
       </c>
       <c r="M36" t="s">
-        <v>139</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2798,7 +3251,7 @@
         <v>63</v>
       </c>
       <c r="M37" t="s">
-        <v>140</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2833,7 +3286,7 @@
         <v>64</v>
       </c>
       <c r="M38" t="s">
-        <v>141</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2868,7 +3321,7 @@
         <v>65</v>
       </c>
       <c r="M39" t="s">
-        <v>142</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2903,7 +3356,7 @@
         <v>66</v>
       </c>
       <c r="M40" t="s">
-        <v>143</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2938,7 +3391,7 @@
         <v>67</v>
       </c>
       <c r="M41" t="s">
-        <v>144</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2973,7 +3426,7 @@
         <v>68</v>
       </c>
       <c r="M42" t="s">
-        <v>145</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -3008,7 +3461,7 @@
         <v>69</v>
       </c>
       <c r="M43" t="s">
-        <v>146</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -3040,10 +3493,10 @@
         <v>150</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="M44" t="s">
-        <v>147</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -3078,7 +3531,7 @@
         <v>74</v>
       </c>
       <c r="M45" t="s">
-        <v>148</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3113,7 +3566,7 @@
         <v>70</v>
       </c>
       <c r="M46" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -3148,7 +3601,7 @@
         <v>71</v>
       </c>
       <c r="M47" t="s">
-        <v>150</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -3183,7 +3636,7 @@
         <v>72</v>
       </c>
       <c r="M48" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -3218,7 +3671,7 @@
         <v>73</v>
       </c>
       <c r="M49" t="s">
-        <v>152</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -3250,10 +3703,10 @@
         <v>100</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>153</v>
+        <v>122</v>
+      </c>
+      <c r="M50" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -3285,7 +3738,10 @@
         <v>156</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>172</v>
+        <v>123</v>
+      </c>
+      <c r="M51" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3317,7 +3773,10 @@
         <v>80</v>
       </c>
       <c r="L52" t="s">
-        <v>173</v>
+        <v>124</v>
+      </c>
+      <c r="M52" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3349,7 +3808,10 @@
         <v>75</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>174</v>
+        <v>125</v>
+      </c>
+      <c r="M53" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3381,7 +3843,10 @@
         <v>121</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>175</v>
+        <v>126</v>
+      </c>
+      <c r="M54" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3413,7 +3878,10 @@
         <v>131</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>176</v>
+        <v>127</v>
+      </c>
+      <c r="M55" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3445,7 +3913,10 @@
         <v>98</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>177</v>
+        <v>128</v>
+      </c>
+      <c r="M56" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3477,7 +3948,10 @@
         <v>132</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>178</v>
+        <v>129</v>
+      </c>
+      <c r="M57" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3509,7 +3983,10 @@
         <v>149</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>179</v>
+        <v>130</v>
+      </c>
+      <c r="M58" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3540,11 +4017,11 @@
       <c r="K59" s="1">
         <v>89</v>
       </c>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M59" s="9" t="s">
-        <v>113</v>
+      <c r="M59" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3576,7 +4053,10 @@
         <v>69</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>180</v>
+        <v>131</v>
+      </c>
+      <c r="M60" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3608,7 +4088,10 @@
         <v>50</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
+      </c>
+      <c r="M61" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3640,7 +4123,10 @@
         <v>134</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>181</v>
+        <v>132</v>
+      </c>
+      <c r="M62" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3672,7 +4158,10 @@
         <v>78</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>182</v>
+        <v>133</v>
+      </c>
+      <c r="M63" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3704,10 +4193,13 @@
         <v>145</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="M64" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -3736,10 +4228,13 @@
         <v>82</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="M65" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -3768,10 +4263,13 @@
         <v>175</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="M66" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -3800,10 +4298,13 @@
         <v>91</v>
       </c>
       <c r="L67" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="M67" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -3832,10 +4333,13 @@
         <v>150</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="M68" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -3864,10 +4368,13 @@
         <v>110</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="M69" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -3896,10 +4403,13 @@
         <v>60</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="M70" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -3928,10 +4438,13 @@
         <v>70</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="M71" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -3960,10 +4473,13 @@
         <v>147</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="M72" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -3992,10 +4508,13 @@
         <v>90</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="M73" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -4024,10 +4543,13 @@
         <v>100</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="M74" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -4056,10 +4578,13 @@
         <v>156</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="M75" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -4088,10 +4613,13 @@
         <v>80</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="M76" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -4120,10 +4648,13 @@
         <v>75</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="M77" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -4152,10 +4683,13 @@
         <v>121</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="M78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -4184,10 +4718,13 @@
         <v>131</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="M79" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -4215,8 +4752,11 @@
       <c r="K80" s="1">
         <v>98</v>
       </c>
-      <c r="L80" s="5" t="s">
-        <v>198</v>
+      <c r="L80" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M80" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4247,8 +4787,11 @@
       <c r="K81" s="1">
         <v>132</v>
       </c>
-      <c r="L81" s="4" t="s">
-        <v>199</v>
+      <c r="L81" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M81" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4279,8 +4822,11 @@
       <c r="K82" s="1">
         <v>149</v>
       </c>
-      <c r="L82" s="5" t="s">
-        <v>200</v>
+      <c r="L82" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M82" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4311,11 +4857,11 @@
       <c r="K83" s="1">
         <v>89</v>
       </c>
-      <c r="L83" s="11" t="s">
+      <c r="L83" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M83" s="9" t="s">
-        <v>114</v>
+      <c r="M83" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4346,8 +4892,11 @@
       <c r="K84" s="1">
         <v>69</v>
       </c>
-      <c r="L84" s="5" t="s">
-        <v>201</v>
+      <c r="L84" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M84" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4378,8 +4927,11 @@
       <c r="K85" s="1">
         <v>50</v>
       </c>
-      <c r="L85" s="4" t="s">
-        <v>202</v>
+      <c r="L85" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M85" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4410,8 +4962,11 @@
       <c r="K86" s="1">
         <v>134</v>
       </c>
-      <c r="L86" s="5" t="s">
-        <v>203</v>
+      <c r="L86" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M86" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4442,8 +4997,11 @@
       <c r="K87" s="1">
         <v>78</v>
       </c>
-      <c r="L87" s="4" t="s">
-        <v>204</v>
+      <c r="L87" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M87" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4474,8 +5032,11 @@
       <c r="K88" s="1">
         <v>145</v>
       </c>
-      <c r="L88" s="5" t="s">
-        <v>205</v>
+      <c r="L88" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M88" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4506,8 +5067,11 @@
       <c r="K89" s="1">
         <v>82</v>
       </c>
-      <c r="L89" s="4" t="s">
-        <v>206</v>
+      <c r="L89" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M89" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4538,8 +5102,11 @@
       <c r="K90" s="1">
         <v>175</v>
       </c>
-      <c r="L90" s="5" t="s">
-        <v>207</v>
+      <c r="L90" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M90" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4570,8 +5137,11 @@
       <c r="K91" s="1">
         <v>91</v>
       </c>
-      <c r="L91" s="4" t="s">
-        <v>208</v>
+      <c r="L91" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M91" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4602,8 +5172,11 @@
       <c r="K92" s="1">
         <v>150</v>
       </c>
-      <c r="L92" s="5" t="s">
-        <v>209</v>
+      <c r="L92" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M92" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4634,8 +5207,11 @@
       <c r="K93" s="1">
         <v>110</v>
       </c>
-      <c r="L93" s="4" t="s">
-        <v>210</v>
+      <c r="L93" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M93" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4666,8 +5242,11 @@
       <c r="K94" s="1">
         <v>60</v>
       </c>
-      <c r="L94" s="5" t="s">
-        <v>211</v>
+      <c r="L94" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M94" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4698,8 +5277,11 @@
       <c r="K95" s="1">
         <v>70</v>
       </c>
-      <c r="L95" s="4" t="s">
-        <v>212</v>
+      <c r="L95" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M95" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4730,8 +5312,11 @@
       <c r="K96" s="1">
         <v>147</v>
       </c>
-      <c r="L96" s="5" t="s">
-        <v>213</v>
+      <c r="L96" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M96" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4762,8 +5347,11 @@
       <c r="K97" s="1">
         <v>90</v>
       </c>
-      <c r="L97" s="4" t="s">
-        <v>214</v>
+      <c r="L97" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M97" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4794,8 +5382,11 @@
       <c r="K98" s="1">
         <v>100</v>
       </c>
-      <c r="L98" s="5" t="s">
-        <v>215</v>
+      <c r="L98" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M98" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4826,8 +5417,11 @@
       <c r="K99" s="1">
         <v>156</v>
       </c>
-      <c r="L99" s="4" t="s">
-        <v>216</v>
+      <c r="L99" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M99" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4858,8 +5452,11 @@
       <c r="K100" s="1">
         <v>80</v>
       </c>
-      <c r="L100" s="5" t="s">
-        <v>217</v>
+      <c r="L100" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M100" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4890,8 +5487,11 @@
       <c r="K101" s="1">
         <v>75</v>
       </c>
-      <c r="L101" s="4" t="s">
-        <v>218</v>
+      <c r="L101" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M101" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4922,8 +5522,11 @@
       <c r="K102" s="1">
         <v>121</v>
       </c>
-      <c r="L102" s="5" t="s">
-        <v>219</v>
+      <c r="L102" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M102" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4954,8 +5557,11 @@
       <c r="K103" s="1">
         <v>131</v>
       </c>
-      <c r="L103" s="4" t="s">
-        <v>220</v>
+      <c r="L103" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M103" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4986,11 +5592,11 @@
       <c r="K104" s="1">
         <v>98</v>
       </c>
-      <c r="L104" s="10" t="s">
+      <c r="L104" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M104" s="9" t="s">
-        <v>111</v>
+      <c r="M104" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5021,8 +5627,11 @@
       <c r="K105" s="1">
         <v>132</v>
       </c>
-      <c r="L105" s="4" t="s">
-        <v>221</v>
+      <c r="L105" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M105" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5053,11 +5662,11 @@
       <c r="K106" s="1">
         <v>149</v>
       </c>
-      <c r="L106" s="10" t="s">
+      <c r="L106" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M106" s="9" t="s">
-        <v>119</v>
+      <c r="M106" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5088,8 +5697,11 @@
       <c r="K107" s="1">
         <v>89</v>
       </c>
-      <c r="L107" s="4" t="s">
-        <v>222</v>
+      <c r="L107" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M107" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5120,11 +5732,11 @@
       <c r="K108" s="1">
         <v>69</v>
       </c>
-      <c r="L108" s="10" t="s">
+      <c r="L108" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M108" s="9" t="s">
-        <v>115</v>
+      <c r="M108" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5155,8 +5767,11 @@
       <c r="K109" s="1">
         <v>50</v>
       </c>
-      <c r="L109" s="4" t="s">
-        <v>282</v>
+      <c r="L109" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M109" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5187,8 +5802,11 @@
       <c r="K110" s="1">
         <v>134</v>
       </c>
-      <c r="L110" s="5" t="s">
-        <v>223</v>
+      <c r="L110" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M110" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5219,8 +5837,11 @@
       <c r="K111" s="1">
         <v>78</v>
       </c>
-      <c r="L111" s="4" t="s">
-        <v>224</v>
+      <c r="L111" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M111" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5251,8 +5872,11 @@
       <c r="K112" s="1">
         <v>145</v>
       </c>
-      <c r="L112" s="5" t="s">
-        <v>225</v>
+      <c r="L112" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M112" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5283,8 +5907,11 @@
       <c r="K113" s="1">
         <v>82</v>
       </c>
-      <c r="L113" s="4" t="s">
-        <v>226</v>
+      <c r="L113" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M113" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5315,11 +5942,11 @@
       <c r="K114" s="1">
         <v>175</v>
       </c>
-      <c r="L114" s="11" t="s">
+      <c r="L114" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M114" s="9" t="s">
-        <v>122</v>
+      <c r="M114" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5350,8 +5977,11 @@
       <c r="K115" s="1">
         <v>91</v>
       </c>
-      <c r="L115" s="4" t="s">
-        <v>227</v>
+      <c r="L115" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M115" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5382,8 +6012,11 @@
       <c r="K116" s="1">
         <v>150</v>
       </c>
-      <c r="L116" s="5" t="s">
-        <v>228</v>
+      <c r="L116" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M116" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5414,8 +6047,11 @@
       <c r="K117" s="1">
         <v>110</v>
       </c>
-      <c r="L117" s="4" t="s">
-        <v>229</v>
+      <c r="L117" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M117" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5446,8 +6082,11 @@
       <c r="K118" s="1">
         <v>60</v>
       </c>
-      <c r="L118" s="5" t="s">
-        <v>230</v>
+      <c r="L118" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M118" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5478,8 +6117,11 @@
       <c r="K119" s="1">
         <v>70</v>
       </c>
-      <c r="L119" s="4" t="s">
-        <v>231</v>
+      <c r="L119" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M119" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5510,8 +6152,11 @@
       <c r="K120" s="1">
         <v>147</v>
       </c>
-      <c r="L120" s="5" t="s">
-        <v>232</v>
+      <c r="L120" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M120" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5542,8 +6187,11 @@
       <c r="K121" s="1">
         <v>90</v>
       </c>
-      <c r="L121" s="4" t="s">
-        <v>233</v>
+      <c r="L121" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M121" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5574,8 +6222,11 @@
       <c r="K122" s="1">
         <v>100</v>
       </c>
-      <c r="L122" s="5" t="s">
-        <v>234</v>
+      <c r="L122" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M122" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5606,8 +6257,11 @@
       <c r="K123" s="1">
         <v>156</v>
       </c>
-      <c r="L123" t="s">
-        <v>235</v>
+      <c r="L123" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="M123" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5638,8 +6292,11 @@
       <c r="K124" s="1">
         <v>80</v>
       </c>
-      <c r="L124" s="5" t="s">
-        <v>236</v>
+      <c r="L124" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M124" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5670,8 +6327,11 @@
       <c r="K125" s="1">
         <v>75</v>
       </c>
-      <c r="L125" s="4" t="s">
-        <v>237</v>
+      <c r="L125" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M125" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5702,8 +6362,11 @@
       <c r="K126" s="1">
         <v>121</v>
       </c>
-      <c r="L126" s="5" t="s">
-        <v>238</v>
+      <c r="L126" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M126" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5734,8 +6397,11 @@
       <c r="K127" s="1">
         <v>131</v>
       </c>
-      <c r="L127" s="4" t="s">
-        <v>239</v>
+      <c r="L127" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M127" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5766,8 +6432,11 @@
       <c r="K128" s="1">
         <v>98</v>
       </c>
-      <c r="L128" s="5" t="s">
-        <v>240</v>
+      <c r="L128" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M128" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -5798,8 +6467,11 @@
       <c r="K129" s="1">
         <v>132</v>
       </c>
-      <c r="L129" s="4" t="s">
-        <v>241</v>
+      <c r="L129" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M129" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -5830,8 +6502,11 @@
       <c r="K130" s="1">
         <v>149</v>
       </c>
-      <c r="L130" s="5" t="s">
-        <v>242</v>
+      <c r="L130" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M130" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -5862,8 +6537,11 @@
       <c r="K131" s="1">
         <v>89</v>
       </c>
-      <c r="L131" s="4" t="s">
-        <v>243</v>
+      <c r="L131" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M131" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -5894,11 +6572,11 @@
       <c r="K132" s="1">
         <v>69</v>
       </c>
-      <c r="L132" s="11" t="s">
+      <c r="L132" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M132" s="9" t="s">
-        <v>110</v>
+      <c r="M132" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -5929,8 +6607,11 @@
       <c r="K133" s="1">
         <v>50</v>
       </c>
-      <c r="L133" s="5" t="s">
-        <v>244</v>
+      <c r="L133" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M133" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -5961,8 +6642,11 @@
       <c r="K134" s="1">
         <v>134</v>
       </c>
-      <c r="L134" s="5" t="s">
-        <v>245</v>
+      <c r="L134" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M134" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -5993,8 +6677,11 @@
       <c r="K135" s="1">
         <v>78</v>
       </c>
-      <c r="L135" s="4" t="s">
-        <v>246</v>
+      <c r="L135" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M135" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -6025,8 +6712,11 @@
       <c r="K136" s="1">
         <v>145</v>
       </c>
-      <c r="L136" s="5" t="s">
-        <v>247</v>
+      <c r="L136" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M136" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6057,8 +6747,11 @@
       <c r="K137" s="1">
         <v>82</v>
       </c>
-      <c r="L137" s="4" t="s">
-        <v>248</v>
+      <c r="L137" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M137" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6089,11 +6782,11 @@
       <c r="K138" s="1">
         <v>175</v>
       </c>
-      <c r="L138" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="M138" s="9" t="s">
-        <v>121</v>
+      <c r="L138" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M138" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6124,8 +6817,11 @@
       <c r="K139" s="1">
         <v>91</v>
       </c>
-      <c r="L139" s="4" t="s">
-        <v>250</v>
+      <c r="L139" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M139" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6156,8 +6852,11 @@
       <c r="K140" s="1">
         <v>150</v>
       </c>
-      <c r="L140" s="5" t="s">
-        <v>251</v>
+      <c r="L140" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M140" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6188,8 +6887,11 @@
       <c r="K141" s="1">
         <v>110</v>
       </c>
-      <c r="L141" s="4" t="s">
-        <v>252</v>
+      <c r="L141" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M141" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6220,8 +6922,11 @@
       <c r="K142" s="1">
         <v>60</v>
       </c>
-      <c r="L142" s="5" t="s">
-        <v>253</v>
+      <c r="L142" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M142" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6252,8 +6957,11 @@
       <c r="K143" s="1">
         <v>70</v>
       </c>
-      <c r="L143" s="4" t="s">
-        <v>254</v>
+      <c r="L143" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M143" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6284,8 +6992,11 @@
       <c r="K144" s="1">
         <v>147</v>
       </c>
-      <c r="L144" s="5" t="s">
-        <v>255</v>
+      <c r="L144" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M144" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6316,8 +7027,11 @@
       <c r="K145" s="1">
         <v>90</v>
       </c>
-      <c r="L145" s="4" t="s">
-        <v>265</v>
+      <c r="L145" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M145" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6348,8 +7062,11 @@
       <c r="K146" s="1">
         <v>100</v>
       </c>
-      <c r="L146" s="4" t="s">
-        <v>256</v>
+      <c r="L146" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M146" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6380,8 +7097,11 @@
       <c r="K147" s="1">
         <v>156</v>
       </c>
-      <c r="L147" s="4" t="s">
-        <v>257</v>
+      <c r="L147" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M147" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6412,8 +7132,11 @@
       <c r="K148" s="1">
         <v>80</v>
       </c>
-      <c r="L148" s="5" t="s">
-        <v>258</v>
+      <c r="L148" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M148" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6444,8 +7167,11 @@
       <c r="K149" s="1">
         <v>75</v>
       </c>
-      <c r="L149" s="4" t="s">
-        <v>259</v>
+      <c r="L149" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M149" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6476,8 +7202,11 @@
       <c r="K150" s="1">
         <v>121</v>
       </c>
-      <c r="L150" s="5" t="s">
-        <v>260</v>
+      <c r="L150" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M150" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6508,8 +7237,11 @@
       <c r="K151" s="1">
         <v>131</v>
       </c>
-      <c r="L151" s="4" t="s">
-        <v>261</v>
+      <c r="L151" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M151" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6540,8 +7272,11 @@
       <c r="K152" s="1">
         <v>98</v>
       </c>
-      <c r="L152" s="5" t="s">
-        <v>262</v>
+      <c r="L152" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M152" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6572,11 +7307,11 @@
       <c r="K153" s="1">
         <v>132</v>
       </c>
-      <c r="L153" s="11" t="s">
+      <c r="L153" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M153" s="9" t="s">
-        <v>112</v>
+      <c r="M153" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -6607,8 +7342,11 @@
       <c r="K154" s="1">
         <v>149</v>
       </c>
-      <c r="L154" s="5" t="s">
-        <v>263</v>
+      <c r="L154" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M154" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -6639,8 +7377,11 @@
       <c r="K155" s="1">
         <v>89</v>
       </c>
-      <c r="L155" s="4" t="s">
-        <v>264</v>
+      <c r="L155" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M155" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -6671,8 +7412,11 @@
       <c r="K156" s="1">
         <v>69</v>
       </c>
-      <c r="L156" s="5" t="s">
-        <v>266</v>
+      <c r="L156" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M156" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -6703,8 +7447,11 @@
       <c r="K157" s="1">
         <v>50</v>
       </c>
-      <c r="L157" s="4" t="s">
-        <v>267</v>
+      <c r="L157" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M157" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -6735,8 +7482,11 @@
       <c r="K158" s="1">
         <v>134</v>
       </c>
-      <c r="L158" s="5" t="s">
-        <v>268</v>
+      <c r="L158" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M158" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -6767,8 +7517,11 @@
       <c r="K159" s="1">
         <v>78</v>
       </c>
-      <c r="L159" s="4" t="s">
-        <v>269</v>
+      <c r="L159" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M159" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -6799,8 +7552,11 @@
       <c r="K160" s="1">
         <v>145</v>
       </c>
-      <c r="L160" s="5" t="s">
-        <v>270</v>
+      <c r="L160" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M160" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -6831,8 +7587,11 @@
       <c r="K161" s="1">
         <v>82</v>
       </c>
-      <c r="L161" s="4" t="s">
-        <v>271</v>
+      <c r="L161" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M161" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -6863,8 +7622,11 @@
       <c r="K162" s="1">
         <v>175</v>
       </c>
-      <c r="L162" s="5" t="s">
-        <v>272</v>
+      <c r="L162" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M162" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -6895,8 +7657,11 @@
       <c r="K163" s="1">
         <v>91</v>
       </c>
-      <c r="L163" s="4" t="s">
-        <v>273</v>
+      <c r="L163" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M163" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -6927,8 +7692,11 @@
       <c r="K164" s="1">
         <v>150</v>
       </c>
-      <c r="L164" s="5" t="s">
-        <v>275</v>
+      <c r="L164" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M164" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -6959,8 +7727,11 @@
       <c r="K165" s="1">
         <v>110</v>
       </c>
-      <c r="L165" s="4" t="s">
-        <v>276</v>
+      <c r="L165" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M165" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -6991,8 +7762,11 @@
       <c r="K166" s="1">
         <v>60</v>
       </c>
-      <c r="L166" s="5" t="s">
-        <v>277</v>
+      <c r="L166" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M166" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7023,8 +7797,11 @@
       <c r="K167" s="1">
         <v>70</v>
       </c>
-      <c r="L167" s="4" t="s">
-        <v>279</v>
+      <c r="L167" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M167" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7055,8 +7832,11 @@
       <c r="K168" s="1">
         <v>147</v>
       </c>
-      <c r="L168" s="5" t="s">
-        <v>278</v>
+      <c r="L168" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M168" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7087,8 +7867,11 @@
       <c r="K169" s="1">
         <v>90</v>
       </c>
-      <c r="L169" s="4" t="s">
-        <v>274</v>
+      <c r="L169" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M169" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7119,11 +7902,11 @@
       <c r="K170" s="1">
         <v>100</v>
       </c>
-      <c r="L170" s="11" t="s">
+      <c r="L170" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M170" s="9" t="s">
-        <v>107</v>
+      <c r="M170" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7154,8 +7937,11 @@
       <c r="K171" s="1">
         <v>156</v>
       </c>
-      <c r="L171" s="4" t="s">
-        <v>283</v>
+      <c r="L171" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M171" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7186,8 +7972,11 @@
       <c r="K172" s="1">
         <v>80</v>
       </c>
-      <c r="L172" s="5" t="s">
-        <v>284</v>
+      <c r="L172" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M172" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7218,8 +8007,11 @@
       <c r="K173" s="1">
         <v>75</v>
       </c>
-      <c r="L173" s="4" t="s">
-        <v>285</v>
+      <c r="L173" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M173" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7250,8 +8042,11 @@
       <c r="K174" s="1">
         <v>121</v>
       </c>
-      <c r="L174" s="5" t="s">
-        <v>286</v>
+      <c r="L174" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M174" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7282,8 +8077,11 @@
       <c r="K175" s="1">
         <v>131</v>
       </c>
-      <c r="L175" s="4" t="s">
-        <v>287</v>
+      <c r="L175" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M175" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7314,8 +8112,11 @@
       <c r="K176" s="1">
         <v>98</v>
       </c>
-      <c r="L176" s="5" t="s">
-        <v>290</v>
+      <c r="L176" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M176" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7346,8 +8147,11 @@
       <c r="K177" s="1">
         <v>132</v>
       </c>
-      <c r="L177" s="4" t="s">
-        <v>292</v>
+      <c r="L177" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M177" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -7378,8 +8182,11 @@
       <c r="K178" s="1">
         <v>149</v>
       </c>
-      <c r="L178" s="5" t="s">
-        <v>288</v>
+      <c r="L178" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M178" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -7410,8 +8217,11 @@
       <c r="K179" s="1">
         <v>89</v>
       </c>
-      <c r="L179" s="4" t="s">
-        <v>289</v>
+      <c r="L179" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M179" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -7442,11 +8252,11 @@
       <c r="K180" s="1">
         <v>69</v>
       </c>
-      <c r="L180" s="11" t="s">
+      <c r="L180" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M180" s="9" t="s">
-        <v>116</v>
+      <c r="M180" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -7477,8 +8287,11 @@
       <c r="K181" s="1">
         <v>50</v>
       </c>
-      <c r="L181" s="4" t="s">
-        <v>291</v>
+      <c r="L181" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M181" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -7509,8 +8322,11 @@
       <c r="K182" s="1">
         <v>134</v>
       </c>
-      <c r="L182" s="5" t="s">
-        <v>293</v>
+      <c r="L182" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M182" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -7541,8 +8357,11 @@
       <c r="K183" s="1">
         <v>78</v>
       </c>
-      <c r="L183" s="4" t="s">
-        <v>294</v>
+      <c r="L183" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M183" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -7573,8 +8392,11 @@
       <c r="K184" s="1">
         <v>145</v>
       </c>
-      <c r="L184" s="5" t="s">
-        <v>295</v>
+      <c r="L184" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M184" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -7605,8 +8427,11 @@
       <c r="K185" s="1">
         <v>82</v>
       </c>
-      <c r="L185" s="4" t="s">
-        <v>296</v>
+      <c r="L185" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M185" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -7637,8 +8462,11 @@
       <c r="K186" s="1">
         <v>175</v>
       </c>
-      <c r="L186" s="5" t="s">
-        <v>297</v>
+      <c r="L186" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M186" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -7669,8 +8497,11 @@
       <c r="K187" s="1">
         <v>91</v>
       </c>
-      <c r="L187" s="4" t="s">
-        <v>298</v>
+      <c r="L187" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M187" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -7701,8 +8532,11 @@
       <c r="K188" s="1">
         <v>150</v>
       </c>
-      <c r="L188" s="5" t="s">
-        <v>299</v>
+      <c r="L188" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M188" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -7733,8 +8567,11 @@
       <c r="K189" s="1">
         <v>110</v>
       </c>
-      <c r="L189" s="4" t="s">
-        <v>300</v>
+      <c r="L189" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M189" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -7765,8 +8602,11 @@
       <c r="K190" s="1">
         <v>60</v>
       </c>
-      <c r="L190" s="5" t="s">
-        <v>301</v>
+      <c r="L190" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M190" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -7797,8 +8637,11 @@
       <c r="K191" s="1">
         <v>70</v>
       </c>
-      <c r="L191" s="4" t="s">
-        <v>302</v>
+      <c r="L191" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M191" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -7829,11 +8672,14 @@
       <c r="K192" s="1">
         <v>147</v>
       </c>
-      <c r="L192" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L192" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M192" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>191</v>
       </c>
@@ -7861,8 +8707,11 @@
       <c r="K193" s="1">
         <v>90</v>
       </c>
-      <c r="L193" s="4" t="s">
-        <v>304</v>
+      <c r="L193" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M193" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -7871,6 +8720,7 @@
       <dataRef ref="B1:K1048576" sheet="Sheet1"/>
     </dataRefs>
   </dataConsolidate>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
